--- a/Project Report Format.xlsx
+++ b/Project Report Format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lavis\OneDrive\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B4E2E6-ADEA-4BB1-9C4A-8EA3FFB659A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A911E5-E332-4ADC-8A90-FF0CE339EBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="926" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="926" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Details" sheetId="30" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="14">Pback!$A$1:$E$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Phigh!$A$1:$D$99</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">PL!$A$1:$F$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'PM-MFA'!$A$1:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'PM-MFA'!$A$1:$E$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Pre Operative exp'!$A$1:$E$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="274">
   <si>
     <t xml:space="preserve">                        Profit After Tax</t>
   </si>
@@ -813,9 +813,6 @@
     <t>Rented</t>
   </si>
   <si>
-    <t>AC</t>
-  </si>
-  <si>
     <t>11.0    Electricity etc.</t>
   </si>
   <si>
@@ -846,13 +843,7 @@
     <t>Johan, udhumpur, J&amp;K, 182124</t>
   </si>
   <si>
-    <t>ECG Machine</t>
-  </si>
-  <si>
     <t>Furniture &amp; Fixture</t>
-  </si>
-  <si>
-    <t>Furniture</t>
   </si>
   <si>
     <t>1.0       Manager</t>
@@ -883,12 +874,6 @@
   </si>
   <si>
     <t>ERBA EC 90 Electrolyte Analyz</t>
-  </si>
-  <si>
-    <t>ECL 105 Coagulation Analyser</t>
-  </si>
-  <si>
-    <t>Laura Semi Automated Yrine Analyser</t>
   </si>
   <si>
     <t>B. OTHER INCOME</t>
@@ -955,8 +940,8 @@
     <numFmt numFmtId="175" formatCode="0.00\ &quot;Times&quot;"/>
     <numFmt numFmtId="176" formatCode="General\ &quot;Days&quot;"/>
     <numFmt numFmtId="177" formatCode="0\ &quot;Days&quot;"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="General\ &quot;sq. ft&quot;"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="General\ &quot;sq. ft&quot;"/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -1658,7 +1643,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="16"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -1673,6 +1658,51 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="179" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1698,12 +1728,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1717,39 +1741,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1816,12 +1807,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2246,7 +2231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F170FFE-54A9-4A21-ACCD-4D0E784EBF5B}">
   <dimension ref="B3:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2258,23 +2243,23 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C5" t="s">
         <v>242</v>
@@ -2282,23 +2267,23 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C8" t="s">
         <v>243</v>
@@ -2306,15 +2291,15 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>273</v>
-      </c>
-      <c r="C9" s="201">
+        <v>268</v>
+      </c>
+      <c r="C9" s="152">
         <v>1100</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C10">
         <v>30000</v>
@@ -2322,33 +2307,33 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="C11" s="202">
+        <v>270</v>
+      </c>
+      <c r="C11" s="153">
         <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="C12" s="202">
+        <v>271</v>
+      </c>
+      <c r="C12" s="153">
         <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="C13" s="203">
+        <v>272</v>
+      </c>
+      <c r="C13" s="154">
         <v>0.1195</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="C14" s="203">
+        <v>273</v>
+      </c>
+      <c r="C14" s="154">
         <v>0.1195</v>
       </c>
     </row>
@@ -2377,19 +2362,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="181" t="str">
+      <c r="A1" s="185" t="str">
         <f>+Dep!A1</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B1" s="181"/>
+      <c r="B1" s="185"/>
       <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="182" t="str">
+      <c r="A2" s="186" t="str">
         <f>+Dep!A2</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B2" s="182"/>
+      <c r="B2" s="186"/>
       <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:8" ht="14" x14ac:dyDescent="0.3">
@@ -2403,10 +2388,10 @@
       <c r="H3" s="43"/>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="193" t="s">
+      <c r="A5" s="197" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="193"/>
+      <c r="B5" s="197"/>
       <c r="C5" s="45"/>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
@@ -2456,16 +2441,16 @@
         <v>87</v>
       </c>
       <c r="B13" s="47">
-        <f>'PM-MFA'!E16/10^5</f>
-        <v>6.4</v>
+        <f>'PM-MFA'!E13/10^5</f>
+        <v>1.9588000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B15" s="47">
-        <f>'PM-MFA'!E36/100000</f>
+        <f>'PM-MFA'!E33/100000</f>
         <v>3.6</v>
       </c>
     </row>
@@ -2485,7 +2470,7 @@
       </c>
       <c r="D17" s="47">
         <f>B20-25</f>
-        <v>-15</v>
+        <v>-19.441200000000002</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2499,7 +2484,7 @@
       </c>
       <c r="B20" s="82">
         <f>SUM(B11:B18)</f>
-        <v>10</v>
+        <v>5.5587999999999997</v>
       </c>
       <c r="C20" s="47"/>
     </row>
@@ -2520,7 +2505,7 @@
       </c>
       <c r="B25" s="47">
         <f>B20*'Basic Details'!C11</f>
-        <v>0.5</v>
+        <v>0.27794000000000002</v>
       </c>
       <c r="C25" s="87">
         <f>B25/B20</f>
@@ -2533,7 +2518,7 @@
       </c>
       <c r="B27" s="47">
         <f>(B11+B13+B15)*(1-'Basic Details'!C11)</f>
-        <v>9.5</v>
+        <v>5.2808599999999997</v>
       </c>
       <c r="C27" s="87">
         <f>B27/SUM($B$27:$B$29)</f>
@@ -2541,7 +2526,7 @@
       </c>
       <c r="E27" s="27">
         <f>B27/0.95</f>
-        <v>10</v>
+        <v>5.5587999999999997</v>
       </c>
       <c r="F27" s="27">
         <f>4/0.95*10^5</f>
@@ -2577,7 +2562,7 @@
       </c>
       <c r="B31" s="82">
         <f>SUM(B25:B29)</f>
-        <v>10</v>
+        <v>5.5587999999999997</v>
       </c>
       <c r="C31" s="27">
         <f>2*0.95</f>
@@ -2599,7 +2584,7 @@
       </c>
       <c r="B33" s="80">
         <f>B20*'Basic Details'!C12</f>
-        <v>2.5</v>
+        <v>1.3896999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -2615,7 +2600,7 @@
       </c>
       <c r="B36" s="88">
         <f>BS!D44</f>
-        <v>0.71608768682353396</v>
+        <v>-1.6990585523623536E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2664,43 +2649,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="181" t="str">
+      <c r="A1" s="185" t="str">
         <f>Dep!A1</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
     </row>
     <row r="2" spans="1:10" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="183" t="str">
+      <c r="A2" s="187" t="str">
         <f>Dep!A2</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
     </row>
     <row r="3" spans="1:10" ht="14" x14ac:dyDescent="0.3">
-      <c r="A3" s="185"/>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
+      <c r="A3" s="189"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
     </row>
     <row r="5" spans="1:10" ht="14" x14ac:dyDescent="0.3">
-      <c r="A5" s="180" t="s">
+      <c r="A5" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="180"/>
+      <c r="B5" s="184"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
@@ -2714,11 +2699,11 @@
       <c r="A7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="194">
+      <c r="C7" s="198">
         <f>+Cost!B27</f>
-        <v>9.5</v>
-      </c>
-      <c r="D7" s="195"/>
+        <v>5.2808599999999997</v>
+      </c>
+      <c r="D7" s="199"/>
     </row>
     <row r="9" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A9" s="91" t="s">
@@ -2744,14 +2729,14 @@
       </c>
       <c r="B11" s="75">
         <f>+C7</f>
-        <v>9.5</v>
+        <v>5.2808599999999997</v>
       </c>
       <c r="C11" s="75">
         <v>4.5593772000000001</v>
       </c>
       <c r="D11" s="75">
         <f>B11+E11-C11</f>
-        <v>6.8415949999999999</v>
+        <v>2.6224549999999995</v>
       </c>
       <c r="E11" s="75">
         <v>1.9009722000000002</v>
@@ -2774,7 +2759,7 @@
       </c>
       <c r="B13" s="81">
         <f>D11</f>
-        <v>6.8415949999999999</v>
+        <v>2.6224549999999995</v>
       </c>
       <c r="C13" s="75">
         <f>C11</f>
@@ -2782,7 +2767,7 @@
       </c>
       <c r="D13" s="75">
         <f>B13+E13-C13</f>
-        <v>3.8475202999999993</v>
+        <v>-0.37161970000000011</v>
       </c>
       <c r="E13" s="75">
         <v>1.5653025000000003</v>
@@ -2801,7 +2786,7 @@
       </c>
       <c r="B15" s="81">
         <f>D13</f>
-        <v>3.8475202999999993</v>
+        <v>-0.37161970000000011</v>
       </c>
       <c r="C15" s="75">
         <f>C13</f>
@@ -2809,7 +2794,7 @@
       </c>
       <c r="D15" s="75">
         <f>B15+E15-C15</f>
-        <v>0.47539199999999937</v>
+        <v>-3.7437480000000001</v>
       </c>
       <c r="E15" s="75">
         <v>1.1872488999999999</v>
@@ -2827,7 +2812,7 @@
       </c>
       <c r="B17" s="81">
         <f>D15</f>
-        <v>0.47539199999999937</v>
+        <v>-3.7437480000000001</v>
       </c>
       <c r="C17" s="75">
         <f>C15</f>
@@ -2835,7 +2820,7 @@
       </c>
       <c r="D17" s="75">
         <f>B17+E17-C17</f>
-        <v>-3.3225261000000006</v>
+        <v>-7.5416661000000005</v>
       </c>
       <c r="E17" s="75">
         <v>0.76145910000000006</v>
@@ -2853,7 +2838,7 @@
       </c>
       <c r="B19" s="81">
         <f>D17</f>
-        <v>-3.3225261000000006</v>
+        <v>-7.5416661000000005</v>
       </c>
       <c r="C19" s="75">
         <f>C17</f>
@@ -2865,7 +2850,7 @@
       </c>
       <c r="E19" s="75">
         <f>C19-B19</f>
-        <v>7.8819033000000012</v>
+        <v>12.101043300000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2900,11 +2885,11 @@
     <row r="28" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A28" s="26"/>
       <c r="B28" s="65"/>
-      <c r="C28" s="194">
+      <c r="C28" s="198">
         <f>+Cost!B29</f>
         <v>0</v>
       </c>
-      <c r="D28" s="195"/>
+      <c r="D28" s="199"/>
       <c r="E28" s="35"/>
     </row>
     <row r="29" spans="1:5" ht="28" x14ac:dyDescent="0.25">
@@ -3086,46 +3071,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="197" t="str">
+      <c r="A1" s="201" t="str">
         <f>Exp!A1</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
     </row>
     <row r="2" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="183" t="str">
+      <c r="A2" s="187" t="str">
         <f>Exp!A2</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
     </row>
     <row r="3" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A3" s="185"/>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
+      <c r="A3" s="189"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
     </row>
     <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A5" s="180" t="s">
+      <c r="A5" s="184" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
+      <c r="B5" s="184"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="184"/>
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
     </row>
@@ -3134,23 +3119,23 @@
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
-      <c r="E6" s="186" t="s">
+      <c r="E6" s="190" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="196"/>
+      <c r="F6" s="200"/>
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="178" t="s">
+      <c r="B7" s="182" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="178"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
       <c r="G7" s="64"/>
     </row>
     <row r="8" spans="1:8" ht="14" x14ac:dyDescent="0.3">
@@ -3226,7 +3211,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B14" s="142">
         <v>0</v>
@@ -3262,7 +3247,7 @@
     </row>
     <row r="17" spans="1:12 16384:16384" ht="14" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B17" s="145">
         <f>B11+B14</f>
@@ -3332,7 +3317,7 @@
       </c>
       <c r="F20" s="75">
         <f>Intt!E19</f>
-        <v>7.8819033000000012</v>
+        <v>12.101043300000001</v>
       </c>
       <c r="I20" s="87"/>
       <c r="J20" s="87"/>
@@ -3556,23 +3541,23 @@
       </c>
       <c r="B30" s="75">
         <f>Dep!E15</f>
-        <v>1.3699999999999999</v>
+        <v>0.70382</v>
       </c>
       <c r="C30" s="75">
         <f>Dep!E17</f>
-        <v>1.1775</v>
+        <v>0.61124699999999998</v>
       </c>
       <c r="D30" s="81">
         <f>Dep!E19</f>
-        <v>1.012575</v>
+        <v>0.53125995000000004</v>
       </c>
       <c r="E30" s="81">
         <f>Dep!E21</f>
-        <v>0.87121875000000015</v>
+        <v>0.46210095750000002</v>
       </c>
       <c r="F30" s="81">
         <f>Dep!E23</f>
-        <v>0.75001293750000009</v>
+        <v>0.40226281387500007</v>
       </c>
     </row>
     <row r="31" spans="1:12 16384:16384" x14ac:dyDescent="0.25">
@@ -3588,23 +3573,23 @@
       </c>
       <c r="B32" s="145">
         <f>SUM(B20:B30)</f>
-        <v>24.022972200000005</v>
+        <v>23.356792200000005</v>
       </c>
       <c r="C32" s="146">
         <f>SUM(C20:C30)</f>
-        <v>25.390002500000005</v>
+        <v>24.823749500000005</v>
       </c>
       <c r="D32" s="146">
         <f>SUM(D20:D30)</f>
-        <v>26.922743900000007</v>
+        <v>26.441428850000008</v>
       </c>
       <c r="E32" s="145">
         <f>SUM(E20:E30)</f>
-        <v>28.629439850000008</v>
+        <v>28.220322057500006</v>
       </c>
       <c r="F32" s="146">
         <f>SUM(F20:F30)</f>
-        <v>38.119981937500015</v>
+        <v>41.991371813875006</v>
       </c>
       <c r="H32" s="87"/>
       <c r="I32" s="87"/>
@@ -3632,23 +3617,23 @@
       </c>
       <c r="B35" s="145">
         <f>B17-B32</f>
-        <v>5.9770277999999948</v>
+        <v>6.6432077999999954</v>
       </c>
       <c r="C35" s="146">
         <f>C17-C32</f>
-        <v>7.6099974999999951</v>
+        <v>8.1762504999999948</v>
       </c>
       <c r="D35" s="146">
         <f>D17-D32</f>
-        <v>9.3772560999999968</v>
+        <v>9.858571149999996</v>
       </c>
       <c r="E35" s="145">
         <f>E17-E32</f>
-        <v>11.300560149999999</v>
+        <v>11.709677942500001</v>
       </c>
       <c r="F35" s="146">
         <f>F17-F32</f>
-        <v>5.8030180624999943</v>
+        <v>1.9316281861250033</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -3659,23 +3644,23 @@
       <c r="F36" s="81"/>
       <c r="H36" s="87">
         <f>B39/B11</f>
-        <v>0.19923425999999983</v>
+        <v>0.22144025999999986</v>
       </c>
       <c r="I36" s="87">
         <f>C39/C11</f>
-        <v>0.23060598484848471</v>
+        <v>0.24776516666666651</v>
       </c>
       <c r="J36" s="87">
         <f>D39/D11</f>
-        <v>0.25832661432506876</v>
+        <v>0.27158598209366375</v>
       </c>
       <c r="K36" s="87">
         <f>E39/E11</f>
-        <v>0.28300926997245174</v>
+        <v>0.29325514506636613</v>
       </c>
       <c r="L36" s="87">
         <f>F39/F11</f>
-        <v>9.7967307845547746E-2</v>
+        <v>9.8269286279398776E-3</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3711,23 +3696,23 @@
       </c>
       <c r="B39" s="145">
         <f>B35-B37</f>
-        <v>5.9770277999999948</v>
+        <v>6.6432077999999954</v>
       </c>
       <c r="C39" s="146">
         <f>C35-C37</f>
-        <v>7.6099974999999951</v>
+        <v>8.1762504999999948</v>
       </c>
       <c r="D39" s="146">
         <f>D35-D37</f>
-        <v>9.3772560999999968</v>
+        <v>9.858571149999996</v>
       </c>
       <c r="E39" s="145">
         <f>E35-E37</f>
-        <v>11.300560149999999</v>
+        <v>11.709677942500001</v>
       </c>
       <c r="F39" s="146">
         <f>F35-F37</f>
-        <v>4.3030180624999943</v>
+        <v>0.43162818612500331</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="14" x14ac:dyDescent="0.3">
@@ -3744,23 +3729,23 @@
       </c>
       <c r="B41" s="75">
         <f>B39*0.7</f>
-        <v>4.1839194599999958</v>
+        <v>4.6502454599999963</v>
       </c>
       <c r="C41" s="75">
         <f t="shared" ref="C41:F41" si="3">C39*0.7</f>
-        <v>5.3269982499999964</v>
+        <v>5.723375349999996</v>
       </c>
       <c r="D41" s="75">
         <f t="shared" si="3"/>
-        <v>6.564079269999997</v>
+        <v>6.900999804999997</v>
       </c>
       <c r="E41" s="75">
         <f t="shared" si="3"/>
-        <v>7.9103921049999988</v>
+        <v>8.1967745597500006</v>
       </c>
       <c r="F41" s="75">
         <f t="shared" si="3"/>
-        <v>3.0121126437499957</v>
+        <v>0.30213973028750229</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3776,23 +3761,23 @@
       </c>
       <c r="B43" s="81">
         <f>B39-B41</f>
-        <v>1.793108339999999</v>
+        <v>1.9929623399999992</v>
       </c>
       <c r="C43" s="81">
         <f>C39-C41</f>
-        <v>2.2829992499999987</v>
+        <v>2.4528751499999988</v>
       </c>
       <c r="D43" s="81">
         <f>D39-D41</f>
-        <v>2.8131768299999997</v>
+        <v>2.957571344999999</v>
       </c>
       <c r="E43" s="81">
         <f>E39-E41</f>
-        <v>3.3901680450000002</v>
+        <v>3.5129033827500002</v>
       </c>
       <c r="F43" s="81">
         <f>F39-F41</f>
-        <v>1.2909054187499986</v>
+        <v>0.12948845583750102</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -3808,23 +3793,23 @@
       </c>
       <c r="B45" s="75">
         <f>B39-B41</f>
-        <v>1.793108339999999</v>
+        <v>1.9929623399999992</v>
       </c>
       <c r="C45" s="75">
         <f>B45+C43</f>
-        <v>4.0761075899999977</v>
+        <v>4.4458374899999979</v>
       </c>
       <c r="D45" s="75">
         <f>C45+D43</f>
-        <v>6.8892844199999974</v>
+        <v>7.4034088349999969</v>
       </c>
       <c r="E45" s="75">
         <f>D45+E43</f>
-        <v>10.279452464999999</v>
+        <v>10.916312217749997</v>
       </c>
       <c r="F45" s="75">
         <f>F43+E45</f>
-        <v>11.570357883749997</v>
+        <v>11.045800673587499</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="14" x14ac:dyDescent="0.3">
@@ -3839,7 +3824,7 @@
     </row>
     <row r="48" spans="1:12" ht="14" x14ac:dyDescent="0.3">
       <c r="A48" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B48" s="87"/>
       <c r="C48" s="87"/>
@@ -3989,26 +3974,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="197" t="str">
+      <c r="A1" s="201" t="str">
         <f>Pback!A1</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
     </row>
     <row r="2" spans="1:12" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="183" t="str">
+      <c r="A2" s="187" t="str">
         <f>Pback!A2</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
     </row>
     <row r="3" spans="1:12" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="45"/>
@@ -4021,14 +4006,14 @@
       <c r="H3" s="43"/>
     </row>
     <row r="5" spans="1:12" ht="14" x14ac:dyDescent="0.3">
-      <c r="A5" s="180" t="s">
+      <c r="A5" s="184" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
+      <c r="B5" s="184"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="184"/>
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
     </row>
@@ -4037,23 +4022,23 @@
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
-      <c r="E6" s="186" t="s">
+      <c r="E6" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="186"/>
+      <c r="F6" s="190"/>
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="178" t="s">
+      <c r="B7" s="182" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="178"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
       <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:12" ht="14" x14ac:dyDescent="0.3">
@@ -4086,23 +4071,23 @@
       </c>
       <c r="B12" s="75">
         <f>Cost!B25</f>
-        <v>0.5</v>
+        <v>0.27794000000000002</v>
       </c>
       <c r="C12" s="75">
         <f>B12</f>
-        <v>0.5</v>
+        <v>0.27794000000000002</v>
       </c>
       <c r="D12" s="81">
         <f>C12</f>
-        <v>0.5</v>
+        <v>0.27794000000000002</v>
       </c>
       <c r="E12" s="81">
         <f>D12</f>
-        <v>0.5</v>
+        <v>0.27794000000000002</v>
       </c>
       <c r="F12" s="81">
         <f>E12</f>
-        <v>0.5</v>
+        <v>0.27794000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -4118,23 +4103,23 @@
       </c>
       <c r="B14" s="75">
         <f>PL!B45</f>
-        <v>1.793108339999999</v>
+        <v>1.9929623399999992</v>
       </c>
       <c r="C14" s="75">
         <f>PL!C45</f>
-        <v>4.0761075899999977</v>
+        <v>4.4458374899999979</v>
       </c>
       <c r="D14" s="75">
         <f>PL!D45</f>
-        <v>6.8892844199999974</v>
+        <v>7.4034088349999969</v>
       </c>
       <c r="E14" s="75">
         <f>PL!E45</f>
-        <v>10.279452464999999</v>
+        <v>10.916312217749997</v>
       </c>
       <c r="F14" s="75">
         <f>PL!F45</f>
-        <v>11.570357883749997</v>
+        <v>11.045800673587499</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -4145,15 +4130,15 @@
       <c r="F15" s="81"/>
       <c r="J15" s="136">
         <f>B16+B18</f>
-        <v>6.8415949999999999</v>
+        <v>2.6224549999999995</v>
       </c>
       <c r="K15" s="136">
         <f>C16+C18</f>
-        <v>3.8475202999999993</v>
+        <v>-0.37161970000000011</v>
       </c>
       <c r="L15" s="136">
         <f>D16+D18</f>
-        <v>0.47539199999999937</v>
+        <v>-3.7437480000000001</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -4162,19 +4147,19 @@
       </c>
       <c r="B16" s="75">
         <f>Intt!D11</f>
-        <v>6.8415949999999999</v>
+        <v>2.6224549999999995</v>
       </c>
       <c r="C16" s="81">
         <f>Intt!D13</f>
-        <v>3.8475202999999993</v>
+        <v>-0.37161970000000011</v>
       </c>
       <c r="D16" s="81">
         <f>Intt!D15</f>
-        <v>0.47539199999999937</v>
+        <v>-3.7437480000000001</v>
       </c>
       <c r="E16" s="81">
         <f>Intt!D17</f>
-        <v>-3.3225261000000006</v>
+        <v>-7.5416661000000005</v>
       </c>
       <c r="F16" s="81">
         <f>Intt!D19</f>
@@ -4182,15 +4167,15 @@
       </c>
       <c r="J16" s="136">
         <f>B12+B14</f>
-        <v>2.293108339999999</v>
+        <v>2.2709023399999992</v>
       </c>
       <c r="K16" s="136">
         <f>C12+C14</f>
-        <v>4.5761075899999977</v>
+        <v>4.723777489999998</v>
       </c>
       <c r="L16" s="136">
         <f>D12+D14</f>
-        <v>7.3892844199999974</v>
+        <v>7.681348834999997</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -4201,15 +4186,15 @@
       <c r="F17" s="81"/>
       <c r="J17" s="27">
         <f>J15/J16</f>
-        <v>2.9835463421671577</v>
+        <v>1.1548074762211045</v>
       </c>
       <c r="K17" s="27">
         <f>K15/K16</f>
-        <v>0.84078449300620606</v>
+        <v>-7.867002643259563E-2</v>
       </c>
       <c r="L17" s="27">
         <f>L15/L16</f>
-        <v>6.4335323013591558E-2</v>
+        <v>-0.48738158888731181</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -4257,23 +4242,23 @@
       </c>
       <c r="B21" s="148">
         <f>SUM(B12:B19)</f>
-        <v>9.134703339999998</v>
+        <v>4.8933573399999988</v>
       </c>
       <c r="C21" s="148">
         <f>SUM(C12:C19)</f>
-        <v>8.423627889999997</v>
+        <v>4.3521577899999979</v>
       </c>
       <c r="D21" s="148">
         <f>SUM(D12:D19)</f>
-        <v>7.8646764199999968</v>
+        <v>3.9376008349999969</v>
       </c>
       <c r="E21" s="148">
         <f>SUM(E12:E19)</f>
-        <v>7.4569263649999975</v>
+        <v>3.6525861177499959</v>
       </c>
       <c r="F21" s="148">
         <f>SUM(F12:F19)</f>
-        <v>12.070357883749997</v>
+        <v>11.323740673587498</v>
       </c>
       <c r="G21" s="26"/>
       <c r="I21" s="136">
@@ -4356,23 +4341,23 @@
       </c>
       <c r="B26" s="75">
         <f>Cost!B11+Cost!B13+Cost!B15</f>
-        <v>10</v>
+        <v>5.5587999999999997</v>
       </c>
       <c r="C26" s="81">
         <f>B26</f>
-        <v>10</v>
+        <v>5.5587999999999997</v>
       </c>
       <c r="D26" s="81">
         <f>C26</f>
-        <v>10</v>
+        <v>5.5587999999999997</v>
       </c>
       <c r="E26" s="81">
         <f>D26</f>
-        <v>10</v>
+        <v>5.5587999999999997</v>
       </c>
       <c r="F26" s="81">
         <f>E26-E28</f>
-        <v>10</v>
+        <v>5.5587999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -4421,23 +4406,23 @@
       </c>
       <c r="B30" s="149">
         <f>Dep!$E$15</f>
-        <v>1.3699999999999999</v>
+        <v>0.70382</v>
       </c>
       <c r="C30" s="149">
         <f>Dep!$E$17+B30</f>
-        <v>2.5474999999999999</v>
+        <v>1.315067</v>
       </c>
       <c r="D30" s="149">
         <f>Dep!$E$19+C30</f>
-        <v>3.5600749999999999</v>
+        <v>1.8463269499999999</v>
       </c>
       <c r="E30" s="149">
         <f>Dep!$E$21+D30</f>
-        <v>4.43129375</v>
+        <v>2.3084279075</v>
       </c>
       <c r="F30" s="149">
         <f>Dep!$E$23+E30</f>
-        <v>5.1813066875000002</v>
+        <v>2.7106907213750002</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -4446,30 +4431,30 @@
       </c>
       <c r="B31" s="81">
         <f>B26-B30</f>
-        <v>8.6300000000000008</v>
+        <v>4.8549799999999994</v>
       </c>
       <c r="C31" s="81">
         <f>C26-C30</f>
-        <v>7.4525000000000006</v>
+        <v>4.2437329999999998</v>
       </c>
       <c r="D31" s="81">
         <f>D26-D30</f>
-        <v>6.4399250000000006</v>
+        <v>3.7124730499999998</v>
       </c>
       <c r="E31" s="81">
         <f>E26-E30-E28</f>
-        <v>5.56870625</v>
+        <v>3.2503720924999997</v>
       </c>
       <c r="F31" s="81">
         <f>F26-F30</f>
-        <v>4.8186933124999998</v>
+        <v>2.8481092786249995</v>
       </c>
       <c r="J31" s="27">
         <v>11.95</v>
       </c>
       <c r="K31" s="136">
         <f>B33+B35+B37</f>
-        <v>0.50470333999999895</v>
+        <v>3.837734000000026E-2</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -4509,7 +4494,7 @@
       </c>
       <c r="K33" s="27">
         <f>K31/K32</f>
-        <v>0.1484421588235291</v>
+        <v>1.1287452941176548E-2</v>
       </c>
     </row>
     <row r="34" spans="1:12 16384:16384" x14ac:dyDescent="0.25">
@@ -4560,23 +4545,23 @@
       </c>
       <c r="B37" s="75">
         <f>CF!C48</f>
-        <v>0.50470333999999895</v>
+        <v>3.837734000000026E-2</v>
       </c>
       <c r="C37" s="81">
         <f>CF!D48</f>
-        <v>0.97112788999999822</v>
+        <v>0.10842478999999905</v>
       </c>
       <c r="D37" s="81">
         <f>CF!E48</f>
-        <v>1.424751419999998</v>
+        <v>0.22512778499999797</v>
       </c>
       <c r="E37" s="81">
         <f>CF!F48</f>
-        <v>1.8882201149999975</v>
+        <v>0.40221402524999839</v>
       </c>
       <c r="F37" s="81">
         <f>CF!G48</f>
-        <v>7.2516645712499965</v>
+        <v>8.4756313949625</v>
       </c>
     </row>
     <row r="38" spans="1:12 16384:16384" x14ac:dyDescent="0.25">
@@ -4599,23 +4584,23 @@
       </c>
       <c r="B40" s="148">
         <f>SUM(B31:B39)</f>
-        <v>9.1347033399999997</v>
+        <v>4.8933573399999997</v>
       </c>
       <c r="C40" s="148">
         <f>SUM(C31:C39)</f>
-        <v>8.4236278899999988</v>
+        <v>4.3521577899999988</v>
       </c>
       <c r="D40" s="148">
         <f>SUM(D31:D39)</f>
-        <v>7.8646764199999986</v>
+        <v>3.9376008349999978</v>
       </c>
       <c r="E40" s="148">
         <f>SUM(E31:E39)</f>
-        <v>7.4569263649999975</v>
+        <v>3.6525861177499981</v>
       </c>
       <c r="F40" s="148">
         <f>SUM(F31:F39)</f>
-        <v>12.070357883749995</v>
+        <v>11.323740673587499</v>
       </c>
       <c r="I40" s="136">
         <f>C40-C21</f>
@@ -4647,19 +4632,19 @@
       </c>
       <c r="B42" s="81">
         <f>SUM(B16:B18)/SUM(B12:B14)</f>
-        <v>2.9835463421671577</v>
+        <v>1.1548074762211045</v>
       </c>
       <c r="C42" s="81">
         <f>SUM(C16:C18)/SUM(C12:C14)</f>
-        <v>0.84078449300620606</v>
+        <v>-7.867002643259563E-2</v>
       </c>
       <c r="D42" s="81">
         <f>SUM(D16:D18)/SUM(D12:D14)</f>
-        <v>6.4335323013591558E-2</v>
+        <v>-0.48738158888731181</v>
       </c>
       <c r="E42" s="81">
         <f>SUM(E16:E18)/SUM(E12:E14)</f>
-        <v>-0.30822772406928567</v>
+        <v>-0.67370878851931459</v>
       </c>
       <c r="F42" s="81">
         <f>SUM(F16:F18)/SUM(F12:F14)</f>
@@ -4682,7 +4667,7 @@
       <c r="C44" s="144"/>
       <c r="D44" s="144">
         <f>AVERAGE(B42:F42)</f>
-        <v>0.71608768682353396</v>
+        <v>-1.6990585523623536E-2</v>
       </c>
       <c r="E44" s="81"/>
       <c r="F44" s="150"/>
@@ -4756,49 +4741,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="197" t="str">
+      <c r="A1" s="201" t="str">
         <f>PL!A1</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
     </row>
     <row r="2" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="183" t="str">
+      <c r="A2" s="187" t="str">
         <f>PL!A2</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
     </row>
     <row r="3" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A3" s="185"/>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
+      <c r="A3" s="189"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
       <c r="H3" s="43"/>
     </row>
     <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A5" s="180" t="s">
+      <c r="A5" s="184" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
+      <c r="B5" s="184"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="184"/>
       <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:8" ht="14" x14ac:dyDescent="0.3">
@@ -4807,23 +4792,23 @@
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
-      <c r="F6" s="186" t="s">
+      <c r="F6" s="190" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="186"/>
+      <c r="G6" s="190"/>
     </row>
     <row r="7" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="198" t="s">
+      <c r="B7" s="202" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="198"/>
-      <c r="D7" s="198"/>
-      <c r="E7" s="198"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="198"/>
+      <c r="C7" s="202"/>
+      <c r="D7" s="202"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="202"/>
     </row>
     <row r="8" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
@@ -4870,23 +4855,23 @@
       <c r="B13" s="47"/>
       <c r="C13" s="75">
         <f>PL!B35+PL!B20+PL!B22</f>
-        <v>7.8779999999999948</v>
+        <v>8.5441799999999954</v>
       </c>
       <c r="D13" s="81">
         <f>PL!C35+PL!C20+PL!C22</f>
-        <v>9.1752999999999947</v>
+        <v>9.7415529999999944</v>
       </c>
       <c r="E13" s="81">
         <f>PL!D35+PL!D20+PL!D22</f>
-        <v>10.564504999999997</v>
+        <v>11.045820049999996</v>
       </c>
       <c r="F13" s="81">
         <f>PL!E35+PL!E20+PL!E22</f>
-        <v>12.062019249999999</v>
+        <v>12.471137042500001</v>
       </c>
       <c r="G13" s="81">
         <f>PL!F35+PL!F20+PL!F22</f>
-        <v>13.684921362499995</v>
+        <v>14.032671486125004</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4903,23 +4888,23 @@
       <c r="B15" s="47"/>
       <c r="C15" s="75">
         <f>PL!B30</f>
-        <v>1.3699999999999999</v>
+        <v>0.70382</v>
       </c>
       <c r="D15" s="81">
         <f>PL!C30</f>
-        <v>1.1775</v>
+        <v>0.61124699999999998</v>
       </c>
       <c r="E15" s="81">
         <f>PL!D30</f>
-        <v>1.012575</v>
+        <v>0.53125995000000004</v>
       </c>
       <c r="F15" s="81">
         <f>PL!E30</f>
-        <v>0.87121875000000015</v>
+        <v>0.46210095750000002</v>
       </c>
       <c r="G15" s="81">
         <f>PL!F30</f>
-        <v>0.75001293750000009</v>
+        <v>0.40226281387500007</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4935,7 +4920,7 @@
       </c>
       <c r="C17" s="75">
         <f>BS!B12</f>
-        <v>0.5</v>
+        <v>0.27794000000000002</v>
       </c>
       <c r="D17" s="75">
         <f>BS!C12-BS!B12</f>
@@ -4968,7 +4953,7 @@
       <c r="B19" s="47"/>
       <c r="C19" s="75">
         <f>Cost!B27</f>
-        <v>9.5</v>
+        <v>5.2808599999999997</v>
       </c>
       <c r="D19" s="81">
         <v>0</v>
@@ -5059,7 +5044,7 @@
       <c r="B25" s="45"/>
       <c r="C25" s="93">
         <f>SUM(C12:C21)</f>
-        <v>19.247999999999994</v>
+        <v>14.806799999999996</v>
       </c>
       <c r="D25" s="93">
         <f>SUM(D12:D21)</f>
@@ -5071,11 +5056,11 @@
       </c>
       <c r="F25" s="93">
         <f>SUM(F12:F21)</f>
-        <v>12.933237999999999</v>
+        <v>12.933238000000001</v>
       </c>
       <c r="G25" s="93">
         <f>SUM(G12:G21)</f>
-        <v>14.434934299999995</v>
+        <v>14.434934300000004</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -5097,7 +5082,7 @@
       </c>
       <c r="C29" s="75">
         <f>Cost!B11+Cost!B13+Cost!B15</f>
-        <v>10</v>
+        <v>5.5587999999999997</v>
       </c>
       <c r="D29" s="81">
         <v>0</v>
@@ -5145,7 +5130,7 @@
       </c>
       <c r="G31" s="75">
         <f>Intt!$C$11-Intt!E19</f>
-        <v>-3.322526100000001</v>
+        <v>-7.5416661000000005</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -5252,7 +5237,7 @@
       </c>
       <c r="G37" s="81">
         <f>PL!F20+PL!F22</f>
-        <v>7.8819033000000012</v>
+        <v>12.101043300000001</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -5309,23 +5294,23 @@
       <c r="B41" s="47"/>
       <c r="C41" s="75">
         <f>PL!B41</f>
-        <v>4.1839194599999958</v>
+        <v>4.6502454599999963</v>
       </c>
       <c r="D41" s="81">
         <f>PL!C41</f>
-        <v>5.3269982499999964</v>
+        <v>5.723375349999996</v>
       </c>
       <c r="E41" s="81">
         <f>PL!D41</f>
-        <v>6.564079269999997</v>
+        <v>6.900999804999997</v>
       </c>
       <c r="F41" s="81">
         <f>PL!E41</f>
-        <v>7.9103921049999988</v>
+        <v>8.1967745597500006</v>
       </c>
       <c r="G41" s="81">
         <f>PL!F41</f>
-        <v>3.0121126437499957</v>
+        <v>0.30213973028750229</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -5342,23 +5327,23 @@
       <c r="B43" s="45"/>
       <c r="C43" s="93">
         <f>SUM(C27:C41)</f>
-        <v>18.743296659999995</v>
+        <v>14.768422659999995</v>
       </c>
       <c r="D43" s="93">
         <f>SUM(D27:D41)</f>
-        <v>9.8863754499999956</v>
+        <v>10.282752549999996</v>
       </c>
       <c r="E43" s="93">
         <f>SUM(E27:E41)</f>
-        <v>11.123456469999997</v>
+        <v>11.460377004999998</v>
       </c>
       <c r="F43" s="93">
         <f>SUM(F27:F41)</f>
-        <v>12.469769305</v>
+        <v>12.756151759750001</v>
       </c>
       <c r="G43" s="93">
         <f>SUM(G27:G41)</f>
-        <v>9.0714898437499958</v>
+        <v>6.3615169302875021</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -5372,19 +5357,19 @@
       </c>
       <c r="D46" s="47">
         <f>C48</f>
-        <v>0.50470333999999895</v>
+        <v>3.837734000000026E-2</v>
       </c>
       <c r="E46" s="47">
         <f>D48</f>
-        <v>0.97112788999999822</v>
+        <v>0.10842478999999905</v>
       </c>
       <c r="F46" s="47">
         <f>E48</f>
-        <v>1.424751419999998</v>
+        <v>0.22512778499999797</v>
       </c>
       <c r="G46" s="47">
         <f>F48</f>
-        <v>1.8882201149999975</v>
+        <v>0.40221402524999839</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -5393,23 +5378,23 @@
       </c>
       <c r="C47" s="47">
         <f>C25-C43</f>
-        <v>0.50470333999999895</v>
+        <v>3.837734000000026E-2</v>
       </c>
       <c r="D47" s="47">
         <f>D25-D43</f>
-        <v>0.46642454999999927</v>
+        <v>7.004744999999879E-2</v>
       </c>
       <c r="E47" s="47">
         <f>E25-E43</f>
-        <v>0.45362352999999977</v>
+        <v>0.11670299499999892</v>
       </c>
       <c r="F47" s="47">
         <f>F25-F43</f>
-        <v>0.46346869499999954</v>
+        <v>0.17708624025000042</v>
       </c>
       <c r="G47" s="47">
         <f>G25-G43</f>
-        <v>5.363444456249999</v>
+        <v>8.0734173697125016</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -5419,23 +5404,23 @@
       <c r="B48" s="45"/>
       <c r="C48" s="82">
         <f>C46+C47</f>
-        <v>0.50470333999999895</v>
+        <v>3.837734000000026E-2</v>
       </c>
       <c r="D48" s="82">
         <f>D46+D47</f>
-        <v>0.97112788999999822</v>
+        <v>0.10842478999999905</v>
       </c>
       <c r="E48" s="82">
         <f>E46+E47</f>
-        <v>1.424751419999998</v>
+        <v>0.22512778499999797</v>
       </c>
       <c r="F48" s="82">
         <f>F46+F47</f>
-        <v>1.8882201149999975</v>
+        <v>0.40221402524999839</v>
       </c>
       <c r="G48" s="82">
         <f>G46+G47</f>
-        <v>7.2516645712499965</v>
+        <v>8.4756313949625</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -5524,43 +5509,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="181" t="str">
+      <c r="A1" s="185" t="str">
         <f>CF!A1</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
     </row>
     <row r="2" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="183" t="str">
+      <c r="A2" s="187" t="str">
         <f>CF!A2</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
     </row>
     <row r="3" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A3" s="185"/>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
+      <c r="A3" s="189"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
     </row>
     <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A5" s="180" t="s">
+      <c r="A5" s="184" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="180"/>
+      <c r="B5" s="184"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
@@ -5584,10 +5569,10 @@
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
-      <c r="D9" s="186" t="s">
+      <c r="D9" s="190" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="186"/>
+      <c r="E9" s="190"/>
     </row>
     <row r="10" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
@@ -5619,19 +5604,19 @@
       </c>
       <c r="B13" s="75">
         <f>PL!B39</f>
-        <v>5.9770277999999948</v>
+        <v>6.6432077999999954</v>
       </c>
       <c r="C13" s="75">
         <f>PL!B30</f>
-        <v>1.3699999999999999</v>
+        <v>0.70382</v>
       </c>
       <c r="D13" s="81">
         <f>B13+C13</f>
-        <v>7.3470277999999949</v>
+        <v>7.3470277999999958</v>
       </c>
       <c r="E13" s="81">
         <f>D13</f>
-        <v>7.3470277999999949</v>
+        <v>7.3470277999999958</v>
       </c>
       <c r="G13" s="47"/>
     </row>
@@ -5647,11 +5632,11 @@
       </c>
       <c r="B15" s="75">
         <f>PL!C39</f>
-        <v>7.6099974999999951</v>
+        <v>8.1762504999999948</v>
       </c>
       <c r="C15" s="81">
         <f>PL!C30</f>
-        <v>1.1775</v>
+        <v>0.61124699999999998</v>
       </c>
       <c r="D15" s="81">
         <f>B15+C15</f>
@@ -5659,7 +5644,7 @@
       </c>
       <c r="E15" s="81">
         <f>E13+D15</f>
-        <v>16.134525299999989</v>
+        <v>16.134525299999993</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5669,11 +5654,11 @@
       <c r="E16" s="81"/>
       <c r="G16" s="47">
         <f>Cost!B20</f>
-        <v>10</v>
+        <v>5.5587999999999997</v>
       </c>
       <c r="H16" s="71">
         <f>E17-E15</f>
-        <v>10.389831099999999</v>
+        <v>10.389831099999995</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5682,11 +5667,11 @@
       </c>
       <c r="B17" s="75">
         <f>PL!D39</f>
-        <v>9.3772560999999968</v>
+        <v>9.858571149999996</v>
       </c>
       <c r="C17" s="81">
         <f>PL!D30</f>
-        <v>1.012575</v>
+        <v>0.53125995000000004</v>
       </c>
       <c r="D17" s="81">
         <f>B17+C17</f>
@@ -5698,7 +5683,7 @@
       </c>
       <c r="G17" s="47">
         <f>G16-E15</f>
-        <v>-6.1345252999999893</v>
+        <v>-10.575725299999993</v>
       </c>
       <c r="H17" s="74"/>
     </row>
@@ -5709,7 +5694,7 @@
       <c r="E18" s="81"/>
       <c r="G18" s="71">
         <f>G17/H16</f>
-        <v>-0.59043551728189214</v>
+        <v>-1.0178919366648798</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -5718,15 +5703,15 @@
       </c>
       <c r="B19" s="75">
         <f>PL!E39</f>
-        <v>11.300560149999999</v>
+        <v>11.709677942500001</v>
       </c>
       <c r="C19" s="81">
         <f>PL!E30</f>
-        <v>0.87121875000000015</v>
+        <v>0.46210095750000002</v>
       </c>
       <c r="D19" s="81">
         <f>B19+C19</f>
-        <v>12.1717789</v>
+        <v>12.171778900000001</v>
       </c>
       <c r="E19" s="81">
         <f>E17+D19</f>
@@ -5745,44 +5730,44 @@
       </c>
       <c r="B21" s="75">
         <f>PL!F39</f>
-        <v>4.3030180624999943</v>
+        <v>0.43162818612500331</v>
       </c>
       <c r="C21" s="81">
         <f>PL!F30</f>
-        <v>0.75001293750000009</v>
+        <v>0.40226281387500007</v>
       </c>
       <c r="D21" s="81">
         <f>B21+C21</f>
-        <v>5.0530309999999945</v>
+        <v>0.83389100000000338</v>
       </c>
       <c r="E21" s="81">
         <f>E19+D21</f>
-        <v>43.749166299999985</v>
+        <v>39.530026299999989</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G23" s="47">
         <f>Cost!B20</f>
-        <v>10</v>
+        <v>5.5587999999999997</v>
       </c>
       <c r="H23" s="47">
         <f>E17-G23</f>
-        <v>16.524356399999988</v>
+        <v>20.96555639999999</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A24" s="186" t="s">
+      <c r="A24" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="186"/>
-      <c r="C24" s="186" t="s">
-        <v>266</v>
-      </c>
-      <c r="D24" s="186"/>
-      <c r="E24" s="186"/>
+      <c r="B24" s="190"/>
+      <c r="C24" s="190" t="s">
+        <v>261</v>
+      </c>
+      <c r="D24" s="190"/>
+      <c r="E24" s="190"/>
       <c r="H24" s="94">
         <f>H23/(E17-E15)</f>
-        <v>1.590435517281892</v>
+        <v>2.01789193666488</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14" x14ac:dyDescent="0.3">
@@ -5864,32 +5849,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="181" t="str">
+      <c r="A1" s="185" t="str">
         <f>BS!A1</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
     </row>
     <row r="2" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="183" t="str">
+      <c r="A2" s="187" t="str">
         <f>BS!A2</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="95"/>
@@ -5903,17 +5888,17 @@
       <c r="I3" s="95"/>
     </row>
     <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="199" t="s">
+      <c r="A4" s="203" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="199"/>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
-      <c r="I4" s="199"/>
+      <c r="B4" s="203"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="203"/>
     </row>
     <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.35">
       <c r="A5" s="96"/>
@@ -6012,23 +5997,23 @@
       <c r="D10" s="102"/>
       <c r="E10" s="104">
         <f>PL!B39</f>
-        <v>5.9770277999999948</v>
+        <v>6.6432077999999954</v>
       </c>
       <c r="F10" s="73">
         <f>PL!C39</f>
-        <v>7.6099974999999951</v>
+        <v>8.1762504999999948</v>
       </c>
       <c r="G10" s="73">
         <f>PL!D39</f>
-        <v>9.3772560999999968</v>
+        <v>9.858571149999996</v>
       </c>
       <c r="H10" s="73">
         <f>PL!E39</f>
-        <v>11.300560149999999</v>
+        <v>11.709677942500001</v>
       </c>
       <c r="I10" s="73">
         <f>PL!F39</f>
-        <v>4.3030180624999943</v>
+        <v>0.43162818612500331</v>
       </c>
       <c r="J10" s="105"/>
       <c r="N10" s="130"/>
@@ -6075,7 +6060,7 @@
       </c>
       <c r="I12" s="104">
         <f>PL!F20+PL!F22</f>
-        <v>7.8819033000000012</v>
+        <v>12.101043300000001</v>
       </c>
       <c r="J12" s="105"/>
       <c r="N12" s="130"/>
@@ -6106,23 +6091,23 @@
       <c r="D14" s="102"/>
       <c r="E14" s="104">
         <f>PL!B30</f>
-        <v>1.3699999999999999</v>
+        <v>0.70382</v>
       </c>
       <c r="F14" s="73">
         <f>PL!C30</f>
-        <v>1.1775</v>
+        <v>0.61124699999999998</v>
       </c>
       <c r="G14" s="73">
         <f>PL!D30</f>
-        <v>1.012575</v>
+        <v>0.53125995000000004</v>
       </c>
       <c r="H14" s="73">
         <f>PL!E30</f>
-        <v>0.87121875000000015</v>
+        <v>0.46210095750000002</v>
       </c>
       <c r="I14" s="73">
         <f>PL!F30</f>
-        <v>0.75001293750000009</v>
+        <v>0.40226281387500007</v>
       </c>
       <c r="J14" s="105"/>
       <c r="N14" s="130"/>
@@ -6151,7 +6136,7 @@
       <c r="D16" s="102"/>
       <c r="E16" s="106">
         <f>SUM(E10:E14)</f>
-        <v>9.247999999999994</v>
+        <v>9.2479999999999958</v>
       </c>
       <c r="F16" s="106">
         <f>SUM(F10:F14)</f>
@@ -6163,11 +6148,11 @@
       </c>
       <c r="H16" s="106">
         <f>SUM(H10:H14)</f>
-        <v>12.933237999999999</v>
+        <v>12.933238000000001</v>
       </c>
       <c r="I16" s="106">
         <f>SUM(I10:I14)</f>
-        <v>12.934934299999995</v>
+        <v>12.934934300000004</v>
       </c>
       <c r="J16" s="105"/>
       <c r="N16" s="130"/>
@@ -6246,7 +6231,7 @@
       </c>
       <c r="I20" s="73">
         <f>CF!G31</f>
-        <v>-3.322526100000001</v>
+        <v>-7.5416661000000005</v>
       </c>
       <c r="J20" s="105"/>
     </row>
@@ -6287,7 +6272,7 @@
       </c>
       <c r="I22" s="73">
         <f>I12</f>
-        <v>7.8819033000000012</v>
+        <v>12.101043300000001</v>
       </c>
       <c r="J22" s="105"/>
     </row>
@@ -6366,11 +6351,11 @@
       </c>
       <c r="H26" s="73">
         <f>H16/H24</f>
-        <v>2.8366238266050896</v>
+        <v>2.83662382660509</v>
       </c>
       <c r="I26" s="73">
         <f>I16/I24</f>
-        <v>2.8369958730328331</v>
+        <v>2.8369958730328353</v>
       </c>
       <c r="J26" s="105"/>
       <c r="L26" s="51" t="s">
@@ -6553,12 +6538,12 @@
       <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.6">
-      <c r="A6" s="172" t="s">
+      <c r="A6" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="173"/>
-      <c r="C6" s="173"/>
-      <c r="D6" s="174"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="164"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
@@ -6569,12 +6554,12 @@
       <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:9" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="165" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="177"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="167"/>
     </row>
     <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
@@ -6585,29 +6570,29 @@
       <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:9" ht="116.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="169" t="str">
+      <c r="A12" s="159" t="str">
         <f>'Basic Details'!C3</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B12" s="170"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="171"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="161"/>
       <c r="I12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="167"/>
-      <c r="B13" s="168"/>
-      <c r="C13" s="168"/>
+      <c r="A13" s="157"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="158"/>
       <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="160" t="s">
+      <c r="A14" s="155" t="s">
         <v>228</v>
       </c>
-      <c r="B14" s="161"/>
-      <c r="C14" s="161"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="156"/>
       <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -6615,57 +6600,57 @@
       <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="151" t="str">
+      <c r="A16" s="168" t="str">
         <f>'Basic Details'!C4</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B16" s="152"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="153"/>
+      <c r="B16" s="169"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="170"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="D17" s="18"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="160"/>
-      <c r="B18" s="161"/>
-      <c r="C18" s="161"/>
+      <c r="A18" s="155"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="156"/>
       <c r="D18" s="18"/>
     </row>
     <row r="19" spans="1:4" ht="20" x14ac:dyDescent="0.4">
-      <c r="A19" s="158" t="s">
+      <c r="A19" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="159"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="165"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="180"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="160"/>
-      <c r="B20" s="161"/>
-      <c r="C20" s="161"/>
+      <c r="A20" s="155"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
       <c r="D20" s="18"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="160"/>
-      <c r="B21" s="161"/>
-      <c r="C21" s="161"/>
+      <c r="A21" s="155"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="156"/>
       <c r="D21" s="18"/>
     </row>
     <row r="22" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A22" s="162" t="str">
+      <c r="A22" s="177" t="str">
         <f>'Basic Details'!C5</f>
         <v>LABORATORY AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B22" s="163"/>
-      <c r="C22" s="163"/>
-      <c r="D22" s="164"/>
+      <c r="B22" s="178"/>
+      <c r="C22" s="178"/>
+      <c r="D22" s="179"/>
     </row>
     <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="158"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="159"/>
+      <c r="A23" s="175"/>
+      <c r="B23" s="176"/>
+      <c r="C23" s="176"/>
       <c r="D23" s="18"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -6687,7 +6672,7 @@
     <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="19"/>
       <c r="B28" s="134" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C28" s="139" t="str">
         <f>"("&amp;'Basic Details'!C6&amp;")"</f>
@@ -6721,7 +6706,7 @@
     <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="19"/>
       <c r="B33" s="134" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D33" s="18"/>
     </row>
@@ -6751,17 +6736,17 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
-      <c r="B38" s="157" t="s">
+      <c r="B38" s="174" t="s">
         <v>232</v>
       </c>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
+      <c r="C38" s="174"/>
+      <c r="D38" s="174"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
-      <c r="B39" s="157"/>
-      <c r="C39" s="157"/>
-      <c r="D39" s="157"/>
+      <c r="B39" s="174"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="174"/>
     </row>
     <row r="40" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="20"/>
@@ -6776,12 +6761,12 @@
       <c r="D41" s="21"/>
     </row>
     <row r="43" spans="1:4" ht="25" x14ac:dyDescent="0.5">
-      <c r="A43" s="166" t="s">
+      <c r="A43" s="181" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="166"/>
-      <c r="C43" s="166"/>
-      <c r="D43" s="166"/>
+      <c r="B43" s="181"/>
+      <c r="C43" s="181"/>
+      <c r="D43" s="181"/>
     </row>
     <row r="46" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="22">
@@ -6903,7 +6888,7 @@
       </c>
       <c r="C58" s="29">
         <f>C70</f>
-        <v>10</v>
+        <v>5.5587999999999997</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -6949,7 +6934,7 @@
       </c>
       <c r="C64" s="33">
         <f>+Cost!B13</f>
-        <v>6.4</v>
+        <v>1.9588000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -6997,7 +6982,7 @@
       </c>
       <c r="C70" s="36">
         <f>SUM(C62:C68)</f>
-        <v>10</v>
+        <v>5.5587999999999997</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -7029,7 +7014,7 @@
       </c>
       <c r="C74" s="33">
         <f>(Cost!B25)</f>
-        <v>0.5</v>
+        <v>0.27794000000000002</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -7045,7 +7030,7 @@
       </c>
       <c r="C76" s="33">
         <f>(Cost!B27)</f>
-        <v>9.5</v>
+        <v>5.2808599999999997</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -7077,7 +7062,7 @@
       </c>
       <c r="C80" s="36">
         <f>SUM(C74:C78)</f>
-        <v>10</v>
+        <v>5.5587999999999997</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -7183,7 +7168,7 @@
         <v>126</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -7228,16 +7213,16 @@
       <c r="C97" s="27"/>
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="157" t="s">
+      <c r="A98" s="174" t="s">
         <v>232</v>
       </c>
-      <c r="B98" s="157"/>
-      <c r="C98" s="157"/>
+      <c r="B98" s="174"/>
+      <c r="C98" s="174"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="157"/>
-      <c r="B99" s="157"/>
-      <c r="C99" s="157"/>
+      <c r="A99" s="174"/>
+      <c r="B99" s="174"/>
+      <c r="C99" s="174"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
@@ -7275,22 +7260,22 @@
       <c r="C106" s="10"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="155"/>
-      <c r="B107" s="155"/>
-      <c r="C107" s="155"/>
+      <c r="A107" s="172"/>
+      <c r="B107" s="172"/>
+      <c r="C107" s="172"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="156"/>
-      <c r="B108" s="156"/>
-      <c r="C108" s="156"/>
+      <c r="A108" s="173"/>
+      <c r="B108" s="173"/>
+      <c r="C108" s="173"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="8"/>
       <c r="B110" s="1"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="154"/>
-      <c r="B112" s="154"/>
+      <c r="A112" s="171"/>
+      <c r="B112" s="171"/>
       <c r="C112" s="7"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -7571,11 +7556,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A112:B112"/>
     <mergeCell ref="A107:C107"/>
@@ -7589,6 +7569,11 @@
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="B38:D39"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7663,8 +7648,8 @@
     </row>
     <row r="9" spans="1:2" ht="27.5" x14ac:dyDescent="0.3">
       <c r="A9" s="46" t="str">
-        <f>"The detail are in Annex- II and the estimated cost of plant and machinery is Rs."&amp;+'PM-MFA'!E17&amp;" lakh. The Promoter have already confirmed with the suppliers and their procurement will not be a problem."</f>
-        <v>The detail are in Annex- II and the estimated cost of plant and machinery is Rs.6.4 lakh. The Promoter have already confirmed with the suppliers and their procurement will not be a problem.</v>
+        <f>"The detail are in Annex- II and the estimated cost of plant and machinery is Rs."&amp;+'PM-MFA'!E14&amp;" lakh. The Promoter have already confirmed with the suppliers and their procurement will not be a problem."</f>
+        <v>The detail are in Annex- II and the estimated cost of plant and machinery is Rs.1.9588 lakh. The Promoter have already confirmed with the suppliers and their procurement will not be a problem.</v>
       </c>
       <c r="B9" s="27"/>
     </row>
@@ -7846,22 +7831,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="181" t="str">
+      <c r="A1" s="185" t="str">
         <f>Phigh!C46</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="182" t="str">
+      <c r="A2" s="186" t="str">
         <f>+Phigh!C54</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
     </row>
     <row r="3" spans="1:4" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="45"/>
@@ -7876,12 +7861,12 @@
       <c r="D4" s="51"/>
     </row>
     <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.3">
-      <c r="A5" s="180" t="s">
+      <c r="A5" s="184" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
+      <c r="B5" s="184"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
     </row>
     <row r="6" spans="1:4" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="51"/>
@@ -7931,7 +7916,7 @@
         <f>'Basic Details'!C8</f>
         <v>Rented</v>
       </c>
-      <c r="C11" s="200">
+      <c r="C11" s="151">
         <f>'Basic Details'!C9</f>
         <v>1100</v>
       </c>
@@ -7980,12 +7965,12 @@
       <c r="D17" s="51"/>
     </row>
     <row r="18" spans="1:4" ht="14" x14ac:dyDescent="0.3">
-      <c r="A18" s="180" t="s">
+      <c r="A18" s="184" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="180"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="180"/>
+      <c r="B18" s="184"/>
+      <c r="C18" s="184"/>
+      <c r="D18" s="184"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="51"/>
@@ -8033,7 +8018,7 @@
         <f>B11</f>
         <v>Rented</v>
       </c>
-      <c r="C24" s="200">
+      <c r="C24" s="151">
         <f>C11</f>
         <v>1100</v>
       </c>
@@ -8112,22 +8097,22 @@
       <c r="D34" s="51"/>
     </row>
     <row r="35" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="A35" s="178"/>
-      <c r="B35" s="178"/>
-      <c r="C35" s="178"/>
-      <c r="D35" s="178"/>
+      <c r="A35" s="182"/>
+      <c r="B35" s="182"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
     </row>
     <row r="36" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="A36" s="161"/>
-      <c r="B36" s="161"/>
-      <c r="C36" s="161"/>
-      <c r="D36" s="161"/>
+      <c r="A36" s="156"/>
+      <c r="B36" s="156"/>
+      <c r="C36" s="156"/>
+      <c r="D36" s="156"/>
     </row>
     <row r="39" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="A39" s="179"/>
-      <c r="B39" s="179"/>
-      <c r="C39" s="179"/>
-      <c r="D39" s="179"/>
+      <c r="A39" s="183"/>
+      <c r="B39" s="183"/>
+      <c r="C39" s="183"/>
+      <c r="D39" s="183"/>
     </row>
     <row r="40" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="D40" s="12"/>
@@ -8155,10 +8140,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -8175,33 +8160,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="181" t="str">
+      <c r="A1" s="185" t="str">
         <f>Land!A1</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
     </row>
     <row r="2" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="183" t="str">
+      <c r="A2" s="187" t="str">
         <f>Land!A2</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
     </row>
     <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="184" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="180"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
     </row>
     <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="E5" s="63" t="s">
@@ -8237,7 +8222,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C10" s="68">
         <v>1</v>
@@ -8252,285 +8237,214 @@
       <c r="F10" s="81"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="109">
-        <f>A10+1</f>
-        <v>2</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="C11" s="68">
-        <v>1</v>
-      </c>
-      <c r="D11" s="135">
-        <v>224200</v>
-      </c>
-      <c r="E11" s="123">
-        <f>D11*C11</f>
-        <v>224200</v>
-      </c>
+      <c r="A11" s="109"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="81"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="109">
-        <f>A11+1</f>
-        <v>3</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="C12" s="68">
-        <v>1</v>
-      </c>
-      <c r="D12" s="135">
-        <v>112100</v>
-      </c>
-      <c r="E12" s="123">
-        <f>D12*C12</f>
-        <v>112100</v>
-      </c>
-      <c r="F12" s="81"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="109">
-        <f>A12+1</f>
-        <v>4</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="C13" s="68">
-        <v>1</v>
-      </c>
-      <c r="D13" s="135">
-        <f>100000+7820</f>
-        <v>107820</v>
-      </c>
-      <c r="E13" s="123">
-        <f>D13*C13</f>
-        <v>107820</v>
-      </c>
-      <c r="F13" s="81"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="109"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="81"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="67"/>
-    </row>
-    <row r="16" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="26" t="s">
+      <c r="A12" s="66"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="67"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="70">
-        <f>SUM(E10:E15)</f>
-        <v>640000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="B17" s="72" t="s">
+      <c r="E13" s="70">
+        <f>SUM(E10:E12)</f>
+        <v>195880</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.3">
+      <c r="B14" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D14" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="62">
-        <f>E16/10^5</f>
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="181" t="str">
+      <c r="E14" s="62">
+        <f>E13/10^5</f>
+        <v>1.9588000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="185" t="str">
         <f>A1</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B20" s="181"/>
-      <c r="C20" s="181"/>
-      <c r="D20" s="181"/>
-      <c r="E20" s="181"/>
-    </row>
-    <row r="21" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="183" t="str">
+      <c r="B17" s="185"/>
+      <c r="C17" s="185"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="185"/>
+    </row>
+    <row r="18" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="187" t="str">
         <f>A2</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B21" s="183"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="183"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G22" s="27">
+      <c r="B18" s="187"/>
+      <c r="C18" s="187"/>
+      <c r="D18" s="187"/>
+      <c r="E18" s="187"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="27">
         <f>190000+120000</f>
         <v>310000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A25" s="180" t="s">
+    <row r="22" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A22" s="184" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="180"/>
-      <c r="C25" s="180"/>
-      <c r="D25" s="180"/>
-      <c r="E25" s="180"/>
-    </row>
-    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="E26" s="63" t="s">
+      <c r="B22" s="184"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="184"/>
+    </row>
+    <row r="23" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="E23" s="63" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="E28" s="35" t="s">
+    <row r="25" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="E25" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="74">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="74">
         <v>1</v>
       </c>
-      <c r="B30" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="E30" s="131">
-        <f>SUM(D31:D31)</f>
+      <c r="B27" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="E27" s="131">
         <v>260000</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="74"/>
-      <c r="B31" s="141" t="s">
-        <v>257</v>
-      </c>
-      <c r="D31" s="27">
-        <v>260000</v>
-      </c>
-      <c r="E31" s="75"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="74"/>
-      <c r="B32" s="72"/>
-      <c r="E32" s="75"/>
-      <c r="G32" s="27">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="74"/>
+      <c r="B28" s="141"/>
+      <c r="E28" s="75"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="74"/>
+      <c r="B29" s="72"/>
+      <c r="E29" s="75"/>
+      <c r="G29" s="27">
         <f>280000+170000+15000+10000+22000+70000</f>
         <v>567000</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="74">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="74">
         <v>2</v>
       </c>
-      <c r="B33" s="72" t="s">
+      <c r="B30" s="72" t="s">
         <v>192</v>
       </c>
-      <c r="E33" s="131"/>
-      <c r="G33" s="27">
+      <c r="E30" s="75">
+        <v>100000</v>
+      </c>
+      <c r="G30" s="27">
         <v>10000</v>
       </c>
-      <c r="H33" s="27">
+      <c r="H30" s="27">
         <v>9596433606</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="74"/>
-      <c r="B34" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="E34" s="75">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="74"/>
-      <c r="E35" s="75"/>
-    </row>
-    <row r="36" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="35"/>
-      <c r="E36" s="76">
-        <f>SUM(E30:E34)</f>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="74"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="74"/>
+      <c r="E32" s="75"/>
+    </row>
+    <row r="33" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D33" s="35"/>
+      <c r="E33" s="76">
+        <f>SUM(E27:E30)</f>
         <v>360000</v>
       </c>
-      <c r="F36" s="136">
-        <f>E16+E36</f>
-        <v>1000000</v>
-      </c>
-      <c r="G36" s="136">
-        <f>E36+E16</f>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="D37" s="35" t="s">
+      <c r="F33" s="136">
+        <f>E13+E33</f>
+        <v>555880</v>
+      </c>
+      <c r="G33" s="136">
+        <f>E33+E13</f>
+        <v>555880</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="D34" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="62">
-        <f>E36/10^5</f>
+      <c r="E34" s="62">
+        <f>E33/10^5</f>
         <v>3.6</v>
       </c>
-      <c r="F37" s="71"/>
-    </row>
-    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="B38" s="26" t="s">
+      <c r="F34" s="71"/>
+    </row>
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.35">
+      <c r="B35" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="G38" s="73">
-        <f>2000000-F36</f>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A39" s="26"/>
-      <c r="B39" s="72" t="s">
+      <c r="G35" s="73">
+        <f>2000000-F33</f>
+        <v>1444120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="A36" s="26"/>
+      <c r="B36" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-    </row>
-    <row r="40" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="35"/>
-    </row>
-    <row r="41" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="35"/>
-    </row>
-    <row r="42" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="B42" s="26"/>
-    </row>
-    <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="B43" s="26"/>
-    </row>
-    <row r="61" spans="6:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="F61" s="26"/>
-    </row>
-    <row r="62" spans="6:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="F62" s="26"/>
-    </row>
-    <row r="63" spans="6:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="F63" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+    </row>
+    <row r="37" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="A37" s="26"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="35"/>
+    </row>
+    <row r="38" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="35"/>
+    </row>
+    <row r="39" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="B39" s="26"/>
+    </row>
+    <row r="40" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="B40" s="26"/>
+    </row>
+    <row r="58" spans="6:6" ht="14" x14ac:dyDescent="0.3">
+      <c r="F58" s="26"/>
+    </row>
+    <row r="59" spans="6:6" ht="14" x14ac:dyDescent="0.3">
+      <c r="F59" s="26"/>
+    </row>
+    <row r="60" spans="6:6" ht="14" x14ac:dyDescent="0.3">
+      <c r="F60" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A22:E22"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8538,7 +8452,7 @@
   <pageSetup scale="89" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="39" max="16383" man="1"/>
+    <brk id="36" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -8561,24 +8475,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="181" t="str">
+      <c r="A1" s="185" t="str">
         <f>'PM-MFA'!A1:E1</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
     </row>
     <row r="2" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="183" t="str">
+      <c r="A2" s="187" t="str">
         <f>'PM-MFA'!A2:E2</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
     </row>
     <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
@@ -8588,13 +8502,13 @@
       <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="184" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="180"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
       <c r="G4" s="51" t="s">
         <v>189</v>
       </c>
@@ -8765,30 +8679,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="181" t="str">
+      <c r="A1" s="185" t="str">
         <f>Intt!A1</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
     </row>
     <row r="2" spans="1:4" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="183" t="str">
+      <c r="A2" s="187" t="str">
         <f>'Pre Operative exp'!A2:E2</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
     </row>
     <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.3">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="184" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="180"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
     </row>
     <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.3">
       <c r="D5" s="63" t="s">
@@ -8821,7 +8735,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B11" s="34">
         <v>1</v>
@@ -8918,7 +8832,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D25" s="33">
         <f>'Basic Details'!C10*12/100000</f>
@@ -8978,7 +8892,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D35" s="33">
         <v>0.5</v>
@@ -9065,31 +8979,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="181" t="str">
+      <c r="A1" s="185" t="str">
         <f>'PM-MFA'!A1</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
     </row>
     <row r="2" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="182" t="str">
+      <c r="A2" s="186" t="str">
         <f>'PM-MFA'!A2</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
     </row>
     <row r="3" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A3" s="185"/>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
+      <c r="A3" s="189"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
@@ -9100,13 +9014,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A5" s="180" t="s">
+      <c r="A5" s="184" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="180"/>
+      <c r="B5" s="184"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
@@ -9114,11 +9028,11 @@
     <row r="6" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
     </row>
     <row r="8" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
@@ -9130,8 +9044,8 @@
       <c r="C8" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="D8" s="184" t="s">
-        <v>246</v>
+      <c r="D8" s="188" t="s">
+        <v>245</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>12</v>
@@ -9147,7 +9061,7 @@
       <c r="C9" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="D9" s="184"/>
+      <c r="D9" s="188"/>
       <c r="E9" s="35" t="s">
         <v>190</v>
       </c>
@@ -9169,7 +9083,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H12" s="47">
         <f>B13-B15-B17-B19</f>
-        <v>3.9304000000000006</v>
+        <v>1.2029480500000003</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -9178,31 +9092,31 @@
       </c>
       <c r="B13" s="47">
         <f>Cost!B13</f>
-        <v>6.4</v>
+        <v>1.9588000000000001</v>
       </c>
       <c r="C13" s="47">
+        <f>'PM-MFA'!E27/100000</f>
+        <v>2.6</v>
+      </c>
+      <c r="D13" s="47">
         <f>'PM-MFA'!E30/100000</f>
-        <v>2.6</v>
-      </c>
-      <c r="D13" s="47">
-        <f>'PM-MFA'!E34/100000</f>
         <v>1</v>
       </c>
       <c r="E13" s="47">
         <f>SUM(B13:C13)+D13</f>
-        <v>10</v>
+        <v>5.5587999999999997</v>
       </c>
       <c r="F13" s="47"/>
       <c r="H13" s="47">
         <f>H12-5</f>
-        <v>-1.0695999999999994</v>
+        <v>-3.7970519499999997</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F14" s="47"/>
       <c r="H14" s="47">
         <f>H13*0.15</f>
-        <v>-0.16043999999999992</v>
+        <v>-0.56955779249999994</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -9211,7 +9125,7 @@
       </c>
       <c r="B15" s="47">
         <f>B13*B11</f>
-        <v>0.96</v>
+        <v>0.29382000000000003</v>
       </c>
       <c r="C15" s="47">
         <f>C13*C11</f>
@@ -9223,7 +9137,7 @@
       </c>
       <c r="E15" s="47">
         <f>SUM(B15:C15)+D15</f>
-        <v>1.3699999999999999</v>
+        <v>0.70382</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -9234,7 +9148,7 @@
       <c r="F16" s="47"/>
       <c r="H16" s="47">
         <f>H13-H14</f>
-        <v>-0.90915999999999952</v>
+        <v>-3.2274941574999998</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -9243,7 +9157,7 @@
       </c>
       <c r="B17" s="47">
         <f>(B13-B15)*B11</f>
-        <v>0.81600000000000006</v>
+        <v>0.249747</v>
       </c>
       <c r="C17" s="47">
         <f>(C13-C15)*C11</f>
@@ -9255,11 +9169,11 @@
       </c>
       <c r="E17" s="47">
         <f>SUM(B17:C17)+D17</f>
-        <v>1.1775</v>
+        <v>0.61124699999999998</v>
       </c>
       <c r="H17" s="27">
         <f>H16*0.15</f>
-        <v>-0.13637399999999991</v>
+        <v>-0.48412412362499996</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -9274,7 +9188,7 @@
       </c>
       <c r="B19" s="47">
         <f>(B13-B15-B17)*B11</f>
-        <v>0.69360000000000011</v>
+        <v>0.21228495000000003</v>
       </c>
       <c r="C19" s="47">
         <f>(C13-C15-C17)*C11</f>
@@ -9286,7 +9200,7 @@
       </c>
       <c r="E19" s="47">
         <f>SUM(B19:C19)+D19</f>
-        <v>1.012575</v>
+        <v>0.53125995000000004</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -9301,7 +9215,7 @@
       </c>
       <c r="B21" s="47">
         <f>(B13-B15-B17-B19)*B11</f>
-        <v>0.58956000000000008</v>
+        <v>0.18044220750000003</v>
       </c>
       <c r="C21" s="47">
         <f>(C13-C15-C17-C19)*C11</f>
@@ -9313,7 +9227,7 @@
       </c>
       <c r="E21" s="47">
         <f>SUM(B21:C21)+D21</f>
-        <v>0.87121875000000015</v>
+        <v>0.46210095750000002</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -9328,7 +9242,7 @@
       </c>
       <c r="B23" s="47">
         <f>(B13-B15-B17-B19-B21)*B11</f>
-        <v>0.50112600000000007</v>
+        <v>0.15337587637500003</v>
       </c>
       <c r="C23" s="47">
         <f>(C13-C15-C17-C19-C21)*C11</f>
@@ -9340,7 +9254,7 @@
       </c>
       <c r="E23" s="47">
         <f>SUM(B23:C23)+D23</f>
-        <v>0.75001293750000009</v>
+        <v>0.40226281387500007</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -9432,22 +9346,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="191" t="str">
         <f>Dep!A1</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.3">
-      <c r="A2" s="188" t="str">
+      <c r="A2" s="192" t="str">
         <f>Dep!A2</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A3" s="112"/>
@@ -9456,12 +9370,12 @@
       <c r="D3" s="112"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="189" t="s">
+      <c r="A4" s="193" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
     </row>
     <row r="5" spans="1:4" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A5" s="113"/>
@@ -9473,26 +9387,26 @@
       <c r="A6" s="113"/>
       <c r="B6" s="113"/>
       <c r="C6" s="113"/>
-      <c r="D6" s="191" t="s">
+      <c r="D6" s="195" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="190" t="s">
+      <c r="A7" s="194" t="s">
         <v>220</v>
       </c>
-      <c r="B7" s="190" t="s">
+      <c r="B7" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="190" t="s">
+      <c r="C7" s="194" t="s">
         <v>221</v>
       </c>
-      <c r="D7" s="192"/>
+      <c r="D7" s="196"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="190"/>
-      <c r="B8" s="190"/>
-      <c r="C8" s="190"/>
+      <c r="A8" s="194"/>
+      <c r="B8" s="194"/>
+      <c r="C8" s="194"/>
       <c r="D8" s="114" t="s">
         <v>222</v>
       </c>

--- a/Project Report Format.xlsx
+++ b/Project Report Format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lavis\OneDrive\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A911E5-E332-4ADC-8A90-FF0CE339EBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB9F7F7-BDD7-49A3-A264-6F8A1555A826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="926" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="926" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Details" sheetId="30" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="14">Pback!$A$1:$E$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Phigh!$A$1:$D$99</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">PL!$A$1:$F$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'PM-MFA'!$A$1:$E$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'PM-MFA'!$A$1:$E$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Pre Operative exp'!$A$1:$E$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="273">
   <si>
     <t xml:space="preserve">                        Profit After Tax</t>
   </si>
@@ -871,9 +871,6 @@
       </rPr>
       <t xml:space="preserve"> TAX ON TOTAL INCOME UPTO 12 LAKHS IS NIL AS PER INCOME TAX ACT, 1961</t>
     </r>
-  </si>
-  <si>
-    <t>ERBA EC 90 Electrolyte Analyz</t>
   </si>
   <si>
     <t>B. OTHER INCOME</t>
@@ -2229,21 +2226,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F170FFE-54A9-4A21-ACCD-4D0E784EBF5B}">
-  <dimension ref="B3:C15"/>
+  <dimension ref="B3:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C3" t="s">
         <v>249</v>
@@ -2251,7 +2250,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C4" t="s">
         <v>250</v>
@@ -2259,7 +2258,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C5" t="s">
         <v>242</v>
@@ -2267,7 +2266,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C6" t="s">
         <v>252</v>
@@ -2275,7 +2274,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C7" t="s">
         <v>253</v>
@@ -2283,7 +2282,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C8" t="s">
         <v>243</v>
@@ -2291,7 +2290,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C9" s="152">
         <v>1100</v>
@@ -2299,7 +2298,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C10">
         <v>30000</v>
@@ -2307,7 +2306,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C11" s="153">
         <v>0.05</v>
@@ -2315,7 +2314,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C12" s="153">
         <v>0.25</v>
@@ -2323,7 +2322,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C13" s="154">
         <v>0.1195</v>
@@ -2331,7 +2330,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C14" s="154">
         <v>0.1195</v>
@@ -2340,7 +2339,225 @@
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
     </row>
+    <row r="17" spans="2:6" ht="14" x14ac:dyDescent="0.3">
+      <c r="B17" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="14" x14ac:dyDescent="0.3">
+      <c r="B18" s="35"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="35"/>
+    </row>
+    <row r="19" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="109"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="123">
+        <f>E19*D19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="109"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="123">
+        <f>E20*D20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="109"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="123">
+        <f>E21*D21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="109"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="123">
+        <f t="shared" ref="F22:F29" si="0">E22*D22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="109"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="109"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="109"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="109"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="109"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="109"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="109"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="14" x14ac:dyDescent="0.3">
+      <c r="B32" s="184" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="184"/>
+      <c r="D32" s="184"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+    </row>
+    <row r="33" spans="2:6" ht="14" x14ac:dyDescent="0.3">
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="63" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+    </row>
+    <row r="35" spans="2:6" ht="14" x14ac:dyDescent="0.3">
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+    </row>
+    <row r="37" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B37" s="74">
+        <v>1</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="131">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B38" s="74"/>
+      <c r="C38" s="141"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="75"/>
+    </row>
+    <row r="39" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B39" s="74"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="75"/>
+    </row>
+    <row r="40" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B40" s="74">
+        <v>2</v>
+      </c>
+      <c r="C40" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="75">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B32:F32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2349,8 +2566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A20" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A23" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2441,8 +2658,8 @@
         <v>87</v>
       </c>
       <c r="B13" s="47">
-        <f>'PM-MFA'!E13/10^5</f>
-        <v>1.9588000000000001</v>
+        <f>'PM-MFA'!E22/10^5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2450,7 +2667,7 @@
         <v>246</v>
       </c>
       <c r="B15" s="47">
-        <f>'PM-MFA'!E33/100000</f>
+        <f>'PM-MFA'!E42/100000</f>
         <v>3.6</v>
       </c>
     </row>
@@ -2470,7 +2687,7 @@
       </c>
       <c r="D17" s="47">
         <f>B20-25</f>
-        <v>-19.441200000000002</v>
+        <v>-21.4</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2484,7 +2701,7 @@
       </c>
       <c r="B20" s="82">
         <f>SUM(B11:B18)</f>
-        <v>5.5587999999999997</v>
+        <v>3.6</v>
       </c>
       <c r="C20" s="47"/>
     </row>
@@ -2505,7 +2722,7 @@
       </c>
       <c r="B25" s="47">
         <f>B20*'Basic Details'!C11</f>
-        <v>0.27794000000000002</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="C25" s="87">
         <f>B25/B20</f>
@@ -2518,7 +2735,7 @@
       </c>
       <c r="B27" s="47">
         <f>(B11+B13+B15)*(1-'Basic Details'!C11)</f>
-        <v>5.2808599999999997</v>
+        <v>3.42</v>
       </c>
       <c r="C27" s="87">
         <f>B27/SUM($B$27:$B$29)</f>
@@ -2526,7 +2743,7 @@
       </c>
       <c r="E27" s="27">
         <f>B27/0.95</f>
-        <v>5.5587999999999997</v>
+        <v>3.6</v>
       </c>
       <c r="F27" s="27">
         <f>4/0.95*10^5</f>
@@ -2562,7 +2779,7 @@
       </c>
       <c r="B31" s="82">
         <f>SUM(B25:B29)</f>
-        <v>5.5587999999999997</v>
+        <v>3.6</v>
       </c>
       <c r="C31" s="27">
         <f>2*0.95</f>
@@ -2584,7 +2801,7 @@
       </c>
       <c r="B33" s="80">
         <f>B20*'Basic Details'!C12</f>
-        <v>1.3896999999999999</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -2600,7 +2817,7 @@
       </c>
       <c r="B36" s="88">
         <f>BS!D44</f>
-        <v>-1.6990585523623536E-2</v>
+        <v>-0.33467873298722078</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2701,7 +2918,7 @@
       </c>
       <c r="C7" s="198">
         <f>+Cost!B27</f>
-        <v>5.2808599999999997</v>
+        <v>3.42</v>
       </c>
       <c r="D7" s="199"/>
     </row>
@@ -2729,14 +2946,14 @@
       </c>
       <c r="B11" s="75">
         <f>+C7</f>
-        <v>5.2808599999999997</v>
+        <v>3.42</v>
       </c>
       <c r="C11" s="75">
         <v>4.5593772000000001</v>
       </c>
       <c r="D11" s="75">
         <f>B11+E11-C11</f>
-        <v>2.6224549999999995</v>
+        <v>0.7615949999999998</v>
       </c>
       <c r="E11" s="75">
         <v>1.9009722000000002</v>
@@ -2759,7 +2976,7 @@
       </c>
       <c r="B13" s="81">
         <f>D11</f>
-        <v>2.6224549999999995</v>
+        <v>0.7615949999999998</v>
       </c>
       <c r="C13" s="75">
         <f>C11</f>
@@ -2767,7 +2984,7 @@
       </c>
       <c r="D13" s="75">
         <f>B13+E13-C13</f>
-        <v>-0.37161970000000011</v>
+        <v>-2.2324796999999998</v>
       </c>
       <c r="E13" s="75">
         <v>1.5653025000000003</v>
@@ -2786,7 +3003,7 @@
       </c>
       <c r="B15" s="81">
         <f>D13</f>
-        <v>-0.37161970000000011</v>
+        <v>-2.2324796999999998</v>
       </c>
       <c r="C15" s="75">
         <f>C13</f>
@@ -2794,7 +3011,7 @@
       </c>
       <c r="D15" s="75">
         <f>B15+E15-C15</f>
-        <v>-3.7437480000000001</v>
+        <v>-5.6046079999999998</v>
       </c>
       <c r="E15" s="75">
         <v>1.1872488999999999</v>
@@ -2812,7 +3029,7 @@
       </c>
       <c r="B17" s="81">
         <f>D15</f>
-        <v>-3.7437480000000001</v>
+        <v>-5.6046079999999998</v>
       </c>
       <c r="C17" s="75">
         <f>C15</f>
@@ -2820,7 +3037,7 @@
       </c>
       <c r="D17" s="75">
         <f>B17+E17-C17</f>
-        <v>-7.5416661000000005</v>
+        <v>-9.4025260999999993</v>
       </c>
       <c r="E17" s="75">
         <v>0.76145910000000006</v>
@@ -2838,7 +3055,7 @@
       </c>
       <c r="B19" s="81">
         <f>D17</f>
-        <v>-7.5416661000000005</v>
+        <v>-9.4025260999999993</v>
       </c>
       <c r="C19" s="75">
         <f>C17</f>
@@ -2850,7 +3067,7 @@
       </c>
       <c r="E19" s="75">
         <f>C19-B19</f>
-        <v>12.101043300000001</v>
+        <v>13.961903299999999</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3211,7 +3428,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B14" s="142">
         <v>0</v>
@@ -3247,7 +3464,7 @@
     </row>
     <row r="17" spans="1:12 16384:16384" ht="14" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B17" s="145">
         <f>B11+B14</f>
@@ -3317,7 +3534,7 @@
       </c>
       <c r="F20" s="75">
         <f>Intt!E19</f>
-        <v>12.101043300000001</v>
+        <v>13.961903299999999</v>
       </c>
       <c r="I20" s="87"/>
       <c r="J20" s="87"/>
@@ -3541,23 +3758,23 @@
       </c>
       <c r="B30" s="75">
         <f>Dep!E15</f>
-        <v>0.70382</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="C30" s="75">
         <f>Dep!E17</f>
-        <v>0.61124699999999998</v>
+        <v>0.36149999999999999</v>
       </c>
       <c r="D30" s="81">
         <f>Dep!E19</f>
-        <v>0.53125995000000004</v>
+        <v>0.31897500000000001</v>
       </c>
       <c r="E30" s="81">
         <f>Dep!E21</f>
-        <v>0.46210095750000002</v>
+        <v>0.28165875000000001</v>
       </c>
       <c r="F30" s="81">
         <f>Dep!E23</f>
-        <v>0.40226281387500007</v>
+        <v>0.24888693750000002</v>
       </c>
     </row>
     <row r="31" spans="1:12 16384:16384" x14ac:dyDescent="0.25">
@@ -3573,23 +3790,23 @@
       </c>
       <c r="B32" s="145">
         <f>SUM(B20:B30)</f>
-        <v>23.356792200000005</v>
+        <v>23.062972200000004</v>
       </c>
       <c r="C32" s="146">
         <f>SUM(C20:C30)</f>
-        <v>24.823749500000005</v>
+        <v>24.574002500000006</v>
       </c>
       <c r="D32" s="146">
         <f>SUM(D20:D30)</f>
-        <v>26.441428850000008</v>
+        <v>26.229143900000011</v>
       </c>
       <c r="E32" s="145">
         <f>SUM(E20:E30)</f>
-        <v>28.220322057500006</v>
+        <v>28.039879850000005</v>
       </c>
       <c r="F32" s="146">
         <f>SUM(F20:F30)</f>
-        <v>41.991371813875006</v>
+        <v>43.698855937499999</v>
       </c>
       <c r="H32" s="87"/>
       <c r="I32" s="87"/>
@@ -3617,23 +3834,23 @@
       </c>
       <c r="B35" s="145">
         <f>B17-B32</f>
-        <v>6.6432077999999954</v>
+        <v>6.9370277999999956</v>
       </c>
       <c r="C35" s="146">
         <f>C17-C32</f>
-        <v>8.1762504999999948</v>
+        <v>8.425997499999994</v>
       </c>
       <c r="D35" s="146">
         <f>D17-D32</f>
-        <v>9.858571149999996</v>
+        <v>10.070856099999993</v>
       </c>
       <c r="E35" s="145">
         <f>E17-E32</f>
-        <v>11.709677942500001</v>
+        <v>11.890120150000001</v>
       </c>
       <c r="F35" s="146">
         <f>F17-F32</f>
-        <v>1.9316281861250033</v>
+        <v>0.22414406250000951</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -3644,23 +3861,23 @@
       <c r="F36" s="81"/>
       <c r="H36" s="87">
         <f>B39/B11</f>
-        <v>0.22144025999999986</v>
+        <v>0.23123425999999986</v>
       </c>
       <c r="I36" s="87">
         <f>C39/C11</f>
-        <v>0.24776516666666651</v>
+        <v>0.25533325757575742</v>
       </c>
       <c r="J36" s="87">
         <f>D39/D11</f>
-        <v>0.27158598209366375</v>
+        <v>0.27743405234159757</v>
       </c>
       <c r="K36" s="87">
         <f>E39/E11</f>
-        <v>0.29325514506636613</v>
+        <v>0.29777410843976959</v>
       </c>
       <c r="L36" s="87">
         <f>F39/F11</f>
-        <v>9.8269286279398776E-3</v>
+        <v>-2.9047559080663667E-2</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3696,23 +3913,23 @@
       </c>
       <c r="B39" s="145">
         <f>B35-B37</f>
-        <v>6.6432077999999954</v>
+        <v>6.9370277999999956</v>
       </c>
       <c r="C39" s="146">
         <f>C35-C37</f>
-        <v>8.1762504999999948</v>
+        <v>8.425997499999994</v>
       </c>
       <c r="D39" s="146">
         <f>D35-D37</f>
-        <v>9.858571149999996</v>
+        <v>10.070856099999993</v>
       </c>
       <c r="E39" s="145">
         <f>E35-E37</f>
-        <v>11.709677942500001</v>
+        <v>11.890120150000001</v>
       </c>
       <c r="F39" s="146">
         <f>F35-F37</f>
-        <v>0.43162818612500331</v>
+        <v>-1.2758559374999905</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="14" x14ac:dyDescent="0.3">
@@ -3729,23 +3946,23 @@
       </c>
       <c r="B41" s="75">
         <f>B39*0.7</f>
-        <v>4.6502454599999963</v>
+        <v>4.8559194599999964</v>
       </c>
       <c r="C41" s="75">
         <f t="shared" ref="C41:F41" si="3">C39*0.7</f>
-        <v>5.723375349999996</v>
+        <v>5.8981982499999956</v>
       </c>
       <c r="D41" s="75">
         <f t="shared" si="3"/>
-        <v>6.900999804999997</v>
+        <v>7.0495992699999945</v>
       </c>
       <c r="E41" s="75">
         <f t="shared" si="3"/>
-        <v>8.1967745597500006</v>
+        <v>8.3230841050000013</v>
       </c>
       <c r="F41" s="75">
         <f t="shared" si="3"/>
-        <v>0.30213973028750229</v>
+        <v>-0.89309915624999325</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3761,23 +3978,23 @@
       </c>
       <c r="B43" s="81">
         <f>B39-B41</f>
-        <v>1.9929623399999992</v>
+        <v>2.0811083399999992</v>
       </c>
       <c r="C43" s="81">
         <f>C39-C41</f>
-        <v>2.4528751499999988</v>
+        <v>2.5277992499999984</v>
       </c>
       <c r="D43" s="81">
         <f>D39-D41</f>
-        <v>2.957571344999999</v>
+        <v>3.0212568299999987</v>
       </c>
       <c r="E43" s="81">
         <f>E39-E41</f>
-        <v>3.5129033827500002</v>
+        <v>3.567036045</v>
       </c>
       <c r="F43" s="81">
         <f>F39-F41</f>
-        <v>0.12948845583750102</v>
+        <v>-0.38275678124999724</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -3793,23 +4010,23 @@
       </c>
       <c r="B45" s="75">
         <f>B39-B41</f>
-        <v>1.9929623399999992</v>
+        <v>2.0811083399999992</v>
       </c>
       <c r="C45" s="75">
         <f>B45+C43</f>
-        <v>4.4458374899999979</v>
+        <v>4.6089075899999976</v>
       </c>
       <c r="D45" s="75">
         <f>C45+D43</f>
-        <v>7.4034088349999969</v>
+        <v>7.6301644199999963</v>
       </c>
       <c r="E45" s="75">
         <f>D45+E43</f>
-        <v>10.916312217749997</v>
+        <v>11.197200464999996</v>
       </c>
       <c r="F45" s="75">
         <f>F43+E45</f>
-        <v>11.045800673587499</v>
+        <v>10.81444368375</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="14" x14ac:dyDescent="0.3">
@@ -4071,23 +4288,23 @@
       </c>
       <c r="B12" s="75">
         <f>Cost!B25</f>
-        <v>0.27794000000000002</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="C12" s="75">
         <f>B12</f>
-        <v>0.27794000000000002</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="D12" s="81">
         <f>C12</f>
-        <v>0.27794000000000002</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="E12" s="81">
         <f>D12</f>
-        <v>0.27794000000000002</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="F12" s="81">
         <f>E12</f>
-        <v>0.27794000000000002</v>
+        <v>0.18000000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -4103,23 +4320,23 @@
       </c>
       <c r="B14" s="75">
         <f>PL!B45</f>
-        <v>1.9929623399999992</v>
+        <v>2.0811083399999992</v>
       </c>
       <c r="C14" s="75">
         <f>PL!C45</f>
-        <v>4.4458374899999979</v>
+        <v>4.6089075899999976</v>
       </c>
       <c r="D14" s="75">
         <f>PL!D45</f>
-        <v>7.4034088349999969</v>
+        <v>7.6301644199999963</v>
       </c>
       <c r="E14" s="75">
         <f>PL!E45</f>
-        <v>10.916312217749997</v>
+        <v>11.197200464999996</v>
       </c>
       <c r="F14" s="75">
         <f>PL!F45</f>
-        <v>11.045800673587499</v>
+        <v>10.81444368375</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -4130,15 +4347,15 @@
       <c r="F15" s="81"/>
       <c r="J15" s="136">
         <f>B16+B18</f>
-        <v>2.6224549999999995</v>
+        <v>0.7615949999999998</v>
       </c>
       <c r="K15" s="136">
         <f>C16+C18</f>
-        <v>-0.37161970000000011</v>
+        <v>-2.2324796999999998</v>
       </c>
       <c r="L15" s="136">
         <f>D16+D18</f>
-        <v>-3.7437480000000001</v>
+        <v>-5.6046079999999998</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -4147,19 +4364,19 @@
       </c>
       <c r="B16" s="75">
         <f>Intt!D11</f>
-        <v>2.6224549999999995</v>
+        <v>0.7615949999999998</v>
       </c>
       <c r="C16" s="81">
         <f>Intt!D13</f>
-        <v>-0.37161970000000011</v>
+        <v>-2.2324796999999998</v>
       </c>
       <c r="D16" s="81">
         <f>Intt!D15</f>
-        <v>-3.7437480000000001</v>
+        <v>-5.6046079999999998</v>
       </c>
       <c r="E16" s="81">
         <f>Intt!D17</f>
-        <v>-7.5416661000000005</v>
+        <v>-9.4025260999999993</v>
       </c>
       <c r="F16" s="81">
         <f>Intt!D19</f>
@@ -4167,15 +4384,15 @@
       </c>
       <c r="J16" s="136">
         <f>B12+B14</f>
-        <v>2.2709023399999992</v>
+        <v>2.2611083399999994</v>
       </c>
       <c r="K16" s="136">
         <f>C12+C14</f>
-        <v>4.723777489999998</v>
+        <v>4.7889075899999973</v>
       </c>
       <c r="L16" s="136">
         <f>D12+D14</f>
-        <v>7.681348834999997</v>
+        <v>7.810164419999996</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -4186,15 +4403,15 @@
       <c r="F17" s="81"/>
       <c r="J17" s="27">
         <f>J15/J16</f>
-        <v>1.1548074762211045</v>
+        <v>0.33682375431864536</v>
       </c>
       <c r="K17" s="27">
         <f>K15/K16</f>
-        <v>-7.867002643259563E-2</v>
+        <v>-0.46617723521367865</v>
       </c>
       <c r="L17" s="27">
         <f>L15/L16</f>
-        <v>-0.48738158888731181</v>
+        <v>-0.71760435486452956</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -4242,23 +4459,23 @@
       </c>
       <c r="B21" s="148">
         <f>SUM(B12:B19)</f>
-        <v>4.8933573399999988</v>
+        <v>3.0227033399999992</v>
       </c>
       <c r="C21" s="148">
         <f>SUM(C12:C19)</f>
-        <v>4.3521577899999979</v>
+        <v>2.5564278899999975</v>
       </c>
       <c r="D21" s="148">
         <f>SUM(D12:D19)</f>
-        <v>3.9376008349999969</v>
+        <v>2.2055564199999962</v>
       </c>
       <c r="E21" s="148">
         <f>SUM(E12:E19)</f>
-        <v>3.6525861177499959</v>
+        <v>1.9746743649999967</v>
       </c>
       <c r="F21" s="148">
         <f>SUM(F12:F19)</f>
-        <v>11.323740673587498</v>
+        <v>10.994443683749999</v>
       </c>
       <c r="G21" s="26"/>
       <c r="I21" s="136">
@@ -4275,7 +4492,7 @@
       </c>
       <c r="L21" s="136">
         <f>E21-E40</f>
-        <v>0</v>
+        <v>3.5527136788005009E-15</v>
       </c>
       <c r="M21" s="136">
         <f>F21-F40</f>
@@ -4298,11 +4515,11 @@
       </c>
       <c r="L22" s="136">
         <f>L21-K21</f>
-        <v>0</v>
+        <v>3.5527136788005009E-15</v>
       </c>
       <c r="M22" s="136">
         <f>M21-L21</f>
-        <v>0</v>
+        <v>-3.5527136788005009E-15</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -4341,23 +4558,23 @@
       </c>
       <c r="B26" s="75">
         <f>Cost!B11+Cost!B13+Cost!B15</f>
-        <v>5.5587999999999997</v>
+        <v>3.6</v>
       </c>
       <c r="C26" s="81">
         <f>B26</f>
-        <v>5.5587999999999997</v>
+        <v>3.6</v>
       </c>
       <c r="D26" s="81">
         <f>C26</f>
-        <v>5.5587999999999997</v>
+        <v>3.6</v>
       </c>
       <c r="E26" s="81">
         <f>D26</f>
-        <v>5.5587999999999997</v>
+        <v>3.6</v>
       </c>
       <c r="F26" s="81">
         <f>E26-E28</f>
-        <v>5.5587999999999997</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -4406,23 +4623,23 @@
       </c>
       <c r="B30" s="149">
         <f>Dep!$E$15</f>
-        <v>0.70382</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="C30" s="149">
         <f>Dep!$E$17+B30</f>
-        <v>1.315067</v>
+        <v>0.77150000000000007</v>
       </c>
       <c r="D30" s="149">
         <f>Dep!$E$19+C30</f>
-        <v>1.8463269499999999</v>
+        <v>1.0904750000000001</v>
       </c>
       <c r="E30" s="149">
         <f>Dep!$E$21+D30</f>
-        <v>2.3084279075</v>
+        <v>1.3721337500000002</v>
       </c>
       <c r="F30" s="149">
         <f>Dep!$E$23+E30</f>
-        <v>2.7106907213750002</v>
+        <v>1.6210206875000002</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -4431,30 +4648,30 @@
       </c>
       <c r="B31" s="81">
         <f>B26-B30</f>
-        <v>4.8549799999999994</v>
+        <v>3.19</v>
       </c>
       <c r="C31" s="81">
         <f>C26-C30</f>
-        <v>4.2437329999999998</v>
+        <v>2.8285</v>
       </c>
       <c r="D31" s="81">
         <f>D26-D30</f>
-        <v>3.7124730499999998</v>
+        <v>2.509525</v>
       </c>
       <c r="E31" s="81">
         <f>E26-E30-E28</f>
-        <v>3.2503720924999997</v>
+        <v>2.2278662499999999</v>
       </c>
       <c r="F31" s="81">
         <f>F26-F30</f>
-        <v>2.8481092786249995</v>
+        <v>1.9789793124999999</v>
       </c>
       <c r="J31" s="27">
         <v>11.95</v>
       </c>
       <c r="K31" s="136">
         <f>B33+B35+B37</f>
-        <v>3.837734000000026E-2</v>
+        <v>-0.16729666000000165</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -4494,7 +4711,7 @@
       </c>
       <c r="K33" s="27">
         <f>K31/K32</f>
-        <v>1.1287452941176548E-2</v>
+        <v>-4.9204900000000489E-2</v>
       </c>
     </row>
     <row r="34" spans="1:12 16384:16384" x14ac:dyDescent="0.25">
@@ -4545,23 +4762,23 @@
       </c>
       <c r="B37" s="75">
         <f>CF!C48</f>
-        <v>3.837734000000026E-2</v>
+        <v>-0.16729666000000165</v>
       </c>
       <c r="C37" s="81">
         <f>CF!D48</f>
-        <v>0.10842478999999905</v>
+        <v>-0.2720721100000052</v>
       </c>
       <c r="D37" s="81">
         <f>CF!E48</f>
-        <v>0.22512778499999797</v>
+        <v>-0.30396858000000648</v>
       </c>
       <c r="E37" s="81">
         <f>CF!F48</f>
-        <v>0.40221402524999839</v>
+        <v>-0.25319188500000678</v>
       </c>
       <c r="F37" s="81">
         <f>CF!G48</f>
-        <v>8.4756313949625</v>
+        <v>9.0154643712499958</v>
       </c>
     </row>
     <row r="38" spans="1:12 16384:16384" x14ac:dyDescent="0.25">
@@ -4584,23 +4801,23 @@
       </c>
       <c r="B40" s="148">
         <f>SUM(B31:B39)</f>
-        <v>4.8933573399999997</v>
+        <v>3.0227033399999983</v>
       </c>
       <c r="C40" s="148">
         <f>SUM(C31:C39)</f>
-        <v>4.3521577899999988</v>
+        <v>2.5564278899999948</v>
       </c>
       <c r="D40" s="148">
         <f>SUM(D31:D39)</f>
-        <v>3.9376008349999978</v>
+        <v>2.2055564199999935</v>
       </c>
       <c r="E40" s="148">
         <f>SUM(E31:E39)</f>
-        <v>3.6525861177499981</v>
+        <v>1.9746743649999932</v>
       </c>
       <c r="F40" s="148">
         <f>SUM(F31:F39)</f>
-        <v>11.323740673587499</v>
+        <v>10.994443683749996</v>
       </c>
       <c r="I40" s="136">
         <f>C40-C21</f>
@@ -4612,7 +4829,7 @@
       </c>
       <c r="K40" s="136">
         <f>E40-E21</f>
-        <v>0</v>
+        <v>-3.5527136788005009E-15</v>
       </c>
       <c r="L40" s="136">
         <f>F40-F21</f>
@@ -4632,19 +4849,19 @@
       </c>
       <c r="B42" s="81">
         <f>SUM(B16:B18)/SUM(B12:B14)</f>
-        <v>1.1548074762211045</v>
+        <v>0.33682375431864536</v>
       </c>
       <c r="C42" s="81">
         <f>SUM(C16:C18)/SUM(C12:C14)</f>
-        <v>-7.867002643259563E-2</v>
+        <v>-0.46617723521367865</v>
       </c>
       <c r="D42" s="81">
         <f>SUM(D16:D18)/SUM(D12:D14)</f>
-        <v>-0.48738158888731181</v>
+        <v>-0.71760435486452956</v>
       </c>
       <c r="E42" s="81">
         <f>SUM(E16:E18)/SUM(E12:E14)</f>
-        <v>-0.67370878851931459</v>
+        <v>-0.82643582917654101</v>
       </c>
       <c r="F42" s="81">
         <f>SUM(F16:F18)/SUM(F12:F14)</f>
@@ -4667,7 +4884,7 @@
       <c r="C44" s="144"/>
       <c r="D44" s="144">
         <f>AVERAGE(B42:F42)</f>
-        <v>-1.6990585523623536E-2</v>
+        <v>-0.33467873298722078</v>
       </c>
       <c r="E44" s="81"/>
       <c r="F44" s="150"/>
@@ -4855,23 +5072,23 @@
       <c r="B13" s="47"/>
       <c r="C13" s="75">
         <f>PL!B35+PL!B20+PL!B22</f>
-        <v>8.5441799999999954</v>
+        <v>8.8379999999999956</v>
       </c>
       <c r="D13" s="81">
         <f>PL!C35+PL!C20+PL!C22</f>
-        <v>9.7415529999999944</v>
+        <v>9.9912999999999936</v>
       </c>
       <c r="E13" s="81">
         <f>PL!D35+PL!D20+PL!D22</f>
-        <v>11.045820049999996</v>
+        <v>11.258104999999993</v>
       </c>
       <c r="F13" s="81">
         <f>PL!E35+PL!E20+PL!E22</f>
-        <v>12.471137042500001</v>
+        <v>12.651579250000001</v>
       </c>
       <c r="G13" s="81">
         <f>PL!F35+PL!F20+PL!F22</f>
-        <v>14.032671486125004</v>
+        <v>14.186047362500009</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4888,23 +5105,23 @@
       <c r="B15" s="47"/>
       <c r="C15" s="75">
         <f>PL!B30</f>
-        <v>0.70382</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="D15" s="81">
         <f>PL!C30</f>
-        <v>0.61124699999999998</v>
+        <v>0.36149999999999999</v>
       </c>
       <c r="E15" s="81">
         <f>PL!D30</f>
-        <v>0.53125995000000004</v>
+        <v>0.31897500000000001</v>
       </c>
       <c r="F15" s="81">
         <f>PL!E30</f>
-        <v>0.46210095750000002</v>
+        <v>0.28165875000000001</v>
       </c>
       <c r="G15" s="81">
         <f>PL!F30</f>
-        <v>0.40226281387500007</v>
+        <v>0.24888693750000002</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4920,7 +5137,7 @@
       </c>
       <c r="C17" s="75">
         <f>BS!B12</f>
-        <v>0.27794000000000002</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="D17" s="75">
         <f>BS!C12-BS!B12</f>
@@ -4953,7 +5170,7 @@
       <c r="B19" s="47"/>
       <c r="C19" s="75">
         <f>Cost!B27</f>
-        <v>5.2808599999999997</v>
+        <v>3.42</v>
       </c>
       <c r="D19" s="81">
         <v>0</v>
@@ -5044,15 +5261,15 @@
       <c r="B25" s="45"/>
       <c r="C25" s="93">
         <f>SUM(C12:C21)</f>
-        <v>14.806799999999996</v>
+        <v>12.847999999999995</v>
       </c>
       <c r="D25" s="93">
         <f>SUM(D12:D21)</f>
-        <v>10.352799999999995</v>
+        <v>10.352799999999993</v>
       </c>
       <c r="E25" s="93">
         <f>SUM(E12:E21)</f>
-        <v>11.577079999999997</v>
+        <v>11.577079999999993</v>
       </c>
       <c r="F25" s="93">
         <f>SUM(F12:F21)</f>
@@ -5060,7 +5277,7 @@
       </c>
       <c r="G25" s="93">
         <f>SUM(G12:G21)</f>
-        <v>14.434934300000004</v>
+        <v>14.434934300000009</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -5082,7 +5299,7 @@
       </c>
       <c r="C29" s="75">
         <f>Cost!B11+Cost!B13+Cost!B15</f>
-        <v>5.5587999999999997</v>
+        <v>3.6</v>
       </c>
       <c r="D29" s="81">
         <v>0</v>
@@ -5130,7 +5347,7 @@
       </c>
       <c r="G31" s="75">
         <f>Intt!$C$11-Intt!E19</f>
-        <v>-7.5416661000000005</v>
+        <v>-9.4025260999999993</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -5237,7 +5454,7 @@
       </c>
       <c r="G37" s="81">
         <f>PL!F20+PL!F22</f>
-        <v>12.101043300000001</v>
+        <v>13.961903299999999</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -5294,23 +5511,23 @@
       <c r="B41" s="47"/>
       <c r="C41" s="75">
         <f>PL!B41</f>
-        <v>4.6502454599999963</v>
+        <v>4.8559194599999964</v>
       </c>
       <c r="D41" s="81">
         <f>PL!C41</f>
-        <v>5.723375349999996</v>
+        <v>5.8981982499999956</v>
       </c>
       <c r="E41" s="81">
         <f>PL!D41</f>
-        <v>6.900999804999997</v>
+        <v>7.0495992699999945</v>
       </c>
       <c r="F41" s="81">
         <f>PL!E41</f>
-        <v>8.1967745597500006</v>
+        <v>8.3230841050000013</v>
       </c>
       <c r="G41" s="81">
         <f>PL!F41</f>
-        <v>0.30213973028750229</v>
+        <v>-0.89309915624999325</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -5327,23 +5544,23 @@
       <c r="B43" s="45"/>
       <c r="C43" s="93">
         <f>SUM(C27:C41)</f>
-        <v>14.768422659999995</v>
+        <v>13.015296659999997</v>
       </c>
       <c r="D43" s="93">
         <f>SUM(D27:D41)</f>
-        <v>10.282752549999996</v>
+        <v>10.457575449999997</v>
       </c>
       <c r="E43" s="93">
         <f>SUM(E27:E41)</f>
-        <v>11.460377004999998</v>
+        <v>11.608976469999995</v>
       </c>
       <c r="F43" s="93">
         <f>SUM(F27:F41)</f>
-        <v>12.756151759750001</v>
+        <v>12.882461305000001</v>
       </c>
       <c r="G43" s="93">
         <f>SUM(G27:G41)</f>
-        <v>6.3615169302875021</v>
+        <v>5.1662780437500064</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -5357,19 +5574,19 @@
       </c>
       <c r="D46" s="47">
         <f>C48</f>
-        <v>3.837734000000026E-2</v>
+        <v>-0.16729666000000165</v>
       </c>
       <c r="E46" s="47">
         <f>D48</f>
-        <v>0.10842478999999905</v>
+        <v>-0.2720721100000052</v>
       </c>
       <c r="F46" s="47">
         <f>E48</f>
-        <v>0.22512778499999797</v>
+        <v>-0.30396858000000648</v>
       </c>
       <c r="G46" s="47">
         <f>F48</f>
-        <v>0.40221402524999839</v>
+        <v>-0.25319188500000678</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -5378,23 +5595,23 @@
       </c>
       <c r="C47" s="47">
         <f>C25-C43</f>
-        <v>3.837734000000026E-2</v>
+        <v>-0.16729666000000165</v>
       </c>
       <c r="D47" s="47">
         <f>D25-D43</f>
-        <v>7.004744999999879E-2</v>
+        <v>-0.10477545000000354</v>
       </c>
       <c r="E47" s="47">
         <f>E25-E43</f>
-        <v>0.11670299499999892</v>
+        <v>-3.1896470000001287E-2</v>
       </c>
       <c r="F47" s="47">
         <f>F25-F43</f>
-        <v>0.17708624025000042</v>
+        <v>5.0776694999999705E-2</v>
       </c>
       <c r="G47" s="47">
         <f>G25-G43</f>
-        <v>8.0734173697125016</v>
+        <v>9.2686562562500026</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -5404,23 +5621,23 @@
       <c r="B48" s="45"/>
       <c r="C48" s="82">
         <f>C46+C47</f>
-        <v>3.837734000000026E-2</v>
+        <v>-0.16729666000000165</v>
       </c>
       <c r="D48" s="82">
         <f>D46+D47</f>
-        <v>0.10842478999999905</v>
+        <v>-0.2720721100000052</v>
       </c>
       <c r="E48" s="82">
         <f>E46+E47</f>
-        <v>0.22512778499999797</v>
+        <v>-0.30396858000000648</v>
       </c>
       <c r="F48" s="82">
         <f>F46+F47</f>
-        <v>0.40221402524999839</v>
+        <v>-0.25319188500000678</v>
       </c>
       <c r="G48" s="82">
         <f>G46+G47</f>
-        <v>8.4756313949625</v>
+        <v>9.0154643712499958</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -5604,11 +5821,11 @@
       </c>
       <c r="B13" s="75">
         <f>PL!B39</f>
-        <v>6.6432077999999954</v>
+        <v>6.9370277999999956</v>
       </c>
       <c r="C13" s="75">
         <f>PL!B30</f>
-        <v>0.70382</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="D13" s="81">
         <f>B13+C13</f>
@@ -5632,19 +5849,19 @@
       </c>
       <c r="B15" s="75">
         <f>PL!C39</f>
-        <v>8.1762504999999948</v>
+        <v>8.425997499999994</v>
       </c>
       <c r="C15" s="81">
         <f>PL!C30</f>
-        <v>0.61124699999999998</v>
+        <v>0.36149999999999999</v>
       </c>
       <c r="D15" s="81">
         <f>B15+C15</f>
-        <v>8.7874974999999953</v>
+        <v>8.7874974999999935</v>
       </c>
       <c r="E15" s="81">
         <f>E13+D15</f>
-        <v>16.134525299999993</v>
+        <v>16.134525299999989</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5654,11 +5871,11 @@
       <c r="E16" s="81"/>
       <c r="G16" s="47">
         <f>Cost!B20</f>
-        <v>5.5587999999999997</v>
+        <v>3.6</v>
       </c>
       <c r="H16" s="71">
         <f>E17-E15</f>
-        <v>10.389831099999995</v>
+        <v>10.389831099999991</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5667,23 +5884,23 @@
       </c>
       <c r="B17" s="75">
         <f>PL!D39</f>
-        <v>9.858571149999996</v>
+        <v>10.070856099999993</v>
       </c>
       <c r="C17" s="81">
         <f>PL!D30</f>
-        <v>0.53125995000000004</v>
+        <v>0.31897500000000001</v>
       </c>
       <c r="D17" s="81">
         <f>B17+C17</f>
-        <v>10.389831099999997</v>
+        <v>10.389831099999993</v>
       </c>
       <c r="E17" s="81">
         <f>E15+D17</f>
-        <v>26.524356399999988</v>
+        <v>26.524356399999981</v>
       </c>
       <c r="G17" s="47">
         <f>G16-E15</f>
-        <v>-10.575725299999993</v>
+        <v>-12.53452529999999</v>
       </c>
       <c r="H17" s="74"/>
     </row>
@@ -5694,7 +5911,7 @@
       <c r="E18" s="81"/>
       <c r="G18" s="71">
         <f>G17/H16</f>
-        <v>-1.0178919366648798</v>
+        <v>-1.2064224316408763</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -5703,11 +5920,11 @@
       </c>
       <c r="B19" s="75">
         <f>PL!E39</f>
-        <v>11.709677942500001</v>
+        <v>11.890120150000001</v>
       </c>
       <c r="C19" s="81">
         <f>PL!E30</f>
-        <v>0.46210095750000002</v>
+        <v>0.28165875000000001</v>
       </c>
       <c r="D19" s="81">
         <f>B19+C19</f>
@@ -5715,7 +5932,7 @@
       </c>
       <c r="E19" s="81">
         <f>E17+D19</f>
-        <v>38.696135299999987</v>
+        <v>38.69613529999998</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -5730,29 +5947,29 @@
       </c>
       <c r="B21" s="75">
         <f>PL!F39</f>
-        <v>0.43162818612500331</v>
+        <v>-1.2758559374999905</v>
       </c>
       <c r="C21" s="81">
         <f>PL!F30</f>
-        <v>0.40226281387500007</v>
+        <v>0.24888693750000002</v>
       </c>
       <c r="D21" s="81">
         <f>B21+C21</f>
-        <v>0.83389100000000338</v>
+        <v>-1.0269689999999905</v>
       </c>
       <c r="E21" s="81">
         <f>E19+D21</f>
-        <v>39.530026299999989</v>
+        <v>37.669166299999986</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G23" s="47">
         <f>Cost!B20</f>
-        <v>5.5587999999999997</v>
+        <v>3.6</v>
       </c>
       <c r="H23" s="47">
         <f>E17-G23</f>
-        <v>20.96555639999999</v>
+        <v>22.924356399999979</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14" x14ac:dyDescent="0.3">
@@ -5761,13 +5978,13 @@
       </c>
       <c r="B24" s="190"/>
       <c r="C24" s="190" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D24" s="190"/>
       <c r="E24" s="190"/>
       <c r="H24" s="94">
         <f>H23/(E17-E15)</f>
-        <v>2.01789193666488</v>
+        <v>2.2064224316408763</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14" x14ac:dyDescent="0.3">
@@ -5997,23 +6214,23 @@
       <c r="D10" s="102"/>
       <c r="E10" s="104">
         <f>PL!B39</f>
-        <v>6.6432077999999954</v>
+        <v>6.9370277999999956</v>
       </c>
       <c r="F10" s="73">
         <f>PL!C39</f>
-        <v>8.1762504999999948</v>
+        <v>8.425997499999994</v>
       </c>
       <c r="G10" s="73">
         <f>PL!D39</f>
-        <v>9.858571149999996</v>
+        <v>10.070856099999993</v>
       </c>
       <c r="H10" s="73">
         <f>PL!E39</f>
-        <v>11.709677942500001</v>
+        <v>11.890120150000001</v>
       </c>
       <c r="I10" s="73">
         <f>PL!F39</f>
-        <v>0.43162818612500331</v>
+        <v>-1.2758559374999905</v>
       </c>
       <c r="J10" s="105"/>
       <c r="N10" s="130"/>
@@ -6060,7 +6277,7 @@
       </c>
       <c r="I12" s="104">
         <f>PL!F20+PL!F22</f>
-        <v>12.101043300000001</v>
+        <v>13.961903299999999</v>
       </c>
       <c r="J12" s="105"/>
       <c r="N12" s="130"/>
@@ -6091,23 +6308,23 @@
       <c r="D14" s="102"/>
       <c r="E14" s="104">
         <f>PL!B30</f>
-        <v>0.70382</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="F14" s="73">
         <f>PL!C30</f>
-        <v>0.61124699999999998</v>
+        <v>0.36149999999999999</v>
       </c>
       <c r="G14" s="73">
         <f>PL!D30</f>
-        <v>0.53125995000000004</v>
+        <v>0.31897500000000001</v>
       </c>
       <c r="H14" s="73">
         <f>PL!E30</f>
-        <v>0.46210095750000002</v>
+        <v>0.28165875000000001</v>
       </c>
       <c r="I14" s="73">
         <f>PL!F30</f>
-        <v>0.40226281387500007</v>
+        <v>0.24888693750000002</v>
       </c>
       <c r="J14" s="105"/>
       <c r="N14" s="130"/>
@@ -6140,11 +6357,11 @@
       </c>
       <c r="F16" s="106">
         <f>SUM(F10:F14)</f>
-        <v>10.352799999999995</v>
+        <v>10.352799999999993</v>
       </c>
       <c r="G16" s="106">
         <f>SUM(G10:G14)</f>
-        <v>11.577079999999997</v>
+        <v>11.577079999999993</v>
       </c>
       <c r="H16" s="106">
         <f>SUM(H10:H14)</f>
@@ -6152,7 +6369,7 @@
       </c>
       <c r="I16" s="106">
         <f>SUM(I10:I14)</f>
-        <v>12.934934300000004</v>
+        <v>12.934934300000009</v>
       </c>
       <c r="J16" s="105"/>
       <c r="N16" s="130"/>
@@ -6231,7 +6448,7 @@
       </c>
       <c r="I20" s="73">
         <f>CF!G31</f>
-        <v>-7.5416661000000005</v>
+        <v>-9.4025260999999993</v>
       </c>
       <c r="J20" s="105"/>
     </row>
@@ -6272,7 +6489,7 @@
       </c>
       <c r="I22" s="73">
         <f>I12</f>
-        <v>12.101043300000001</v>
+        <v>13.961903299999999</v>
       </c>
       <c r="J22" s="105"/>
     </row>
@@ -6343,11 +6560,11 @@
       </c>
       <c r="F26" s="73">
         <f>F16/F24</f>
-        <v>2.2706610016824218</v>
+        <v>2.2706610016824214</v>
       </c>
       <c r="G26" s="73">
         <f>G16/G24</f>
-        <v>2.5391801318829241</v>
+        <v>2.5391801318829232</v>
       </c>
       <c r="H26" s="73">
         <f>H16/H24</f>
@@ -6355,7 +6572,7 @@
       </c>
       <c r="I26" s="73">
         <f>I16/I24</f>
-        <v>2.8369958730328353</v>
+        <v>2.8369958730328362</v>
       </c>
       <c r="J26" s="105"/>
       <c r="L26" s="51" t="s">
@@ -6888,7 +7105,7 @@
       </c>
       <c r="C58" s="29">
         <f>C70</f>
-        <v>5.5587999999999997</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -6934,7 +7151,7 @@
       </c>
       <c r="C64" s="33">
         <f>+Cost!B13</f>
-        <v>1.9588000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -6982,7 +7199,7 @@
       </c>
       <c r="C70" s="36">
         <f>SUM(C62:C68)</f>
-        <v>5.5587999999999997</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -7014,7 +7231,7 @@
       </c>
       <c r="C74" s="33">
         <f>(Cost!B25)</f>
-        <v>0.27794000000000002</v>
+        <v>0.18000000000000002</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -7030,7 +7247,7 @@
       </c>
       <c r="C76" s="33">
         <f>(Cost!B27)</f>
-        <v>5.2808599999999997</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -7062,7 +7279,7 @@
       </c>
       <c r="C80" s="36">
         <f>SUM(C74:C78)</f>
-        <v>5.5587999999999997</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -7648,8 +7865,8 @@
     </row>
     <row r="9" spans="1:2" ht="27.5" x14ac:dyDescent="0.3">
       <c r="A9" s="46" t="str">
-        <f>"The detail are in Annex- II and the estimated cost of plant and machinery is Rs."&amp;+'PM-MFA'!E14&amp;" lakh. The Promoter have already confirmed with the suppliers and their procurement will not be a problem."</f>
-        <v>The detail are in Annex- II and the estimated cost of plant and machinery is Rs.1.9588 lakh. The Promoter have already confirmed with the suppliers and their procurement will not be a problem.</v>
+        <f>"The detail are in Annex- II and the estimated cost of plant and machinery is Rs."&amp;+'PM-MFA'!E23&amp;" lakh. The Promoter have already confirmed with the suppliers and their procurement will not be a problem."</f>
+        <v>The detail are in Annex- II and the estimated cost of plant and machinery is Rs.0 lakh. The Promoter have already confirmed with the suppliers and their procurement will not be a problem.</v>
       </c>
       <c r="B9" s="27"/>
     </row>
@@ -8140,10 +8357,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -8219,232 +8436,460 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="109">
-        <v>1</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>258</v>
+        <f>'Basic Details'!B19</f>
+        <v>0</v>
+      </c>
+      <c r="B10" s="28">
+        <f>'Basic Details'!C19</f>
+        <v>0</v>
       </c>
       <c r="C10" s="68">
-        <v>1</v>
+        <f>'Basic Details'!D19</f>
+        <v>0</v>
       </c>
       <c r="D10" s="135">
-        <v>195880</v>
+        <f>'Basic Details'!E19</f>
+        <v>0</v>
       </c>
       <c r="E10" s="123">
-        <f>D10*C10</f>
-        <v>195880</v>
+        <f>'Basic Details'!F19</f>
+        <v>0</v>
       </c>
       <c r="F10" s="81"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="109"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="123"/>
+      <c r="A11" s="109">
+        <f>'Basic Details'!B20</f>
+        <v>0</v>
+      </c>
+      <c r="B11" s="28">
+        <f>'Basic Details'!C20</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="68">
+        <f>'Basic Details'!D20</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="135">
+        <f>'Basic Details'!E20</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="123">
+        <f>'Basic Details'!F20</f>
+        <v>0</v>
+      </c>
       <c r="F11" s="81"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="67"/>
-    </row>
-    <row r="13" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="26" t="s">
+      <c r="A12" s="109">
+        <f>'Basic Details'!B21</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="28">
+        <f>'Basic Details'!C21</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="68">
+        <f>'Basic Details'!D21</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="135">
+        <f>'Basic Details'!E21</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="123">
+        <f>'Basic Details'!F21</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="81"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="109">
+        <f>'Basic Details'!B22</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="28">
+        <f>'Basic Details'!C22</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="68">
+        <f>'Basic Details'!D22</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="135">
+        <f>'Basic Details'!E22</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="123">
+        <f>'Basic Details'!F22</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="81"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="109">
+        <f>'Basic Details'!B23</f>
+        <v>0</v>
+      </c>
+      <c r="B14" s="28">
+        <f>'Basic Details'!C23</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="68">
+        <f>'Basic Details'!D23</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="135">
+        <f>'Basic Details'!E23</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="123">
+        <f>'Basic Details'!F23</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="81"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="109">
+        <f>'Basic Details'!B24</f>
+        <v>0</v>
+      </c>
+      <c r="B15" s="28">
+        <f>'Basic Details'!C24</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="68">
+        <f>'Basic Details'!D24</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="135">
+        <f>'Basic Details'!E24</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="123">
+        <f>'Basic Details'!F24</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="81"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="109">
+        <f>'Basic Details'!B25</f>
+        <v>0</v>
+      </c>
+      <c r="B16" s="28">
+        <f>'Basic Details'!C25</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="68">
+        <f>'Basic Details'!D25</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="135">
+        <f>'Basic Details'!E25</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="123">
+        <f>'Basic Details'!F25</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="81"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="109">
+        <f>'Basic Details'!B26</f>
+        <v>0</v>
+      </c>
+      <c r="B17" s="28">
+        <f>'Basic Details'!C26</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="68">
+        <f>'Basic Details'!D26</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="135">
+        <f>'Basic Details'!E26</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="123">
+        <f>'Basic Details'!F26</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="81"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="109">
+        <f>'Basic Details'!B27</f>
+        <v>0</v>
+      </c>
+      <c r="B18" s="28">
+        <f>'Basic Details'!C27</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="68">
+        <f>'Basic Details'!D27</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="135">
+        <f>'Basic Details'!E27</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="123">
+        <f>'Basic Details'!F27</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="81"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="109">
+        <f>'Basic Details'!B28</f>
+        <v>0</v>
+      </c>
+      <c r="B19" s="28">
+        <f>'Basic Details'!C28</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="68">
+        <f>'Basic Details'!D28</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="135">
+        <f>'Basic Details'!E28</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="123">
+        <f>'Basic Details'!F28</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="81"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="109">
+        <f>'Basic Details'!B29</f>
+        <v>0</v>
+      </c>
+      <c r="B20" s="28">
+        <f>'Basic Details'!C29</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="68">
+        <f>'Basic Details'!D29</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="135">
+        <f>'Basic Details'!E29</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="123">
+        <f>'Basic Details'!F29</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="81"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="66"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="67"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="70">
-        <f>SUM(E10:E12)</f>
-        <v>195880</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="B14" s="72" t="s">
+      <c r="E22" s="70">
+        <f>SUM(E10:E21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="B23" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="62">
-        <f>E13/10^5</f>
-        <v>1.9588000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="185" t="str">
+      <c r="E23" s="62">
+        <f>E22/10^5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="185" t="str">
         <f>A1</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B17" s="185"/>
-      <c r="C17" s="185"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-    </row>
-    <row r="18" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="187" t="str">
+      <c r="B26" s="185"/>
+      <c r="C26" s="185"/>
+      <c r="D26" s="185"/>
+      <c r="E26" s="185"/>
+    </row>
+    <row r="27" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="187" t="str">
         <f>A2</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B18" s="187"/>
-      <c r="C18" s="187"/>
-      <c r="D18" s="187"/>
-      <c r="E18" s="187"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G19" s="27">
+      <c r="B27" s="187"/>
+      <c r="C27" s="187"/>
+      <c r="D27" s="187"/>
+      <c r="E27" s="187"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="27">
         <f>190000+120000</f>
         <v>310000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A22" s="184" t="s">
+    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="A31" s="184" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="184"/>
-      <c r="C22" s="184"/>
-      <c r="D22" s="184"/>
-      <c r="E22" s="184"/>
-    </row>
-    <row r="23" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="E23" s="63" t="s">
+      <c r="B31" s="184"/>
+      <c r="C31" s="184"/>
+      <c r="D31" s="184"/>
+      <c r="E31" s="184"/>
+    </row>
+    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="E32" s="63" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="E25" s="35" t="s">
+    <row r="34" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="E34" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="74">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="74">
         <v>1</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B36" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="E27" s="131">
+      <c r="E36" s="131">
+        <f>'Basic Details'!F37</f>
         <v>260000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="74"/>
-      <c r="B28" s="141"/>
-      <c r="E28" s="75"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="74"/>
-      <c r="B29" s="72"/>
-      <c r="E29" s="75"/>
-      <c r="G29" s="27">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="74"/>
+      <c r="B37" s="141"/>
+      <c r="E37" s="75"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="74"/>
+      <c r="B38" s="72"/>
+      <c r="E38" s="75"/>
+      <c r="G38" s="27">
         <f>280000+170000+15000+10000+22000+70000</f>
         <v>567000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="74">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="74">
         <v>2</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B39" s="72" t="s">
         <v>192</v>
       </c>
-      <c r="E30" s="75">
+      <c r="E39" s="75">
+        <f>'Basic Details'!F40</f>
         <v>100000</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G39" s="27">
         <v>10000</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H39" s="27">
         <v>9596433606</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="74"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="74"/>
-      <c r="E32" s="75"/>
-    </row>
-    <row r="33" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D33" s="35"/>
-      <c r="E33" s="76">
-        <f>SUM(E27:E30)</f>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="74"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="74"/>
+      <c r="E41" s="75"/>
+    </row>
+    <row r="42" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D42" s="35"/>
+      <c r="E42" s="76">
+        <f>SUM(E36:E39)</f>
         <v>360000</v>
       </c>
-      <c r="F33" s="136">
-        <f>E13+E33</f>
-        <v>555880</v>
-      </c>
-      <c r="G33" s="136">
-        <f>E33+E13</f>
-        <v>555880</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="D34" s="35" t="s">
+      <c r="F42" s="136">
+        <f>E22+E42</f>
+        <v>360000</v>
+      </c>
+      <c r="G42" s="136">
+        <f>E42+E22</f>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="D43" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="62">
-        <f>E33/10^5</f>
+      <c r="E43" s="62">
+        <f>E42/10^5</f>
         <v>3.6</v>
       </c>
-      <c r="F34" s="71"/>
-    </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.35">
-      <c r="B35" s="26" t="s">
+      <c r="F43" s="71"/>
+    </row>
+    <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+      <c r="B44" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="G35" s="73">
-        <f>2000000-F33</f>
-        <v>1444120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A36" s="26"/>
-      <c r="B36" s="72" t="s">
+      <c r="G44" s="73">
+        <f>2000000-F42</f>
+        <v>1640000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A45" s="26"/>
+      <c r="B45" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-    </row>
-    <row r="37" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A37" s="26"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="35"/>
-    </row>
-    <row r="38" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="35"/>
-    </row>
-    <row r="39" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="B39" s="26"/>
-    </row>
-    <row r="40" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="B40" s="26"/>
-    </row>
-    <row r="58" spans="6:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="F58" s="26"/>
-    </row>
-    <row r="59" spans="6:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="F59" s="26"/>
-    </row>
-    <row r="60" spans="6:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="F60" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+    </row>
+    <row r="46" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A46" s="26"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="35"/>
+    </row>
+    <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="35"/>
+    </row>
+    <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="B48" s="26"/>
+    </row>
+    <row r="49" spans="2:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="B49" s="26"/>
+    </row>
+    <row r="67" spans="6:6" ht="14" x14ac:dyDescent="0.3">
+      <c r="F67" s="26"/>
+    </row>
+    <row r="68" spans="6:6" ht="14" x14ac:dyDescent="0.3">
+      <c r="F68" s="26"/>
+    </row>
+    <row r="69" spans="6:6" ht="14" x14ac:dyDescent="0.3">
+      <c r="F69" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A31:E31"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8452,7 +8897,7 @@
   <pageSetup scale="89" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="36" max="16383" man="1"/>
+    <brk id="45" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -8664,7 +9109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -9083,7 +9528,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H12" s="47">
         <f>B13-B15-B17-B19</f>
-        <v>1.2029480500000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -9092,31 +9537,31 @@
       </c>
       <c r="B13" s="47">
         <f>Cost!B13</f>
-        <v>1.9588000000000001</v>
+        <v>0</v>
       </c>
       <c r="C13" s="47">
-        <f>'PM-MFA'!E27/100000</f>
+        <f>'PM-MFA'!E36/100000</f>
         <v>2.6</v>
       </c>
       <c r="D13" s="47">
-        <f>'PM-MFA'!E30/100000</f>
+        <f>'PM-MFA'!E39/100000</f>
         <v>1</v>
       </c>
       <c r="E13" s="47">
         <f>SUM(B13:C13)+D13</f>
-        <v>5.5587999999999997</v>
+        <v>3.6</v>
       </c>
       <c r="F13" s="47"/>
       <c r="H13" s="47">
         <f>H12-5</f>
-        <v>-3.7970519499999997</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F14" s="47"/>
       <c r="H14" s="47">
         <f>H13*0.15</f>
-        <v>-0.56955779249999994</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -9125,7 +9570,7 @@
       </c>
       <c r="B15" s="47">
         <f>B13*B11</f>
-        <v>0.29382000000000003</v>
+        <v>0</v>
       </c>
       <c r="C15" s="47">
         <f>C13*C11</f>
@@ -9137,7 +9582,7 @@
       </c>
       <c r="E15" s="47">
         <f>SUM(B15:C15)+D15</f>
-        <v>0.70382</v>
+        <v>0.41000000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -9148,7 +9593,7 @@
       <c r="F16" s="47"/>
       <c r="H16" s="47">
         <f>H13-H14</f>
-        <v>-3.2274941574999998</v>
+        <v>-4.25</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -9157,7 +9602,7 @@
       </c>
       <c r="B17" s="47">
         <f>(B13-B15)*B11</f>
-        <v>0.249747</v>
+        <v>0</v>
       </c>
       <c r="C17" s="47">
         <f>(C13-C15)*C11</f>
@@ -9169,11 +9614,11 @@
       </c>
       <c r="E17" s="47">
         <f>SUM(B17:C17)+D17</f>
-        <v>0.61124699999999998</v>
+        <v>0.36149999999999999</v>
       </c>
       <c r="H17" s="27">
         <f>H16*0.15</f>
-        <v>-0.48412412362499996</v>
+        <v>-0.63749999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -9188,7 +9633,7 @@
       </c>
       <c r="B19" s="47">
         <f>(B13-B15-B17)*B11</f>
-        <v>0.21228495000000003</v>
+        <v>0</v>
       </c>
       <c r="C19" s="47">
         <f>(C13-C15-C17)*C11</f>
@@ -9200,7 +9645,7 @@
       </c>
       <c r="E19" s="47">
         <f>SUM(B19:C19)+D19</f>
-        <v>0.53125995000000004</v>
+        <v>0.31897500000000001</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -9215,7 +9660,7 @@
       </c>
       <c r="B21" s="47">
         <f>(B13-B15-B17-B19)*B11</f>
-        <v>0.18044220750000003</v>
+        <v>0</v>
       </c>
       <c r="C21" s="47">
         <f>(C13-C15-C17-C19)*C11</f>
@@ -9227,7 +9672,7 @@
       </c>
       <c r="E21" s="47">
         <f>SUM(B21:C21)+D21</f>
-        <v>0.46210095750000002</v>
+        <v>0.28165875000000001</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -9242,7 +9687,7 @@
       </c>
       <c r="B23" s="47">
         <f>(B13-B15-B17-B19-B21)*B11</f>
-        <v>0.15337587637500003</v>
+        <v>0</v>
       </c>
       <c r="C23" s="47">
         <f>(C13-C15-C17-C19-C21)*C11</f>
@@ -9254,7 +9699,7 @@
       </c>
       <c r="E23" s="47">
         <f>SUM(B23:C23)+D23</f>
-        <v>0.40226281387500007</v>
+        <v>0.24888693750000002</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">

--- a/Project Report Format.xlsx
+++ b/Project Report Format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lavis\OneDrive\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB9F7F7-BDD7-49A3-A264-6F8A1555A826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCDB33C-9236-4EAF-8FFC-6EABF4D69102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="926" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="926" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Details" sheetId="30" r:id="rId1"/>
@@ -24,23 +24,24 @@
     <sheet name="WCAP" sheetId="29" r:id="rId9"/>
     <sheet name="Cost" sheetId="1" r:id="rId10"/>
     <sheet name="Intt" sheetId="14" r:id="rId11"/>
-    <sheet name="PL" sheetId="15" r:id="rId12"/>
-    <sheet name="BS" sheetId="21" r:id="rId13"/>
-    <sheet name="CF" sheetId="19" r:id="rId14"/>
-    <sheet name="Pback" sheetId="20" r:id="rId15"/>
-    <sheet name="DSCR" sheetId="26" r:id="rId16"/>
+    <sheet name="Int. Calculator" sheetId="31" state="hidden" r:id="rId12"/>
+    <sheet name="PL" sheetId="15" r:id="rId13"/>
+    <sheet name="BS" sheetId="21" r:id="rId14"/>
+    <sheet name="CF" sheetId="19" r:id="rId15"/>
+    <sheet name="Pback" sheetId="20" r:id="rId16"/>
+    <sheet name="DSCR" sheetId="26" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">BS!$A$1:$F$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">BS!$A$1:$F$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Cost!$A$1:$B$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">Dep!$A$1:$E$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="15">DSCR!$A$1:$I$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">DSCR!$A$1:$I$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Intro!$A$1:$A$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">Intt!$A$1:$E$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Land!$A$1:$D$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="14">Pback!$A$1:$E$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">Pback!$A$1:$E$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Phigh!$A$1:$D$99</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">PL!$A$1:$F$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">PL!$A$1:$F$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'PM-MFA'!$A$1:$E$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Pre Operative exp'!$A$1:$E$23</definedName>
   </definedNames>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="281">
   <si>
     <t xml:space="preserve">                        Profit After Tax</t>
   </si>
@@ -917,12 +918,37 @@
   <si>
     <t>CC Interest rate</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="16">
+  <numFmts count="17">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
@@ -940,7 +966,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="General\ &quot;sq. ft&quot;"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1147,6 +1173,12 @@
       <sz val="26"/>
       <name val="Algerian"/>
       <family val="5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1361,7 +1393,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1804,6 +1836,21 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2228,7 +2275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F170FFE-54A9-4A21-ACCD-4D0E784EBF5B}">
   <dimension ref="B3:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -2817,7 +2864,7 @@
       </c>
       <c r="B36" s="88">
         <f>BS!D44</f>
-        <v>-0.33467873298722078</v>
+        <v>0.34373045810986669</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2852,8 +2899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A5" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2939,6 +2986,14 @@
         <f>"    Interest @ "&amp;'Basic Details'!C13*100&amp;"%"</f>
         <v xml:space="preserve">    Interest @ 11.95%</v>
       </c>
+      <c r="G9" s="204">
+        <f>'Basic Details'!C13/12</f>
+        <v>9.9583333333333329E-3</v>
+      </c>
+      <c r="H9" s="27">
+        <f>Phigh!C82*12</f>
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="65">
@@ -2948,15 +3003,17 @@
         <f>+C7</f>
         <v>3.42</v>
       </c>
-      <c r="C11" s="75">
-        <v>4.5593772000000001</v>
+      <c r="C11" s="212">
+        <f>-PMT(G9, H9,B11)*12</f>
+        <v>0.91187552874157818</v>
       </c>
       <c r="D11" s="75">
         <f>B11+E11-C11</f>
-        <v>0.7615949999999998</v>
-      </c>
-      <c r="E11" s="75">
-        <v>1.9009722000000002</v>
+        <v>2.8883189168096646</v>
+      </c>
+      <c r="E11" s="81">
+        <f>SUM('Int. Calculator'!C7:C18)</f>
+        <v>0.3801944455512431</v>
       </c>
       <c r="G11" s="92"/>
     </row>
@@ -2967,7 +3024,7 @@
       <c r="E12" s="81"/>
       <c r="J12" s="140">
         <f>C11/12</f>
-        <v>0.37994810000000001</v>
+        <v>7.5989627395131515E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2976,18 +3033,19 @@
       </c>
       <c r="B13" s="81">
         <f>D11</f>
-        <v>0.7615949999999998</v>
+        <v>2.8883189168096646</v>
       </c>
       <c r="C13" s="75">
         <f>C11</f>
-        <v>4.5593772000000001</v>
+        <v>0.91187552874157818</v>
       </c>
       <c r="D13" s="75">
         <f>B13+E13-C13</f>
-        <v>-2.2324796999999998</v>
-      </c>
-      <c r="E13" s="75">
-        <v>1.5653025000000003</v>
+        <v>2.2895038868143303</v>
+      </c>
+      <c r="E13" s="81">
+        <f>SUM('Int. Calculator'!C19:C30)</f>
+        <v>0.31306049874624381</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3003,18 +3061,19 @@
       </c>
       <c r="B15" s="81">
         <f>D13</f>
-        <v>-2.2324796999999998</v>
+        <v>2.2895038868143303</v>
       </c>
       <c r="C15" s="75">
         <f>C13</f>
-        <v>4.5593772000000001</v>
+        <v>0.91187552874157818</v>
       </c>
       <c r="D15" s="75">
         <f>B15+E15-C15</f>
-        <v>-5.6046079999999998</v>
-      </c>
-      <c r="E15" s="75">
-        <v>1.1872488999999999</v>
+        <v>1.6150780863012315</v>
+      </c>
+      <c r="E15" s="81">
+        <f>SUM('Int. Calculator'!C31:C42)</f>
+        <v>0.2374497282284794</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3029,18 +3088,19 @@
       </c>
       <c r="B17" s="81">
         <f>D15</f>
-        <v>-5.6046079999999998</v>
+        <v>1.6150780863012315</v>
       </c>
       <c r="C17" s="75">
         <f>C15</f>
-        <v>4.5593772000000001</v>
+        <v>0.91187552874157818</v>
       </c>
       <c r="D17" s="75">
         <f>B17+E17-C17</f>
-        <v>-9.4025260999999993</v>
-      </c>
-      <c r="E17" s="75">
-        <v>0.76145910000000006</v>
+        <v>0.85549434572398175</v>
+      </c>
+      <c r="E17" s="81">
+        <f>SUM('Int. Calculator'!C43:C54)</f>
+        <v>0.15229178816432842</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3055,11 +3115,11 @@
       </c>
       <c r="B19" s="81">
         <f>D17</f>
-        <v>-9.4025260999999993</v>
+        <v>0.85549434572398175</v>
       </c>
       <c r="C19" s="75">
         <f>C17</f>
-        <v>4.5593772000000001</v>
+        <v>0.91187552874157818</v>
       </c>
       <c r="D19" s="75">
         <f>B19+E19-C19</f>
@@ -3067,7 +3127,7 @@
       </c>
       <c r="E19" s="75">
         <f>C19-B19</f>
-        <v>13.961903299999999</v>
+        <v>5.6381183017596426E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3270,11 +3330,1348 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D07F23-7FD2-4AE3-B211-97E6E54C365E}">
+  <dimension ref="A1:E66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="205">
+        <f>Intt!B11</f>
+        <v>3.42</v>
+      </c>
+      <c r="D1" s="206"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="207">
+        <f>Intt!G9*12</f>
+        <v>0.1195</v>
+      </c>
+      <c r="D2" s="206"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f>Intt!H9</f>
+        <v>60</v>
+      </c>
+      <c r="D3" s="206"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="208">
+        <f>PMT(B2/12, B3, -B1)</f>
+        <v>7.5989627395131515E-2</v>
+      </c>
+      <c r="D4" s="206"/>
+    </row>
+    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="A5" s="209" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="209" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="209" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="209" t="s">
+        <v>276</v>
+      </c>
+      <c r="E5" s="209" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+      <c r="A6" s="210" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" s="210" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="210" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="206" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" s="210" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="210">
+        <v>1</v>
+      </c>
+      <c r="B7" s="211">
+        <f>B$1</f>
+        <v>3.42</v>
+      </c>
+      <c r="C7" s="211">
+        <f>B7 * ($B$2/12)</f>
+        <v>3.4057499999999997E-2</v>
+      </c>
+      <c r="D7" s="206">
+        <f>$B$4 - C7</f>
+        <v>4.1932127395131517E-2</v>
+      </c>
+      <c r="E7" s="211">
+        <f>B7-D7</f>
+        <v>3.3780678726048685</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="210">
+        <v>2</v>
+      </c>
+      <c r="B8" s="211">
+        <f>E7</f>
+        <v>3.3780678726048685</v>
+      </c>
+      <c r="C8" s="211">
+        <f t="shared" ref="C8:C66" si="0">B8 * ($B$2/12)</f>
+        <v>3.3639925898023483E-2</v>
+      </c>
+      <c r="D8" s="206">
+        <f t="shared" ref="D8:D66" si="1">$B$4 - C8</f>
+        <v>4.2349701497108032E-2</v>
+      </c>
+      <c r="E8" s="211">
+        <f t="shared" ref="E8:E66" si="2">B8-D8</f>
+        <v>3.3357181711077604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="210">
+        <v>3</v>
+      </c>
+      <c r="B9" s="211">
+        <f t="shared" ref="B9:B66" si="3">E8</f>
+        <v>3.3357181711077604</v>
+      </c>
+      <c r="C9" s="211">
+        <f t="shared" si="0"/>
+        <v>3.3218193453948115E-2</v>
+      </c>
+      <c r="D9" s="206">
+        <f t="shared" si="1"/>
+        <v>4.27714339411834E-2</v>
+      </c>
+      <c r="E9" s="211">
+        <f t="shared" si="2"/>
+        <v>3.2929467371665768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="210">
+        <v>4</v>
+      </c>
+      <c r="B10" s="211">
+        <f t="shared" si="3"/>
+        <v>3.2929467371665768</v>
+      </c>
+      <c r="C10" s="211">
+        <f t="shared" si="0"/>
+        <v>3.279226125761716E-2</v>
+      </c>
+      <c r="D10" s="206">
+        <f t="shared" si="1"/>
+        <v>4.3197366137514355E-2</v>
+      </c>
+      <c r="E10" s="211">
+        <f t="shared" si="2"/>
+        <v>3.2497493710290626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="210">
+        <v>5</v>
+      </c>
+      <c r="B11" s="211">
+        <f t="shared" si="3"/>
+        <v>3.2497493710290626</v>
+      </c>
+      <c r="C11" s="211">
+        <f t="shared" si="0"/>
+        <v>3.236208748649775E-2</v>
+      </c>
+      <c r="D11" s="206">
+        <f t="shared" si="1"/>
+        <v>4.3627539908633765E-2</v>
+      </c>
+      <c r="E11" s="211">
+        <f t="shared" si="2"/>
+        <v>3.2061218311204289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="210">
+        <v>6</v>
+      </c>
+      <c r="B12" s="211">
+        <f t="shared" si="3"/>
+        <v>3.2061218311204289</v>
+      </c>
+      <c r="C12" s="211">
+        <f t="shared" si="0"/>
+        <v>3.1927629901574273E-2</v>
+      </c>
+      <c r="D12" s="206">
+        <f t="shared" si="1"/>
+        <v>4.4061997493557242E-2</v>
+      </c>
+      <c r="E12" s="211">
+        <f t="shared" si="2"/>
+        <v>3.1620598336268717</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="210">
+        <v>7</v>
+      </c>
+      <c r="B13" s="211">
+        <f t="shared" si="3"/>
+        <v>3.1620598336268717</v>
+      </c>
+      <c r="C13" s="211">
+        <f t="shared" si="0"/>
+        <v>3.1488845843200927E-2</v>
+      </c>
+      <c r="D13" s="206">
+        <f t="shared" si="1"/>
+        <v>4.4500781551930588E-2</v>
+      </c>
+      <c r="E13" s="211">
+        <f t="shared" si="2"/>
+        <v>3.1175590520749412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="210">
+        <v>8</v>
+      </c>
+      <c r="B14" s="211">
+        <f t="shared" si="3"/>
+        <v>3.1175590520749412</v>
+      </c>
+      <c r="C14" s="211">
+        <f t="shared" si="0"/>
+        <v>3.1045692226912953E-2</v>
+      </c>
+      <c r="D14" s="206">
+        <f t="shared" si="1"/>
+        <v>4.4943935168218561E-2</v>
+      </c>
+      <c r="E14" s="211">
+        <f t="shared" si="2"/>
+        <v>3.0726151169067228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="210">
+        <v>9</v>
+      </c>
+      <c r="B15" s="211">
+        <f t="shared" si="3"/>
+        <v>3.0726151169067228</v>
+      </c>
+      <c r="C15" s="211">
+        <f t="shared" si="0"/>
+        <v>3.0598125539196115E-2</v>
+      </c>
+      <c r="D15" s="206">
+        <f t="shared" si="1"/>
+        <v>4.53915018559354E-2</v>
+      </c>
+      <c r="E15" s="211">
+        <f t="shared" si="2"/>
+        <v>3.0272236150507874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="210">
+        <v>10</v>
+      </c>
+      <c r="B16" s="211">
+        <f t="shared" si="3"/>
+        <v>3.0272236150507874</v>
+      </c>
+      <c r="C16" s="211">
+        <f t="shared" si="0"/>
+        <v>3.014610183321409E-2</v>
+      </c>
+      <c r="D16" s="206">
+        <f t="shared" si="1"/>
+        <v>4.5843525561917425E-2</v>
+      </c>
+      <c r="E16" s="211">
+        <f t="shared" si="2"/>
+        <v>2.9813800894888698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="210">
+        <v>11</v>
+      </c>
+      <c r="B17" s="211">
+        <f t="shared" si="3"/>
+        <v>2.9813800894888698</v>
+      </c>
+      <c r="C17" s="211">
+        <f t="shared" si="0"/>
+        <v>2.9689576724493329E-2</v>
+      </c>
+      <c r="D17" s="206">
+        <f t="shared" si="1"/>
+        <v>4.6300050670638186E-2</v>
+      </c>
+      <c r="E17" s="211">
+        <f t="shared" si="2"/>
+        <v>2.9350800388182314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="210">
+        <v>12</v>
+      </c>
+      <c r="B18" s="211">
+        <f t="shared" si="3"/>
+        <v>2.9350800388182314</v>
+      </c>
+      <c r="C18" s="211">
+        <f t="shared" si="0"/>
+        <v>2.9228505386564886E-2</v>
+      </c>
+      <c r="D18" s="206">
+        <f t="shared" si="1"/>
+        <v>4.6761122008566629E-2</v>
+      </c>
+      <c r="E18" s="211">
+        <f t="shared" si="2"/>
+        <v>2.888318916809665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="210">
+        <v>13</v>
+      </c>
+      <c r="B19" s="211">
+        <f t="shared" si="3"/>
+        <v>2.888318916809665</v>
+      </c>
+      <c r="C19" s="211">
+        <f t="shared" si="0"/>
+        <v>2.8762842546562913E-2</v>
+      </c>
+      <c r="D19" s="206">
+        <f t="shared" si="1"/>
+        <v>4.7226784848568598E-2</v>
+      </c>
+      <c r="E19" s="211">
+        <f t="shared" si="2"/>
+        <v>2.8410921319610964</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="210">
+        <v>14</v>
+      </c>
+      <c r="B20" s="211">
+        <f t="shared" si="3"/>
+        <v>2.8410921319610964</v>
+      </c>
+      <c r="C20" s="211">
+        <f t="shared" si="0"/>
+        <v>2.829254248077925E-2</v>
+      </c>
+      <c r="D20" s="206">
+        <f t="shared" si="1"/>
+        <v>4.7697084914352261E-2</v>
+      </c>
+      <c r="E20" s="211">
+        <f t="shared" si="2"/>
+        <v>2.7933950470467441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="210">
+        <v>15</v>
+      </c>
+      <c r="B21" s="211">
+        <f t="shared" si="3"/>
+        <v>2.7933950470467441</v>
+      </c>
+      <c r="C21" s="211">
+        <f t="shared" si="0"/>
+        <v>2.7817559010173826E-2</v>
+      </c>
+      <c r="D21" s="206">
+        <f t="shared" si="1"/>
+        <v>4.8172068384957689E-2</v>
+      </c>
+      <c r="E21" s="211">
+        <f t="shared" si="2"/>
+        <v>2.7452229786617863</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="210">
+        <v>16</v>
+      </c>
+      <c r="B22" s="211">
+        <f t="shared" si="3"/>
+        <v>2.7452229786617863</v>
+      </c>
+      <c r="C22" s="211">
+        <f t="shared" si="0"/>
+        <v>2.7337845495840288E-2</v>
+      </c>
+      <c r="D22" s="206">
+        <f t="shared" si="1"/>
+        <v>4.865178189929123E-2</v>
+      </c>
+      <c r="E22" s="211">
+        <f t="shared" si="2"/>
+        <v>2.6965711967624952</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="210">
+        <v>17</v>
+      </c>
+      <c r="B23" s="211">
+        <f t="shared" si="3"/>
+        <v>2.6965711967624952</v>
+      </c>
+      <c r="C23" s="211">
+        <f t="shared" si="0"/>
+        <v>2.6853354834426513E-2</v>
+      </c>
+      <c r="D23" s="206">
+        <f t="shared" si="1"/>
+        <v>4.9136272560705005E-2</v>
+      </c>
+      <c r="E23" s="211">
+        <f t="shared" si="2"/>
+        <v>2.6474349242017903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="210">
+        <v>18</v>
+      </c>
+      <c r="B24" s="211">
+        <f t="shared" si="3"/>
+        <v>2.6474349242017903</v>
+      </c>
+      <c r="C24" s="211">
+        <f t="shared" si="0"/>
+        <v>2.6364039453509493E-2</v>
+      </c>
+      <c r="D24" s="206">
+        <f t="shared" si="1"/>
+        <v>4.9625587941622022E-2</v>
+      </c>
+      <c r="E24" s="211">
+        <f t="shared" si="2"/>
+        <v>2.5978093362601684</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="210">
+        <v>19</v>
+      </c>
+      <c r="B25" s="211">
+        <f t="shared" si="3"/>
+        <v>2.5978093362601684</v>
+      </c>
+      <c r="C25" s="211">
+        <f t="shared" si="0"/>
+        <v>2.5869851306924176E-2</v>
+      </c>
+      <c r="D25" s="206">
+        <f t="shared" si="1"/>
+        <v>5.0119776088207335E-2</v>
+      </c>
+      <c r="E25" s="211">
+        <f t="shared" si="2"/>
+        <v>2.5476895601719609</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="210">
+        <v>20</v>
+      </c>
+      <c r="B26" s="211">
+        <f t="shared" si="3"/>
+        <v>2.5476895601719609</v>
+      </c>
+      <c r="C26" s="211">
+        <f t="shared" si="0"/>
+        <v>2.5370741870045777E-2</v>
+      </c>
+      <c r="D26" s="206">
+        <f t="shared" si="1"/>
+        <v>5.0618885525085741E-2</v>
+      </c>
+      <c r="E26" s="211">
+        <f t="shared" si="2"/>
+        <v>2.4970706746468752</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="210">
+        <v>21</v>
+      </c>
+      <c r="B27" s="211">
+        <f t="shared" si="3"/>
+        <v>2.4970706746468752</v>
+      </c>
+      <c r="C27" s="211">
+        <f t="shared" si="0"/>
+        <v>2.4866662135025131E-2</v>
+      </c>
+      <c r="D27" s="206">
+        <f t="shared" si="1"/>
+        <v>5.1122965260106387E-2</v>
+      </c>
+      <c r="E27" s="211">
+        <f t="shared" si="2"/>
+        <v>2.4459477093867688</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="210">
+        <v>22</v>
+      </c>
+      <c r="B28" s="211">
+        <f t="shared" si="3"/>
+        <v>2.4459477093867688</v>
+      </c>
+      <c r="C28" s="211">
+        <f t="shared" si="0"/>
+        <v>2.435756260597657E-2</v>
+      </c>
+      <c r="D28" s="206">
+        <f t="shared" si="1"/>
+        <v>5.1632064789154941E-2</v>
+      </c>
+      <c r="E28" s="211">
+        <f t="shared" si="2"/>
+        <v>2.3943156445976137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="210">
+        <v>23</v>
+      </c>
+      <c r="B29" s="211">
+        <f t="shared" si="3"/>
+        <v>2.3943156445976137</v>
+      </c>
+      <c r="C29" s="211">
+        <f t="shared" si="0"/>
+        <v>2.3843393294117901E-2</v>
+      </c>
+      <c r="D29" s="206">
+        <f t="shared" si="1"/>
+        <v>5.2146234101013614E-2</v>
+      </c>
+      <c r="E29" s="211">
+        <f t="shared" si="2"/>
+        <v>2.3421694104966</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="210">
+        <v>24</v>
+      </c>
+      <c r="B30" s="211">
+        <f t="shared" si="3"/>
+        <v>2.3421694104966</v>
+      </c>
+      <c r="C30" s="211">
+        <f t="shared" si="0"/>
+        <v>2.3324103712861973E-2</v>
+      </c>
+      <c r="D30" s="206">
+        <f t="shared" si="1"/>
+        <v>5.2665523682269538E-2</v>
+      </c>
+      <c r="E30" s="211">
+        <f t="shared" si="2"/>
+        <v>2.2895038868143303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="210">
+        <v>25</v>
+      </c>
+      <c r="B31" s="211">
+        <f t="shared" si="3"/>
+        <v>2.2895038868143303</v>
+      </c>
+      <c r="C31" s="211">
+        <f t="shared" si="0"/>
+        <v>2.279964287285937E-2</v>
+      </c>
+      <c r="D31" s="206">
+        <f t="shared" si="1"/>
+        <v>5.3189984522272145E-2</v>
+      </c>
+      <c r="E31" s="211">
+        <f t="shared" si="2"/>
+        <v>2.236313902292058</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="210">
+        <v>26</v>
+      </c>
+      <c r="B32" s="211">
+        <f t="shared" si="3"/>
+        <v>2.236313902292058</v>
+      </c>
+      <c r="C32" s="211">
+        <f t="shared" si="0"/>
+        <v>2.2269959276991744E-2</v>
+      </c>
+      <c r="D32" s="206">
+        <f t="shared" si="1"/>
+        <v>5.3719668118139774E-2</v>
+      </c>
+      <c r="E32" s="211">
+        <f t="shared" si="2"/>
+        <v>2.1825942341739184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="210">
+        <v>27</v>
+      </c>
+      <c r="B33" s="211">
+        <f t="shared" si="3"/>
+        <v>2.1825942341739184</v>
+      </c>
+      <c r="C33" s="211">
+        <f t="shared" si="0"/>
+        <v>2.1735000915315269E-2</v>
+      </c>
+      <c r="D33" s="206">
+        <f t="shared" si="1"/>
+        <v>5.4254626479816243E-2</v>
+      </c>
+      <c r="E33" s="211">
+        <f t="shared" si="2"/>
+        <v>2.1283396076941021</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="210">
+        <v>28</v>
+      </c>
+      <c r="B34" s="211">
+        <f t="shared" si="3"/>
+        <v>2.1283396076941021</v>
+      </c>
+      <c r="C34" s="211">
+        <f t="shared" si="0"/>
+        <v>2.1194715259953766E-2</v>
+      </c>
+      <c r="D34" s="206">
+        <f t="shared" si="1"/>
+        <v>5.4794912135177745E-2</v>
+      </c>
+      <c r="E34" s="211">
+        <f t="shared" si="2"/>
+        <v>2.0735446955589243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="210">
+        <v>29</v>
+      </c>
+      <c r="B35" s="211">
+        <f t="shared" si="3"/>
+        <v>2.0735446955589243</v>
+      </c>
+      <c r="C35" s="211">
+        <f t="shared" si="0"/>
+        <v>2.0649049259940953E-2</v>
+      </c>
+      <c r="D35" s="206">
+        <f t="shared" si="1"/>
+        <v>5.5340578135190562E-2</v>
+      </c>
+      <c r="E35" s="211">
+        <f t="shared" si="2"/>
+        <v>2.0182041174237337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="210">
+        <v>30</v>
+      </c>
+      <c r="B36" s="211">
+        <f t="shared" si="3"/>
+        <v>2.0182041174237337</v>
+      </c>
+      <c r="C36" s="211">
+        <f t="shared" si="0"/>
+        <v>2.0097949336011348E-2</v>
+      </c>
+      <c r="D36" s="206">
+        <f t="shared" si="1"/>
+        <v>5.5891678059120167E-2</v>
+      </c>
+      <c r="E36" s="211">
+        <f t="shared" si="2"/>
+        <v>1.9623124393646136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="210">
+        <v>31</v>
+      </c>
+      <c r="B37" s="211">
+        <f t="shared" si="3"/>
+        <v>1.9623124393646136</v>
+      </c>
+      <c r="C37" s="211">
+        <f t="shared" si="0"/>
+        <v>1.9541361375339277E-2</v>
+      </c>
+      <c r="D37" s="206">
+        <f t="shared" si="1"/>
+        <v>5.6448266019792234E-2</v>
+      </c>
+      <c r="E37" s="211">
+        <f t="shared" si="2"/>
+        <v>1.9058641733448214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="210">
+        <v>32</v>
+      </c>
+      <c r="B38" s="211">
+        <f t="shared" si="3"/>
+        <v>1.9058641733448214</v>
+      </c>
+      <c r="C38" s="211">
+        <f t="shared" si="0"/>
+        <v>1.8979230726225513E-2</v>
+      </c>
+      <c r="D38" s="206">
+        <f t="shared" si="1"/>
+        <v>5.7010396668906005E-2</v>
+      </c>
+      <c r="E38" s="211">
+        <f t="shared" si="2"/>
+        <v>1.8488537766759154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="210">
+        <v>33</v>
+      </c>
+      <c r="B39" s="211">
+        <f t="shared" si="3"/>
+        <v>1.8488537766759154</v>
+      </c>
+      <c r="C39" s="211">
+        <f t="shared" si="0"/>
+        <v>1.8411502192730991E-2</v>
+      </c>
+      <c r="D39" s="206">
+        <f t="shared" si="1"/>
+        <v>5.7578125202400521E-2</v>
+      </c>
+      <c r="E39" s="211">
+        <f t="shared" si="2"/>
+        <v>1.7912756514735149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="210">
+        <v>34</v>
+      </c>
+      <c r="B40" s="211">
+        <f t="shared" si="3"/>
+        <v>1.7912756514735149</v>
+      </c>
+      <c r="C40" s="211">
+        <f t="shared" si="0"/>
+        <v>1.7838120029257085E-2</v>
+      </c>
+      <c r="D40" s="206">
+        <f t="shared" si="1"/>
+        <v>5.8151507365874433E-2</v>
+      </c>
+      <c r="E40" s="211">
+        <f t="shared" si="2"/>
+        <v>1.7331241441076404</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="210">
+        <v>35</v>
+      </c>
+      <c r="B41" s="211">
+        <f t="shared" si="3"/>
+        <v>1.7331241441076404</v>
+      </c>
+      <c r="C41" s="211">
+        <f t="shared" si="0"/>
+        <v>1.7259027935071919E-2</v>
+      </c>
+      <c r="D41" s="206">
+        <f t="shared" si="1"/>
+        <v>5.8730599460059596E-2</v>
+      </c>
+      <c r="E41" s="211">
+        <f t="shared" si="2"/>
+        <v>1.6743935446475808</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="210">
+        <v>36</v>
+      </c>
+      <c r="B42" s="211">
+        <f t="shared" si="3"/>
+        <v>1.6743935446475808</v>
+      </c>
+      <c r="C42" s="211">
+        <f t="shared" si="0"/>
+        <v>1.6674169048782158E-2</v>
+      </c>
+      <c r="D42" s="206">
+        <f t="shared" si="1"/>
+        <v>5.9315458346349353E-2</v>
+      </c>
+      <c r="E42" s="211">
+        <f t="shared" si="2"/>
+        <v>1.6150780863012315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="210">
+        <v>37</v>
+      </c>
+      <c r="B43" s="211">
+        <f t="shared" si="3"/>
+        <v>1.6150780863012315</v>
+      </c>
+      <c r="C43" s="211">
+        <f t="shared" si="0"/>
+        <v>1.6083485942749762E-2</v>
+      </c>
+      <c r="D43" s="206">
+        <f t="shared" si="1"/>
+        <v>5.9906141452381753E-2</v>
+      </c>
+      <c r="E43" s="211">
+        <f t="shared" si="2"/>
+        <v>1.5551719448488497</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="210">
+        <v>38</v>
+      </c>
+      <c r="B44" s="211">
+        <f t="shared" si="3"/>
+        <v>1.5551719448488497</v>
+      </c>
+      <c r="C44" s="211">
+        <f t="shared" si="0"/>
+        <v>1.5486920617453128E-2</v>
+      </c>
+      <c r="D44" s="206">
+        <f t="shared" si="1"/>
+        <v>6.0502706777678383E-2</v>
+      </c>
+      <c r="E44" s="211">
+        <f t="shared" si="2"/>
+        <v>1.4946692380711712</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="210">
+        <v>39</v>
+      </c>
+      <c r="B45" s="211">
+        <f t="shared" si="3"/>
+        <v>1.4946692380711712</v>
+      </c>
+      <c r="C45" s="211">
+        <f t="shared" si="0"/>
+        <v>1.488441449579208E-2</v>
+      </c>
+      <c r="D45" s="206">
+        <f t="shared" si="1"/>
+        <v>6.1105212899339435E-2</v>
+      </c>
+      <c r="E45" s="211">
+        <f t="shared" si="2"/>
+        <v>1.4335640251718318</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="210">
+        <v>40</v>
+      </c>
+      <c r="B46" s="211">
+        <f t="shared" si="3"/>
+        <v>1.4335640251718318</v>
+      </c>
+      <c r="C46" s="211">
+        <f t="shared" si="0"/>
+        <v>1.4275908417336157E-2</v>
+      </c>
+      <c r="D46" s="206">
+        <f t="shared" si="1"/>
+        <v>6.1713718977795359E-2</v>
+      </c>
+      <c r="E46" s="211">
+        <f t="shared" si="2"/>
+        <v>1.3718503061940364</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="210">
+        <v>41</v>
+      </c>
+      <c r="B47" s="211">
+        <f t="shared" si="3"/>
+        <v>1.3718503061940364</v>
+      </c>
+      <c r="C47" s="211">
+        <f t="shared" si="0"/>
+        <v>1.3661342632515611E-2</v>
+      </c>
+      <c r="D47" s="206">
+        <f t="shared" si="1"/>
+        <v>6.2328284762615906E-2</v>
+      </c>
+      <c r="E47" s="211">
+        <f t="shared" si="2"/>
+        <v>1.3095220214314205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="210">
+        <v>42</v>
+      </c>
+      <c r="B48" s="211">
+        <f t="shared" si="3"/>
+        <v>1.3095220214314205</v>
+      </c>
+      <c r="C48" s="211">
+        <f t="shared" si="0"/>
+        <v>1.3040656796754561E-2</v>
+      </c>
+      <c r="D48" s="206">
+        <f t="shared" si="1"/>
+        <v>6.2948970598376952E-2</v>
+      </c>
+      <c r="E48" s="211">
+        <f t="shared" si="2"/>
+        <v>1.2465730508330435</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="210">
+        <v>43</v>
+      </c>
+      <c r="B49" s="211">
+        <f t="shared" si="3"/>
+        <v>1.2465730508330435</v>
+      </c>
+      <c r="C49" s="211">
+        <f t="shared" si="0"/>
+        <v>1.2413789964545724E-2</v>
+      </c>
+      <c r="D49" s="206">
+        <f t="shared" si="1"/>
+        <v>6.3575837430585785E-2</v>
+      </c>
+      <c r="E49" s="211">
+        <f t="shared" si="2"/>
+        <v>1.1829972134024578</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="210">
+        <v>44</v>
+      </c>
+      <c r="B50" s="211">
+        <f t="shared" si="3"/>
+        <v>1.1829972134024578</v>
+      </c>
+      <c r="C50" s="211">
+        <f t="shared" si="0"/>
+        <v>1.1780680583466142E-2</v>
+      </c>
+      <c r="D50" s="206">
+        <f t="shared" si="1"/>
+        <v>6.4208946811665377E-2</v>
+      </c>
+      <c r="E50" s="211">
+        <f t="shared" si="2"/>
+        <v>1.1187882665907924</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="210">
+        <v>45</v>
+      </c>
+      <c r="B51" s="211">
+        <f t="shared" si="3"/>
+        <v>1.1187882665907924</v>
+      </c>
+      <c r="C51" s="211">
+        <f t="shared" si="0"/>
+        <v>1.1141266488133308E-2</v>
+      </c>
+      <c r="D51" s="206">
+        <f t="shared" si="1"/>
+        <v>6.4848360906998206E-2</v>
+      </c>
+      <c r="E51" s="211">
+        <f t="shared" si="2"/>
+        <v>1.0539399056837941</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="210">
+        <v>46</v>
+      </c>
+      <c r="B52" s="211">
+        <f t="shared" si="3"/>
+        <v>1.0539399056837941</v>
+      </c>
+      <c r="C52" s="211">
+        <f t="shared" si="0"/>
+        <v>1.0495484894101115E-2</v>
+      </c>
+      <c r="D52" s="206">
+        <f t="shared" si="1"/>
+        <v>6.5494142501030403E-2</v>
+      </c>
+      <c r="E52" s="211">
+        <f t="shared" si="2"/>
+        <v>0.98844576318276378</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="210">
+        <v>47</v>
+      </c>
+      <c r="B53" s="211">
+        <f t="shared" si="3"/>
+        <v>0.98844576318276378</v>
+      </c>
+      <c r="C53" s="211">
+        <f t="shared" si="0"/>
+        <v>9.843272391695022E-3</v>
+      </c>
+      <c r="D53" s="206">
+        <f t="shared" si="1"/>
+        <v>6.6146355003436491E-2</v>
+      </c>
+      <c r="E53" s="211">
+        <f t="shared" si="2"/>
+        <v>0.92229940817932732</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="210">
+        <v>48</v>
+      </c>
+      <c r="B54" s="211">
+        <f t="shared" si="3"/>
+        <v>0.92229940817932732</v>
+      </c>
+      <c r="C54" s="211">
+        <f t="shared" si="0"/>
+        <v>9.1845649397858005E-3</v>
+      </c>
+      <c r="D54" s="206">
+        <f t="shared" si="1"/>
+        <v>6.6805062455345718E-2</v>
+      </c>
+      <c r="E54" s="211">
+        <f t="shared" si="2"/>
+        <v>0.85549434572398164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="210">
+        <v>49</v>
+      </c>
+      <c r="B55" s="211">
+        <f t="shared" si="3"/>
+        <v>0.85549434572398164</v>
+      </c>
+      <c r="C55" s="211">
+        <f t="shared" si="0"/>
+        <v>8.5192978595013177E-3</v>
+      </c>
+      <c r="D55" s="206">
+        <f t="shared" si="1"/>
+        <v>6.7470329535630202E-2</v>
+      </c>
+      <c r="E55" s="211">
+        <f t="shared" si="2"/>
+        <v>0.78802401618835138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="210">
+        <v>50</v>
+      </c>
+      <c r="B56" s="211">
+        <f t="shared" si="3"/>
+        <v>0.78802401618835138</v>
+      </c>
+      <c r="C56" s="211">
+        <f t="shared" si="0"/>
+        <v>7.8474058278756656E-3</v>
+      </c>
+      <c r="D56" s="206">
+        <f t="shared" si="1"/>
+        <v>6.8142221567255856E-2</v>
+      </c>
+      <c r="E56" s="211">
+        <f t="shared" si="2"/>
+        <v>0.71988179462109558</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="210">
+        <v>51</v>
+      </c>
+      <c r="B57" s="211">
+        <f t="shared" si="3"/>
+        <v>0.71988179462109558</v>
+      </c>
+      <c r="C57" s="211">
+        <f t="shared" si="0"/>
+        <v>7.1688228714350769E-3</v>
+      </c>
+      <c r="D57" s="206">
+        <f t="shared" si="1"/>
+        <v>6.8820804523696433E-2</v>
+      </c>
+      <c r="E57" s="211">
+        <f t="shared" si="2"/>
+        <v>0.65106099009739915</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="210">
+        <v>52</v>
+      </c>
+      <c r="B58" s="211">
+        <f t="shared" si="3"/>
+        <v>0.65106099009739915</v>
+      </c>
+      <c r="C58" s="211">
+        <f t="shared" si="0"/>
+        <v>6.4834823597199331E-3</v>
+      </c>
+      <c r="D58" s="206">
+        <f t="shared" si="1"/>
+        <v>6.9506145035411582E-2</v>
+      </c>
+      <c r="E58" s="211">
+        <f t="shared" si="2"/>
+        <v>0.58155484506198762</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="210">
+        <v>53</v>
+      </c>
+      <c r="B59" s="211">
+        <f t="shared" si="3"/>
+        <v>0.58155484506198762</v>
+      </c>
+      <c r="C59" s="211">
+        <f t="shared" si="0"/>
+        <v>5.7913169987422932E-3</v>
+      </c>
+      <c r="D59" s="206">
+        <f t="shared" si="1"/>
+        <v>7.0198310396389227E-2</v>
+      </c>
+      <c r="E59" s="211">
+        <f t="shared" si="2"/>
+        <v>0.51135653466559838</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="210">
+        <v>54</v>
+      </c>
+      <c r="B60" s="211">
+        <f t="shared" si="3"/>
+        <v>0.51135653466559838</v>
+      </c>
+      <c r="C60" s="211">
+        <f t="shared" si="0"/>
+        <v>5.0922588243782502E-3</v>
+      </c>
+      <c r="D60" s="206">
+        <f t="shared" si="1"/>
+        <v>7.0897368570753266E-2</v>
+      </c>
+      <c r="E60" s="211">
+        <f t="shared" si="2"/>
+        <v>0.44045916609484514</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="210">
+        <v>55</v>
+      </c>
+      <c r="B61" s="211">
+        <f t="shared" si="3"/>
+        <v>0.44045916609484514</v>
+      </c>
+      <c r="C61" s="211">
+        <f t="shared" si="0"/>
+        <v>4.3862391956944998E-3</v>
+      </c>
+      <c r="D61" s="206">
+        <f t="shared" si="1"/>
+        <v>7.1603388199437012E-2</v>
+      </c>
+      <c r="E61" s="211">
+        <f t="shared" si="2"/>
+        <v>0.36885577789540813</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="210">
+        <v>56</v>
+      </c>
+      <c r="B62" s="211">
+        <f t="shared" si="3"/>
+        <v>0.36885577789540813</v>
+      </c>
+      <c r="C62" s="211">
+        <f t="shared" si="0"/>
+        <v>3.673188788208439E-3</v>
+      </c>
+      <c r="D62" s="206">
+        <f t="shared" si="1"/>
+        <v>7.2316438606923078E-2</v>
+      </c>
+      <c r="E62" s="211">
+        <f t="shared" si="2"/>
+        <v>0.29653933928848508</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="210">
+        <v>57</v>
+      </c>
+      <c r="B63" s="211">
+        <f t="shared" si="3"/>
+        <v>0.29653933928848508</v>
+      </c>
+      <c r="C63" s="211">
+        <f t="shared" si="0"/>
+        <v>2.953037587081164E-3</v>
+      </c>
+      <c r="D63" s="206">
+        <f t="shared" si="1"/>
+        <v>7.3036589808050348E-2</v>
+      </c>
+      <c r="E63" s="211">
+        <f t="shared" si="2"/>
+        <v>0.22350274948043475</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="210">
+        <v>58</v>
+      </c>
+      <c r="B64" s="211">
+        <f t="shared" si="3"/>
+        <v>0.22350274948043475</v>
+      </c>
+      <c r="C64" s="211">
+        <f t="shared" si="0"/>
+        <v>2.2257148802426628E-3</v>
+      </c>
+      <c r="D64" s="206">
+        <f t="shared" si="1"/>
+        <v>7.3763912514888855E-2</v>
+      </c>
+      <c r="E64" s="211">
+        <f t="shared" si="2"/>
+        <v>0.14973883696554591</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="210">
+        <v>59</v>
+      </c>
+      <c r="B65" s="211">
+        <f t="shared" si="3"/>
+        <v>0.14973883696554591</v>
+      </c>
+      <c r="C65" s="211">
+        <f t="shared" si="0"/>
+        <v>1.4911492514485612E-3</v>
+      </c>
+      <c r="D65" s="206">
+        <f t="shared" si="1"/>
+        <v>7.4498478143682947E-2</v>
+      </c>
+      <c r="E65" s="211">
+        <f t="shared" si="2"/>
+        <v>7.524035882186296E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="210">
+        <v>60</v>
+      </c>
+      <c r="B66" s="211">
+        <f t="shared" si="3"/>
+        <v>7.524035882186296E-2</v>
+      </c>
+      <c r="C66" s="211">
+        <f t="shared" si="0"/>
+        <v>7.4926857326771865E-4</v>
+      </c>
+      <c r="D66" s="206">
+        <f t="shared" si="1"/>
+        <v>7.5240358821863793E-2</v>
+      </c>
+      <c r="E66" s="211">
+        <f t="shared" si="2"/>
+        <v>-8.3266726846886741E-16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:XFD84"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3518,23 +4915,23 @@
       </c>
       <c r="B20" s="75">
         <f>Intt!E11</f>
-        <v>1.9009722000000002</v>
+        <v>0.3801944455512431</v>
       </c>
       <c r="C20" s="81">
         <f>Intt!E13</f>
-        <v>1.5653025000000003</v>
+        <v>0.31306049874624381</v>
       </c>
       <c r="D20" s="81">
         <f>Intt!E15</f>
-        <v>1.1872488999999999</v>
+        <v>0.2374497282284794</v>
       </c>
       <c r="E20" s="81">
         <f>Intt!E17</f>
-        <v>0.76145910000000006</v>
+        <v>0.15229178816432842</v>
       </c>
       <c r="F20" s="75">
         <f>Intt!E19</f>
-        <v>13.961903299999999</v>
+        <v>5.6381183017596426E-2</v>
       </c>
       <c r="I20" s="87"/>
       <c r="J20" s="87"/>
@@ -3790,23 +5187,23 @@
       </c>
       <c r="B32" s="145">
         <f>SUM(B20:B30)</f>
-        <v>23.062972200000004</v>
+        <v>21.542194445551246</v>
       </c>
       <c r="C32" s="146">
         <f>SUM(C20:C30)</f>
-        <v>24.574002500000006</v>
+        <v>23.321760498746247</v>
       </c>
       <c r="D32" s="146">
         <f>SUM(D20:D30)</f>
-        <v>26.229143900000011</v>
+        <v>25.279344728228487</v>
       </c>
       <c r="E32" s="145">
         <f>SUM(E20:E30)</f>
-        <v>28.039879850000005</v>
+        <v>27.430712538164336</v>
       </c>
       <c r="F32" s="146">
         <f>SUM(F20:F30)</f>
-        <v>43.698855937499999</v>
+        <v>29.79333382051761</v>
       </c>
       <c r="H32" s="87"/>
       <c r="I32" s="87"/>
@@ -3834,23 +5231,23 @@
       </c>
       <c r="B35" s="145">
         <f>B17-B32</f>
-        <v>6.9370277999999956</v>
+        <v>8.457805554448754</v>
       </c>
       <c r="C35" s="146">
         <f>C17-C32</f>
-        <v>8.425997499999994</v>
+        <v>9.6782395012537528</v>
       </c>
       <c r="D35" s="146">
         <f>D17-D32</f>
-        <v>10.070856099999993</v>
+        <v>11.020655271771517</v>
       </c>
       <c r="E35" s="145">
         <f>E17-E32</f>
-        <v>11.890120150000001</v>
+        <v>12.499287461835671</v>
       </c>
       <c r="F35" s="146">
         <f>F17-F32</f>
-        <v>0.22414406250000951</v>
+        <v>14.129666179482399</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -3861,23 +5258,23 @@
       <c r="F36" s="81"/>
       <c r="H36" s="87">
         <f>B39/B11</f>
-        <v>0.23123425999999986</v>
+        <v>0.28192685181495847</v>
       </c>
       <c r="I36" s="87">
         <f>C39/C11</f>
-        <v>0.25533325757575742</v>
+        <v>0.29327998488647733</v>
       </c>
       <c r="J36" s="87">
         <f>D39/D11</f>
-        <v>0.27743405234159757</v>
+        <v>0.30359931878158447</v>
       </c>
       <c r="K36" s="87">
         <f>E39/E11</f>
-        <v>0.29777410843976959</v>
+        <v>0.31302998902668844</v>
       </c>
       <c r="L36" s="87">
         <f>F39/F11</f>
-        <v>-2.9047559080663667E-2</v>
+        <v>0.28754106457852141</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3913,23 +5310,23 @@
       </c>
       <c r="B39" s="145">
         <f>B35-B37</f>
-        <v>6.9370277999999956</v>
+        <v>8.457805554448754</v>
       </c>
       <c r="C39" s="146">
         <f>C35-C37</f>
-        <v>8.425997499999994</v>
+        <v>9.6782395012537528</v>
       </c>
       <c r="D39" s="146">
         <f>D35-D37</f>
-        <v>10.070856099999993</v>
+        <v>11.020655271771517</v>
       </c>
       <c r="E39" s="145">
         <f>E35-E37</f>
-        <v>11.890120150000001</v>
+        <v>12.499287461835671</v>
       </c>
       <c r="F39" s="146">
         <f>F35-F37</f>
-        <v>-1.2758559374999905</v>
+        <v>12.629666179482399</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="14" x14ac:dyDescent="0.3">
@@ -3946,23 +5343,23 @@
       </c>
       <c r="B41" s="75">
         <f>B39*0.7</f>
-        <v>4.8559194599999964</v>
+        <v>5.9204638881141278</v>
       </c>
       <c r="C41" s="75">
         <f t="shared" ref="C41:F41" si="3">C39*0.7</f>
-        <v>5.8981982499999956</v>
+        <v>6.7747676508776262</v>
       </c>
       <c r="D41" s="75">
         <f t="shared" si="3"/>
-        <v>7.0495992699999945</v>
+        <v>7.7144586902400611</v>
       </c>
       <c r="E41" s="75">
         <f t="shared" si="3"/>
-        <v>8.3230841050000013</v>
+        <v>8.7495012232849696</v>
       </c>
       <c r="F41" s="75">
         <f t="shared" si="3"/>
-        <v>-0.89309915624999325</v>
+        <v>8.8407663256376789</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3978,23 +5375,23 @@
       </c>
       <c r="B43" s="81">
         <f>B39-B41</f>
-        <v>2.0811083399999992</v>
+        <v>2.5373416663346262</v>
       </c>
       <c r="C43" s="81">
         <f>C39-C41</f>
-        <v>2.5277992499999984</v>
+        <v>2.9034718503761265</v>
       </c>
       <c r="D43" s="81">
         <f>D39-D41</f>
-        <v>3.0212568299999987</v>
+        <v>3.3061965815314558</v>
       </c>
       <c r="E43" s="81">
         <f>E39-E41</f>
-        <v>3.567036045</v>
+        <v>3.7497862385507013</v>
       </c>
       <c r="F43" s="81">
         <f>F39-F41</f>
-        <v>-0.38275678124999724</v>
+        <v>3.7888998538447201</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -4010,23 +5407,23 @@
       </c>
       <c r="B45" s="75">
         <f>B39-B41</f>
-        <v>2.0811083399999992</v>
+        <v>2.5373416663346262</v>
       </c>
       <c r="C45" s="75">
         <f>B45+C43</f>
-        <v>4.6089075899999976</v>
+        <v>5.4408135167107528</v>
       </c>
       <c r="D45" s="75">
         <f>C45+D43</f>
-        <v>7.6301644199999963</v>
+        <v>8.7470100982422085</v>
       </c>
       <c r="E45" s="75">
         <f>D45+E43</f>
-        <v>11.197200464999996</v>
+        <v>12.49679633679291</v>
       </c>
       <c r="F45" s="75">
         <f>F43+E45</f>
-        <v>10.81444368375</v>
+        <v>16.28569619063763</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="14" x14ac:dyDescent="0.3">
@@ -4171,7 +5568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:XFD49"/>
   <sheetViews>
@@ -4320,23 +5717,23 @@
       </c>
       <c r="B14" s="75">
         <f>PL!B45</f>
-        <v>2.0811083399999992</v>
+        <v>2.5373416663346262</v>
       </c>
       <c r="C14" s="75">
         <f>PL!C45</f>
-        <v>4.6089075899999976</v>
+        <v>5.4408135167107528</v>
       </c>
       <c r="D14" s="75">
         <f>PL!D45</f>
-        <v>7.6301644199999963</v>
+        <v>8.7470100982422085</v>
       </c>
       <c r="E14" s="75">
         <f>PL!E45</f>
-        <v>11.197200464999996</v>
+        <v>12.49679633679291</v>
       </c>
       <c r="F14" s="75">
         <f>PL!F45</f>
-        <v>10.81444368375</v>
+        <v>16.28569619063763</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -4347,15 +5744,15 @@
       <c r="F15" s="81"/>
       <c r="J15" s="136">
         <f>B16+B18</f>
-        <v>0.7615949999999998</v>
+        <v>2.8883189168096646</v>
       </c>
       <c r="K15" s="136">
         <f>C16+C18</f>
-        <v>-2.2324796999999998</v>
+        <v>2.2895038868143303</v>
       </c>
       <c r="L15" s="136">
         <f>D16+D18</f>
-        <v>-5.6046079999999998</v>
+        <v>1.6150780863012315</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -4364,19 +5761,19 @@
       </c>
       <c r="B16" s="75">
         <f>Intt!D11</f>
-        <v>0.7615949999999998</v>
+        <v>2.8883189168096646</v>
       </c>
       <c r="C16" s="81">
         <f>Intt!D13</f>
-        <v>-2.2324796999999998</v>
+        <v>2.2895038868143303</v>
       </c>
       <c r="D16" s="81">
         <f>Intt!D15</f>
-        <v>-5.6046079999999998</v>
+        <v>1.6150780863012315</v>
       </c>
       <c r="E16" s="81">
         <f>Intt!D17</f>
-        <v>-9.4025260999999993</v>
+        <v>0.85549434572398175</v>
       </c>
       <c r="F16" s="81">
         <f>Intt!D19</f>
@@ -4384,15 +5781,15 @@
       </c>
       <c r="J16" s="136">
         <f>B12+B14</f>
-        <v>2.2611083399999994</v>
+        <v>2.7173416663346264</v>
       </c>
       <c r="K16" s="136">
         <f>C12+C14</f>
-        <v>4.7889075899999973</v>
+        <v>5.6208135167107525</v>
       </c>
       <c r="L16" s="136">
         <f>D12+D14</f>
-        <v>7.810164419999996</v>
+        <v>8.9270100982422083</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -4403,15 +5800,15 @@
       <c r="F17" s="81"/>
       <c r="J17" s="27">
         <f>J15/J16</f>
-        <v>0.33682375431864536</v>
+        <v>1.062920777535372</v>
       </c>
       <c r="K17" s="27">
         <f>K15/K16</f>
-        <v>-0.46617723521367865</v>
+        <v>0.40732607121862435</v>
       </c>
       <c r="L17" s="27">
         <f>L15/L16</f>
-        <v>-0.71760435486452956</v>
+        <v>0.18092038303163249</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -4459,23 +5856,23 @@
       </c>
       <c r="B21" s="148">
         <f>SUM(B12:B19)</f>
-        <v>3.0227033399999992</v>
+        <v>5.6056605831442905</v>
       </c>
       <c r="C21" s="148">
         <f>SUM(C12:C19)</f>
-        <v>2.5564278899999975</v>
+        <v>7.9103174035250827</v>
       </c>
       <c r="D21" s="148">
         <f>SUM(D12:D19)</f>
-        <v>2.2055564199999962</v>
+        <v>10.54208818454344</v>
       </c>
       <c r="E21" s="148">
         <f>SUM(E12:E19)</f>
-        <v>1.9746743649999967</v>
+        <v>13.532290682516891</v>
       </c>
       <c r="F21" s="148">
         <f>SUM(F12:F19)</f>
-        <v>10.994443683749999</v>
+        <v>16.46569619063763</v>
       </c>
       <c r="G21" s="26"/>
       <c r="I21" s="136">
@@ -4492,7 +5889,7 @@
       </c>
       <c r="L21" s="136">
         <f>E21-E40</f>
-        <v>3.5527136788005009E-15</v>
+        <v>0</v>
       </c>
       <c r="M21" s="136">
         <f>F21-F40</f>
@@ -4515,11 +5912,11 @@
       </c>
       <c r="L22" s="136">
         <f>L21-K21</f>
-        <v>3.5527136788005009E-15</v>
+        <v>0</v>
       </c>
       <c r="M22" s="136">
         <f>M21-L21</f>
-        <v>-3.5527136788005009E-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -4671,7 +6068,7 @@
       </c>
       <c r="K31" s="136">
         <f>B33+B35+B37</f>
-        <v>-0.16729666000000165</v>
+        <v>2.415660583144291</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -4711,7 +6108,7 @@
       </c>
       <c r="K33" s="27">
         <f>K31/K32</f>
-        <v>-4.9204900000000489E-2</v>
+        <v>0.71048840680714442</v>
       </c>
     </row>
     <row r="34" spans="1:12 16384:16384" x14ac:dyDescent="0.25">
@@ -4762,23 +6159,23 @@
       </c>
       <c r="B37" s="75">
         <f>CF!C48</f>
-        <v>-0.16729666000000165</v>
+        <v>2.415660583144291</v>
       </c>
       <c r="C37" s="81">
         <f>CF!D48</f>
-        <v>-0.2720721100000052</v>
+        <v>5.0818174035250836</v>
       </c>
       <c r="D37" s="81">
         <f>CF!E48</f>
-        <v>-0.30396858000000648</v>
+        <v>8.0325631845434415</v>
       </c>
       <c r="E37" s="81">
         <f>CF!F48</f>
-        <v>-0.25319188500000678</v>
+        <v>11.304424432516893</v>
       </c>
       <c r="F37" s="81">
         <f>CF!G48</f>
-        <v>9.0154643712499958</v>
+        <v>14.48671687813763</v>
       </c>
     </row>
     <row r="38" spans="1:12 16384:16384" x14ac:dyDescent="0.25">
@@ -4801,23 +6198,23 @@
       </c>
       <c r="B40" s="148">
         <f>SUM(B31:B39)</f>
-        <v>3.0227033399999983</v>
+        <v>5.6056605831442905</v>
       </c>
       <c r="C40" s="148">
         <f>SUM(C31:C39)</f>
-        <v>2.5564278899999948</v>
+        <v>7.9103174035250836</v>
       </c>
       <c r="D40" s="148">
         <f>SUM(D31:D39)</f>
-        <v>2.2055564199999935</v>
+        <v>10.542088184543442</v>
       </c>
       <c r="E40" s="148">
         <f>SUM(E31:E39)</f>
-        <v>1.9746743649999932</v>
+        <v>13.532290682516892</v>
       </c>
       <c r="F40" s="148">
         <f>SUM(F31:F39)</f>
-        <v>10.994443683749996</v>
+        <v>16.46569619063763</v>
       </c>
       <c r="I40" s="136">
         <f>C40-C21</f>
@@ -4829,7 +6226,7 @@
       </c>
       <c r="K40" s="136">
         <f>E40-E21</f>
-        <v>-3.5527136788005009E-15</v>
+        <v>0</v>
       </c>
       <c r="L40" s="136">
         <f>F40-F21</f>
@@ -4849,19 +6246,19 @@
       </c>
       <c r="B42" s="81">
         <f>SUM(B16:B18)/SUM(B12:B14)</f>
-        <v>0.33682375431864536</v>
+        <v>1.062920777535372</v>
       </c>
       <c r="C42" s="81">
         <f>SUM(C16:C18)/SUM(C12:C14)</f>
-        <v>-0.46617723521367865</v>
+        <v>0.40732607121862435</v>
       </c>
       <c r="D42" s="81">
         <f>SUM(D16:D18)/SUM(D12:D14)</f>
-        <v>-0.71760435486452956</v>
+        <v>0.18092038303163249</v>
       </c>
       <c r="E42" s="81">
         <f>SUM(E16:E18)/SUM(E12:E14)</f>
-        <v>-0.82643582917654101</v>
+        <v>6.7485058763704364E-2</v>
       </c>
       <c r="F42" s="81">
         <f>SUM(F16:F18)/SUM(F12:F14)</f>
@@ -4884,7 +6281,7 @@
       <c r="C44" s="144"/>
       <c r="D44" s="144">
         <f>AVERAGE(B42:F42)</f>
-        <v>-0.33467873298722078</v>
+        <v>0.34373045810986669</v>
       </c>
       <c r="E44" s="81"/>
       <c r="F44" s="150"/>
@@ -4940,7 +6337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
@@ -5072,23 +6469,23 @@
       <c r="B13" s="47"/>
       <c r="C13" s="75">
         <f>PL!B35+PL!B20+PL!B22</f>
-        <v>8.8379999999999956</v>
+        <v>8.8379999999999974</v>
       </c>
       <c r="D13" s="81">
         <f>PL!C35+PL!C20+PL!C22</f>
-        <v>9.9912999999999936</v>
+        <v>9.9912999999999972</v>
       </c>
       <c r="E13" s="81">
         <f>PL!D35+PL!D20+PL!D22</f>
-        <v>11.258104999999993</v>
+        <v>11.258104999999997</v>
       </c>
       <c r="F13" s="81">
         <f>PL!E35+PL!E20+PL!E22</f>
-        <v>12.651579250000001</v>
+        <v>12.651579249999999</v>
       </c>
       <c r="G13" s="81">
         <f>PL!F35+PL!F20+PL!F22</f>
-        <v>14.186047362500009</v>
+        <v>14.186047362499995</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -5261,23 +6658,23 @@
       <c r="B25" s="45"/>
       <c r="C25" s="93">
         <f>SUM(C12:C21)</f>
-        <v>12.847999999999995</v>
+        <v>12.847999999999997</v>
       </c>
       <c r="D25" s="93">
         <f>SUM(D12:D21)</f>
-        <v>10.352799999999993</v>
+        <v>10.352799999999997</v>
       </c>
       <c r="E25" s="93">
         <f>SUM(E12:E21)</f>
-        <v>11.577079999999993</v>
+        <v>11.577079999999997</v>
       </c>
       <c r="F25" s="93">
         <f>SUM(F12:F21)</f>
-        <v>12.933238000000001</v>
+        <v>12.933237999999999</v>
       </c>
       <c r="G25" s="93">
         <f>SUM(G12:G21)</f>
-        <v>14.434934300000009</v>
+        <v>14.434934299999995</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -5331,23 +6728,23 @@
       <c r="B31" s="47"/>
       <c r="C31" s="75">
         <f>Intt!$C$11-Intt!E11</f>
-        <v>2.6584050000000001</v>
+        <v>0.53168108319033514</v>
       </c>
       <c r="D31" s="75">
         <f>Intt!$C$11-Intt!E13</f>
-        <v>2.9940746999999996</v>
+        <v>0.59881502999533431</v>
       </c>
       <c r="E31" s="75">
         <f>Intt!$C$11-Intt!E15</f>
-        <v>3.3721283</v>
+        <v>0.67442580051309875</v>
       </c>
       <c r="F31" s="75">
         <f>Intt!$C$11-Intt!E17</f>
-        <v>3.7979181</v>
+        <v>0.75958374057724976</v>
       </c>
       <c r="G31" s="75">
         <f>Intt!$C$11-Intt!E19</f>
-        <v>-9.4025260999999993</v>
+        <v>0.85549434572398175</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -5438,23 +6835,23 @@
       </c>
       <c r="C37" s="75">
         <f>PL!B20+PL!B22</f>
-        <v>1.9009722000000002</v>
+        <v>0.3801944455512431</v>
       </c>
       <c r="D37" s="81">
         <f>PL!C20+PL!C22</f>
-        <v>1.5653025000000003</v>
+        <v>0.31306049874624381</v>
       </c>
       <c r="E37" s="81">
         <f>PL!D20+PL!D22</f>
-        <v>1.1872488999999999</v>
+        <v>0.2374497282284794</v>
       </c>
       <c r="F37" s="81">
         <f>PL!E20+PL!E22</f>
-        <v>0.76145910000000006</v>
+        <v>0.15229178816432842</v>
       </c>
       <c r="G37" s="81">
         <f>PL!F20+PL!F22</f>
-        <v>13.961903299999999</v>
+        <v>5.6381183017596426E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -5511,23 +6908,23 @@
       <c r="B41" s="47"/>
       <c r="C41" s="75">
         <f>PL!B41</f>
-        <v>4.8559194599999964</v>
+        <v>5.9204638881141278</v>
       </c>
       <c r="D41" s="81">
         <f>PL!C41</f>
-        <v>5.8981982499999956</v>
+        <v>6.7747676508776262</v>
       </c>
       <c r="E41" s="81">
         <f>PL!D41</f>
-        <v>7.0495992699999945</v>
+        <v>7.7144586902400611</v>
       </c>
       <c r="F41" s="81">
         <f>PL!E41</f>
-        <v>8.3230841050000013</v>
+        <v>8.7495012232849696</v>
       </c>
       <c r="G41" s="81">
         <f>PL!F41</f>
-        <v>-0.89309915624999325</v>
+        <v>8.8407663256376789</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -5544,23 +6941,23 @@
       <c r="B43" s="45"/>
       <c r="C43" s="93">
         <f>SUM(C27:C41)</f>
-        <v>13.015296659999997</v>
+        <v>10.432339416855706</v>
       </c>
       <c r="D43" s="93">
         <f>SUM(D27:D41)</f>
-        <v>10.457575449999997</v>
+        <v>7.6866431796192041</v>
       </c>
       <c r="E43" s="93">
         <f>SUM(E27:E41)</f>
-        <v>11.608976469999995</v>
+        <v>8.6263342189816399</v>
       </c>
       <c r="F43" s="93">
         <f>SUM(F27:F41)</f>
-        <v>12.882461305000001</v>
+        <v>9.6613767520265483</v>
       </c>
       <c r="G43" s="93">
         <f>SUM(G27:G41)</f>
-        <v>5.1662780437500064</v>
+        <v>11.252641854379258</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -5574,19 +6971,19 @@
       </c>
       <c r="D46" s="47">
         <f>C48</f>
-        <v>-0.16729666000000165</v>
+        <v>2.415660583144291</v>
       </c>
       <c r="E46" s="47">
         <f>D48</f>
-        <v>-0.2720721100000052</v>
+        <v>5.0818174035250836</v>
       </c>
       <c r="F46" s="47">
         <f>E48</f>
-        <v>-0.30396858000000648</v>
+        <v>8.0325631845434415</v>
       </c>
       <c r="G46" s="47">
         <f>F48</f>
-        <v>-0.25319188500000678</v>
+        <v>11.304424432516893</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -5595,23 +6992,23 @@
       </c>
       <c r="C47" s="47">
         <f>C25-C43</f>
-        <v>-0.16729666000000165</v>
+        <v>2.415660583144291</v>
       </c>
       <c r="D47" s="47">
         <f>D25-D43</f>
-        <v>-0.10477545000000354</v>
+        <v>2.6661568203807926</v>
       </c>
       <c r="E47" s="47">
         <f>E25-E43</f>
-        <v>-3.1896470000001287E-2</v>
+        <v>2.9507457810183571</v>
       </c>
       <c r="F47" s="47">
         <f>F25-F43</f>
-        <v>5.0776694999999705E-2</v>
+        <v>3.271861247973451</v>
       </c>
       <c r="G47" s="47">
         <f>G25-G43</f>
-        <v>9.2686562562500026</v>
+        <v>3.1822924456207371</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -5621,23 +7018,23 @@
       <c r="B48" s="45"/>
       <c r="C48" s="82">
         <f>C46+C47</f>
-        <v>-0.16729666000000165</v>
+        <v>2.415660583144291</v>
       </c>
       <c r="D48" s="82">
         <f>D46+D47</f>
-        <v>-0.2720721100000052</v>
+        <v>5.0818174035250836</v>
       </c>
       <c r="E48" s="82">
         <f>E46+E47</f>
-        <v>-0.30396858000000648</v>
+        <v>8.0325631845434415</v>
       </c>
       <c r="F48" s="82">
         <f>F46+F47</f>
-        <v>-0.25319188500000678</v>
+        <v>11.304424432516893</v>
       </c>
       <c r="G48" s="82">
         <f>G46+G47</f>
-        <v>9.0154643712499958</v>
+        <v>14.48671687813763</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -5705,7 +7102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
@@ -5821,7 +7218,7 @@
       </c>
       <c r="B13" s="75">
         <f>PL!B39</f>
-        <v>6.9370277999999956</v>
+        <v>8.457805554448754</v>
       </c>
       <c r="C13" s="75">
         <f>PL!B30</f>
@@ -5829,11 +7226,11 @@
       </c>
       <c r="D13" s="81">
         <f>B13+C13</f>
-        <v>7.3470277999999958</v>
+        <v>8.8678055544487542</v>
       </c>
       <c r="E13" s="81">
         <f>D13</f>
-        <v>7.3470277999999958</v>
+        <v>8.8678055544487542</v>
       </c>
       <c r="G13" s="47"/>
     </row>
@@ -5849,7 +7246,7 @@
       </c>
       <c r="B15" s="75">
         <f>PL!C39</f>
-        <v>8.425997499999994</v>
+        <v>9.6782395012537528</v>
       </c>
       <c r="C15" s="81">
         <f>PL!C30</f>
@@ -5857,11 +7254,11 @@
       </c>
       <c r="D15" s="81">
         <f>B15+C15</f>
-        <v>8.7874974999999935</v>
+        <v>10.039739501253752</v>
       </c>
       <c r="E15" s="81">
         <f>E13+D15</f>
-        <v>16.134525299999989</v>
+        <v>18.907545055702506</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5875,7 +7272,7 @@
       </c>
       <c r="H16" s="71">
         <f>E17-E15</f>
-        <v>10.389831099999991</v>
+        <v>11.339630271771519</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5884,7 +7281,7 @@
       </c>
       <c r="B17" s="75">
         <f>PL!D39</f>
-        <v>10.070856099999993</v>
+        <v>11.020655271771517</v>
       </c>
       <c r="C17" s="81">
         <f>PL!D30</f>
@@ -5892,15 +7289,15 @@
       </c>
       <c r="D17" s="81">
         <f>B17+C17</f>
-        <v>10.389831099999993</v>
+        <v>11.339630271771517</v>
       </c>
       <c r="E17" s="81">
         <f>E15+D17</f>
-        <v>26.524356399999981</v>
+        <v>30.247175327474025</v>
       </c>
       <c r="G17" s="47">
         <f>G16-E15</f>
-        <v>-12.53452529999999</v>
+        <v>-15.307545055702507</v>
       </c>
       <c r="H17" s="74"/>
     </row>
@@ -5911,7 +7308,7 @@
       <c r="E18" s="81"/>
       <c r="G18" s="71">
         <f>G17/H16</f>
-        <v>-1.2064224316408763</v>
+        <v>-1.3499157105508615</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -5920,7 +7317,7 @@
       </c>
       <c r="B19" s="75">
         <f>PL!E39</f>
-        <v>11.890120150000001</v>
+        <v>12.499287461835671</v>
       </c>
       <c r="C19" s="81">
         <f>PL!E30</f>
@@ -5928,11 +7325,11 @@
       </c>
       <c r="D19" s="81">
         <f>B19+C19</f>
-        <v>12.171778900000001</v>
+        <v>12.780946211835671</v>
       </c>
       <c r="E19" s="81">
         <f>E17+D19</f>
-        <v>38.69613529999998</v>
+        <v>43.028121539309694</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -5947,7 +7344,7 @@
       </c>
       <c r="B21" s="75">
         <f>PL!F39</f>
-        <v>-1.2758559374999905</v>
+        <v>12.629666179482399</v>
       </c>
       <c r="C21" s="81">
         <f>PL!F30</f>
@@ -5955,11 +7352,11 @@
       </c>
       <c r="D21" s="81">
         <f>B21+C21</f>
-        <v>-1.0269689999999905</v>
+        <v>12.878553116982399</v>
       </c>
       <c r="E21" s="81">
         <f>E19+D21</f>
-        <v>37.669166299999986</v>
+        <v>55.906674656292097</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -5969,7 +7366,7 @@
       </c>
       <c r="H23" s="47">
         <f>E17-G23</f>
-        <v>22.924356399999979</v>
+        <v>26.647175327474024</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14" x14ac:dyDescent="0.3">
@@ -5984,7 +7381,7 @@
       <c r="E24" s="190"/>
       <c r="H24" s="94">
         <f>H23/(E17-E15)</f>
-        <v>2.2064224316408763</v>
+        <v>2.349915710550861</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14" x14ac:dyDescent="0.3">
@@ -6050,7 +7447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:P38"/>
   <sheetViews>
@@ -6214,23 +7611,23 @@
       <c r="D10" s="102"/>
       <c r="E10" s="104">
         <f>PL!B39</f>
-        <v>6.9370277999999956</v>
+        <v>8.457805554448754</v>
       </c>
       <c r="F10" s="73">
         <f>PL!C39</f>
-        <v>8.425997499999994</v>
+        <v>9.6782395012537528</v>
       </c>
       <c r="G10" s="73">
         <f>PL!D39</f>
-        <v>10.070856099999993</v>
+        <v>11.020655271771517</v>
       </c>
       <c r="H10" s="73">
         <f>PL!E39</f>
-        <v>11.890120150000001</v>
+        <v>12.499287461835671</v>
       </c>
       <c r="I10" s="73">
         <f>PL!F39</f>
-        <v>-1.2758559374999905</v>
+        <v>12.629666179482399</v>
       </c>
       <c r="J10" s="105"/>
       <c r="N10" s="130"/>
@@ -6261,23 +7658,23 @@
       <c r="D12" s="102"/>
       <c r="E12" s="104">
         <f>PL!B20+PL!B22</f>
-        <v>1.9009722000000002</v>
+        <v>0.3801944455512431</v>
       </c>
       <c r="F12" s="73">
         <f>PL!C20+PL!C22</f>
-        <v>1.5653025000000003</v>
+        <v>0.31306049874624381</v>
       </c>
       <c r="G12" s="73">
         <f>PL!D20+PL!D22</f>
-        <v>1.1872488999999999</v>
+        <v>0.2374497282284794</v>
       </c>
       <c r="H12" s="73">
         <f>PL!E20+PL!E22</f>
-        <v>0.76145910000000006</v>
+        <v>0.15229178816432842</v>
       </c>
       <c r="I12" s="104">
         <f>PL!F20+PL!F22</f>
-        <v>13.961903299999999</v>
+        <v>5.6381183017596426E-2</v>
       </c>
       <c r="J12" s="105"/>
       <c r="N12" s="130"/>
@@ -6353,23 +7750,23 @@
       <c r="D16" s="102"/>
       <c r="E16" s="106">
         <f>SUM(E10:E14)</f>
-        <v>9.2479999999999958</v>
+        <v>9.2479999999999976</v>
       </c>
       <c r="F16" s="106">
         <f>SUM(F10:F14)</f>
-        <v>10.352799999999993</v>
+        <v>10.352799999999997</v>
       </c>
       <c r="G16" s="106">
         <f>SUM(G10:G14)</f>
-        <v>11.577079999999993</v>
+        <v>11.577079999999997</v>
       </c>
       <c r="H16" s="106">
         <f>SUM(H10:H14)</f>
-        <v>12.933238000000001</v>
+        <v>12.933237999999999</v>
       </c>
       <c r="I16" s="106">
         <f>SUM(I10:I14)</f>
-        <v>12.934934300000009</v>
+        <v>12.934934299999995</v>
       </c>
       <c r="J16" s="105"/>
       <c r="N16" s="130"/>
@@ -6432,23 +7829,23 @@
       <c r="D20" s="102"/>
       <c r="E20" s="104">
         <f>CF!C31</f>
-        <v>2.6584050000000001</v>
+        <v>0.53168108319033514</v>
       </c>
       <c r="F20" s="73">
         <f>CF!D31</f>
-        <v>2.9940746999999996</v>
+        <v>0.59881502999533431</v>
       </c>
       <c r="G20" s="73">
         <f>CF!E31</f>
-        <v>3.3721283</v>
+        <v>0.67442580051309875</v>
       </c>
       <c r="H20" s="73">
         <f>CF!F31</f>
-        <v>3.7979181</v>
+        <v>0.75958374057724976</v>
       </c>
       <c r="I20" s="73">
         <f>CF!G31</f>
-        <v>-9.4025260999999993</v>
+        <v>0.85549434572398175</v>
       </c>
       <c r="J20" s="105"/>
     </row>
@@ -6473,23 +7870,23 @@
       <c r="D22" s="102"/>
       <c r="E22" s="104">
         <f>E12</f>
-        <v>1.9009722000000002</v>
+        <v>0.3801944455512431</v>
       </c>
       <c r="F22" s="73">
         <f>F12</f>
-        <v>1.5653025000000003</v>
+        <v>0.31306049874624381</v>
       </c>
       <c r="G22" s="73">
         <f>G12</f>
-        <v>1.1872488999999999</v>
+        <v>0.2374497282284794</v>
       </c>
       <c r="H22" s="73">
         <f>H12</f>
-        <v>0.76145910000000006</v>
+        <v>0.15229178816432842</v>
       </c>
       <c r="I22" s="73">
         <f>I12</f>
-        <v>13.961903299999999</v>
+        <v>5.6381183017596426E-2</v>
       </c>
       <c r="J22" s="105"/>
     </row>
@@ -6515,23 +7912,23 @@
       <c r="D24" s="102"/>
       <c r="E24" s="106">
         <f>SUM(E20:E22)</f>
-        <v>4.5593772000000001</v>
+        <v>0.91187552874157829</v>
       </c>
       <c r="F24" s="106">
         <f>SUM(F20:F22)</f>
-        <v>4.5593772000000001</v>
+        <v>0.91187552874157807</v>
       </c>
       <c r="G24" s="106">
         <f>SUM(G20:G22)</f>
-        <v>4.5593772000000001</v>
+        <v>0.91187552874157818</v>
       </c>
       <c r="H24" s="106">
         <f>SUM(H20:H22)</f>
-        <v>4.5593772000000001</v>
+        <v>0.91187552874157818</v>
       </c>
       <c r="I24" s="106">
         <f>SUM(I20:I22)</f>
-        <v>4.5593772000000001</v>
+        <v>0.91187552874157818</v>
       </c>
       <c r="J24" s="105"/>
     </row>
@@ -6556,23 +7953,23 @@
       <c r="D26" s="103"/>
       <c r="E26" s="73">
         <f>E16/E24</f>
-        <v>2.0283472049647471</v>
+        <v>10.141735037853881</v>
       </c>
       <c r="F26" s="73">
         <f>F16/F24</f>
-        <v>2.2706610016824214</v>
+        <v>11.353303903535215</v>
       </c>
       <c r="G26" s="73">
         <f>G16/G24</f>
-        <v>2.5391801318829232</v>
+        <v>12.695899423879478</v>
       </c>
       <c r="H26" s="73">
         <f>H16/H24</f>
-        <v>2.83662382660509</v>
+        <v>14.183117752757708</v>
       </c>
       <c r="I26" s="73">
         <f>I16/I24</f>
-        <v>2.8369958730328362</v>
+        <v>14.184977984715392</v>
       </c>
       <c r="J26" s="105"/>
       <c r="L26" s="51" t="s">
@@ -6630,7 +8027,7 @@
       <c r="F30" s="73"/>
       <c r="G30" s="108">
         <f>AVERAGE(E26:I26)</f>
-        <v>2.5023616076336035</v>
+        <v>12.511806820548335</v>
       </c>
       <c r="H30" s="73"/>
       <c r="I30" s="105"/>
@@ -7368,7 +8765,7 @@
       </c>
       <c r="C90" s="42">
         <f>+DSCR!G30</f>
-        <v>2.5023616076336035</v>
+        <v>12.511806820548335</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">

--- a/Project Report Format.xlsx
+++ b/Project Report Format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lavis\OneDrive\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCDB33C-9236-4EAF-8FFC-6EABF4D69102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32F9476-FEF6-4B17-9FBF-177592529334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="926" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="926" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Details" sheetId="30" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="283">
   <si>
     <t xml:space="preserve">                        Profit After Tax</t>
   </si>
@@ -941,6 +941,12 @@
   </si>
   <si>
     <t>Principal</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Location of Unit</t>
   </si>
 </sst>
 </file>
@@ -1693,149 +1699,6 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1851,6 +1714,149 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="40" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2275,8 +2281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F170FFE-54A9-4A21-ACCD-4D0E784EBF5B}">
   <dimension ref="B3:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2287,23 +2293,29 @@
     <col min="6" max="6" width="15.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>261</v>
       </c>
       <c r="C3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="F3" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>262</v>
       </c>
       <c r="C4" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>263</v>
       </c>
@@ -2311,7 +2323,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>264</v>
       </c>
@@ -2319,7 +2331,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>265</v>
       </c>
@@ -2327,7 +2339,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>266</v>
       </c>
@@ -2335,7 +2347,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>267</v>
       </c>
@@ -2343,7 +2355,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>268</v>
       </c>
@@ -2351,7 +2363,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>269</v>
       </c>
@@ -2359,7 +2371,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>270</v>
       </c>
@@ -2367,7 +2379,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>271</v>
       </c>
@@ -2375,7 +2387,7 @@
         <v>0.1195</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>272</v>
       </c>
@@ -2383,7 +2395,7 @@
         <v>0.1195</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
     </row>
     <row r="17" spans="2:6" ht="14" x14ac:dyDescent="0.3">
@@ -2521,13 +2533,13 @@
       </c>
     </row>
     <row r="32" spans="2:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="B32" s="184" t="s">
+      <c r="B32" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="184"/>
-      <c r="D32" s="184"/>
-      <c r="E32" s="184"/>
-      <c r="F32" s="184"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
     </row>
     <row r="33" spans="2:6" ht="14" x14ac:dyDescent="0.3">
       <c r="B33" s="27"/>
@@ -2626,19 +2638,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="185" t="str">
+      <c r="A1" s="194" t="str">
         <f>+Dep!A1</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B1" s="185"/>
+      <c r="B1" s="194"/>
       <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="186" t="str">
+      <c r="A2" s="195" t="str">
         <f>+Dep!A2</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B2" s="186"/>
+      <c r="B2" s="195"/>
       <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:8" ht="14" x14ac:dyDescent="0.3">
@@ -2652,10 +2664,10 @@
       <c r="H3" s="43"/>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="197" t="s">
+      <c r="A5" s="206" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="197"/>
+      <c r="B5" s="206"/>
       <c r="C5" s="45"/>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
@@ -2913,43 +2925,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="185" t="str">
+      <c r="A1" s="194" t="str">
         <f>Dep!A1</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
     </row>
     <row r="2" spans="1:10" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="187" t="str">
+      <c r="A2" s="196" t="str">
         <f>Dep!A2</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
     </row>
     <row r="3" spans="1:10" ht="14" x14ac:dyDescent="0.3">
-      <c r="A3" s="189"/>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
+      <c r="A3" s="198"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
     </row>
     <row r="5" spans="1:10" ht="14" x14ac:dyDescent="0.3">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
@@ -2963,11 +2975,11 @@
       <c r="A7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="198">
+      <c r="C7" s="207">
         <f>+Cost!B27</f>
         <v>3.42</v>
       </c>
-      <c r="D7" s="199"/>
+      <c r="D7" s="208"/>
     </row>
     <row r="9" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A9" s="91" t="s">
@@ -2986,7 +2998,7 @@
         <f>"    Interest @ "&amp;'Basic Details'!C13*100&amp;"%"</f>
         <v xml:space="preserve">    Interest @ 11.95%</v>
       </c>
-      <c r="G9" s="204">
+      <c r="G9" s="155">
         <f>'Basic Details'!C13/12</f>
         <v>9.9583333333333329E-3</v>
       </c>
@@ -3003,7 +3015,7 @@
         <f>+C7</f>
         <v>3.42</v>
       </c>
-      <c r="C11" s="212">
+      <c r="C11" s="163">
         <f>-PMT(G9, H9,B11)*12</f>
         <v>0.91187552874157818</v>
       </c>
@@ -3162,11 +3174,11 @@
     <row r="28" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A28" s="26"/>
       <c r="B28" s="65"/>
-      <c r="C28" s="198">
+      <c r="C28" s="207">
         <f>+Cost!B29</f>
         <v>0</v>
       </c>
-      <c r="D28" s="199"/>
+      <c r="D28" s="208"/>
       <c r="E28" s="35"/>
     </row>
     <row r="29" spans="1:5" ht="28" x14ac:dyDescent="0.25">
@@ -3340,1323 +3352,1323 @@
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="205">
+      <c r="B1" s="156">
         <f>Intt!B11</f>
         <v>3.42</v>
       </c>
-      <c r="D1" s="206"/>
+      <c r="D1" s="157"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="207">
+      <c r="B2" s="158">
         <f>Intt!G9*12</f>
         <v>0.1195</v>
       </c>
-      <c r="D2" s="206"/>
+      <c r="D2" s="157"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3">
         <f>Intt!H9</f>
         <v>60</v>
       </c>
-      <c r="D3" s="206"/>
+      <c r="D3" s="157"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="208">
+      <c r="B4" s="159">
         <f>PMT(B2/12, B3, -B1)</f>
         <v>7.5989627395131515E-2</v>
       </c>
-      <c r="D4" s="206"/>
+      <c r="D4" s="157"/>
     </row>
     <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A5" s="209" t="s">
+      <c r="A5" s="160" t="s">
         <v>273</v>
       </c>
-      <c r="B5" s="209" t="s">
+      <c r="B5" s="160" t="s">
         <v>274</v>
       </c>
-      <c r="C5" s="209" t="s">
+      <c r="C5" s="160" t="s">
         <v>275</v>
       </c>
-      <c r="D5" s="209" t="s">
+      <c r="D5" s="160" t="s">
         <v>276</v>
       </c>
-      <c r="E5" s="209" t="s">
+      <c r="E5" s="160" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25" x14ac:dyDescent="0.25">
-      <c r="A6" s="210" t="s">
+      <c r="A6" s="161" t="s">
         <v>278</v>
       </c>
-      <c r="B6" s="210" t="s">
+      <c r="B6" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="210" t="s">
+      <c r="C6" s="161" t="s">
         <v>279</v>
       </c>
-      <c r="D6" s="206" t="s">
+      <c r="D6" s="157" t="s">
         <v>280</v>
       </c>
-      <c r="E6" s="210" t="s">
+      <c r="E6" s="161" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="210">
+      <c r="A7" s="161">
         <v>1</v>
       </c>
-      <c r="B7" s="211">
+      <c r="B7" s="162">
         <f>B$1</f>
         <v>3.42</v>
       </c>
-      <c r="C7" s="211">
+      <c r="C7" s="162">
         <f>B7 * ($B$2/12)</f>
         <v>3.4057499999999997E-2</v>
       </c>
-      <c r="D7" s="206">
+      <c r="D7" s="157">
         <f>$B$4 - C7</f>
         <v>4.1932127395131517E-2</v>
       </c>
-      <c r="E7" s="211">
+      <c r="E7" s="162">
         <f>B7-D7</f>
         <v>3.3780678726048685</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="210">
+      <c r="A8" s="161">
         <v>2</v>
       </c>
-      <c r="B8" s="211">
+      <c r="B8" s="162">
         <f>E7</f>
         <v>3.3780678726048685</v>
       </c>
-      <c r="C8" s="211">
+      <c r="C8" s="162">
         <f t="shared" ref="C8:C66" si="0">B8 * ($B$2/12)</f>
         <v>3.3639925898023483E-2</v>
       </c>
-      <c r="D8" s="206">
+      <c r="D8" s="157">
         <f t="shared" ref="D8:D66" si="1">$B$4 - C8</f>
         <v>4.2349701497108032E-2</v>
       </c>
-      <c r="E8" s="211">
+      <c r="E8" s="162">
         <f t="shared" ref="E8:E66" si="2">B8-D8</f>
         <v>3.3357181711077604</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="210">
+      <c r="A9" s="161">
         <v>3</v>
       </c>
-      <c r="B9" s="211">
+      <c r="B9" s="162">
         <f t="shared" ref="B9:B66" si="3">E8</f>
         <v>3.3357181711077604</v>
       </c>
-      <c r="C9" s="211">
+      <c r="C9" s="162">
         <f t="shared" si="0"/>
         <v>3.3218193453948115E-2</v>
       </c>
-      <c r="D9" s="206">
+      <c r="D9" s="157">
         <f t="shared" si="1"/>
         <v>4.27714339411834E-2</v>
       </c>
-      <c r="E9" s="211">
+      <c r="E9" s="162">
         <f t="shared" si="2"/>
         <v>3.2929467371665768</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="210">
+      <c r="A10" s="161">
         <v>4</v>
       </c>
-      <c r="B10" s="211">
+      <c r="B10" s="162">
         <f t="shared" si="3"/>
         <v>3.2929467371665768</v>
       </c>
-      <c r="C10" s="211">
+      <c r="C10" s="162">
         <f t="shared" si="0"/>
         <v>3.279226125761716E-2</v>
       </c>
-      <c r="D10" s="206">
+      <c r="D10" s="157">
         <f t="shared" si="1"/>
         <v>4.3197366137514355E-2</v>
       </c>
-      <c r="E10" s="211">
+      <c r="E10" s="162">
         <f t="shared" si="2"/>
         <v>3.2497493710290626</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="210">
+      <c r="A11" s="161">
         <v>5</v>
       </c>
-      <c r="B11" s="211">
+      <c r="B11" s="162">
         <f t="shared" si="3"/>
         <v>3.2497493710290626</v>
       </c>
-      <c r="C11" s="211">
+      <c r="C11" s="162">
         <f t="shared" si="0"/>
         <v>3.236208748649775E-2</v>
       </c>
-      <c r="D11" s="206">
+      <c r="D11" s="157">
         <f t="shared" si="1"/>
         <v>4.3627539908633765E-2</v>
       </c>
-      <c r="E11" s="211">
+      <c r="E11" s="162">
         <f t="shared" si="2"/>
         <v>3.2061218311204289</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="210">
+      <c r="A12" s="161">
         <v>6</v>
       </c>
-      <c r="B12" s="211">
+      <c r="B12" s="162">
         <f t="shared" si="3"/>
         <v>3.2061218311204289</v>
       </c>
-      <c r="C12" s="211">
+      <c r="C12" s="162">
         <f t="shared" si="0"/>
         <v>3.1927629901574273E-2</v>
       </c>
-      <c r="D12" s="206">
+      <c r="D12" s="157">
         <f t="shared" si="1"/>
         <v>4.4061997493557242E-2</v>
       </c>
-      <c r="E12" s="211">
+      <c r="E12" s="162">
         <f t="shared" si="2"/>
         <v>3.1620598336268717</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="210">
+      <c r="A13" s="161">
         <v>7</v>
       </c>
-      <c r="B13" s="211">
+      <c r="B13" s="162">
         <f t="shared" si="3"/>
         <v>3.1620598336268717</v>
       </c>
-      <c r="C13" s="211">
+      <c r="C13" s="162">
         <f t="shared" si="0"/>
         <v>3.1488845843200927E-2</v>
       </c>
-      <c r="D13" s="206">
+      <c r="D13" s="157">
         <f t="shared" si="1"/>
         <v>4.4500781551930588E-2</v>
       </c>
-      <c r="E13" s="211">
+      <c r="E13" s="162">
         <f t="shared" si="2"/>
         <v>3.1175590520749412</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="210">
+      <c r="A14" s="161">
         <v>8</v>
       </c>
-      <c r="B14" s="211">
+      <c r="B14" s="162">
         <f t="shared" si="3"/>
         <v>3.1175590520749412</v>
       </c>
-      <c r="C14" s="211">
+      <c r="C14" s="162">
         <f t="shared" si="0"/>
         <v>3.1045692226912953E-2</v>
       </c>
-      <c r="D14" s="206">
+      <c r="D14" s="157">
         <f t="shared" si="1"/>
         <v>4.4943935168218561E-2</v>
       </c>
-      <c r="E14" s="211">
+      <c r="E14" s="162">
         <f t="shared" si="2"/>
         <v>3.0726151169067228</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="210">
+      <c r="A15" s="161">
         <v>9</v>
       </c>
-      <c r="B15" s="211">
+      <c r="B15" s="162">
         <f t="shared" si="3"/>
         <v>3.0726151169067228</v>
       </c>
-      <c r="C15" s="211">
+      <c r="C15" s="162">
         <f t="shared" si="0"/>
         <v>3.0598125539196115E-2</v>
       </c>
-      <c r="D15" s="206">
+      <c r="D15" s="157">
         <f t="shared" si="1"/>
         <v>4.53915018559354E-2</v>
       </c>
-      <c r="E15" s="211">
+      <c r="E15" s="162">
         <f t="shared" si="2"/>
         <v>3.0272236150507874</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="210">
+      <c r="A16" s="161">
         <v>10</v>
       </c>
-      <c r="B16" s="211">
+      <c r="B16" s="162">
         <f t="shared" si="3"/>
         <v>3.0272236150507874</v>
       </c>
-      <c r="C16" s="211">
+      <c r="C16" s="162">
         <f t="shared" si="0"/>
         <v>3.014610183321409E-2</v>
       </c>
-      <c r="D16" s="206">
+      <c r="D16" s="157">
         <f t="shared" si="1"/>
         <v>4.5843525561917425E-2</v>
       </c>
-      <c r="E16" s="211">
+      <c r="E16" s="162">
         <f t="shared" si="2"/>
         <v>2.9813800894888698</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="210">
+      <c r="A17" s="161">
         <v>11</v>
       </c>
-      <c r="B17" s="211">
+      <c r="B17" s="162">
         <f t="shared" si="3"/>
         <v>2.9813800894888698</v>
       </c>
-      <c r="C17" s="211">
+      <c r="C17" s="162">
         <f t="shared" si="0"/>
         <v>2.9689576724493329E-2</v>
       </c>
-      <c r="D17" s="206">
+      <c r="D17" s="157">
         <f t="shared" si="1"/>
         <v>4.6300050670638186E-2</v>
       </c>
-      <c r="E17" s="211">
+      <c r="E17" s="162">
         <f t="shared" si="2"/>
         <v>2.9350800388182314</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="210">
+      <c r="A18" s="161">
         <v>12</v>
       </c>
-      <c r="B18" s="211">
+      <c r="B18" s="162">
         <f t="shared" si="3"/>
         <v>2.9350800388182314</v>
       </c>
-      <c r="C18" s="211">
+      <c r="C18" s="162">
         <f t="shared" si="0"/>
         <v>2.9228505386564886E-2</v>
       </c>
-      <c r="D18" s="206">
+      <c r="D18" s="157">
         <f t="shared" si="1"/>
         <v>4.6761122008566629E-2</v>
       </c>
-      <c r="E18" s="211">
+      <c r="E18" s="162">
         <f t="shared" si="2"/>
         <v>2.888318916809665</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="210">
+      <c r="A19" s="161">
         <v>13</v>
       </c>
-      <c r="B19" s="211">
+      <c r="B19" s="162">
         <f t="shared" si="3"/>
         <v>2.888318916809665</v>
       </c>
-      <c r="C19" s="211">
+      <c r="C19" s="162">
         <f t="shared" si="0"/>
         <v>2.8762842546562913E-2</v>
       </c>
-      <c r="D19" s="206">
+      <c r="D19" s="157">
         <f t="shared" si="1"/>
         <v>4.7226784848568598E-2</v>
       </c>
-      <c r="E19" s="211">
+      <c r="E19" s="162">
         <f t="shared" si="2"/>
         <v>2.8410921319610964</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="210">
+      <c r="A20" s="161">
         <v>14</v>
       </c>
-      <c r="B20" s="211">
+      <c r="B20" s="162">
         <f t="shared" si="3"/>
         <v>2.8410921319610964</v>
       </c>
-      <c r="C20" s="211">
+      <c r="C20" s="162">
         <f t="shared" si="0"/>
         <v>2.829254248077925E-2</v>
       </c>
-      <c r="D20" s="206">
+      <c r="D20" s="157">
         <f t="shared" si="1"/>
         <v>4.7697084914352261E-2</v>
       </c>
-      <c r="E20" s="211">
+      <c r="E20" s="162">
         <f t="shared" si="2"/>
         <v>2.7933950470467441</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="210">
+      <c r="A21" s="161">
         <v>15</v>
       </c>
-      <c r="B21" s="211">
+      <c r="B21" s="162">
         <f t="shared" si="3"/>
         <v>2.7933950470467441</v>
       </c>
-      <c r="C21" s="211">
+      <c r="C21" s="162">
         <f t="shared" si="0"/>
         <v>2.7817559010173826E-2</v>
       </c>
-      <c r="D21" s="206">
+      <c r="D21" s="157">
         <f t="shared" si="1"/>
         <v>4.8172068384957689E-2</v>
       </c>
-      <c r="E21" s="211">
+      <c r="E21" s="162">
         <f t="shared" si="2"/>
         <v>2.7452229786617863</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="210">
+      <c r="A22" s="161">
         <v>16</v>
       </c>
-      <c r="B22" s="211">
+      <c r="B22" s="162">
         <f t="shared" si="3"/>
         <v>2.7452229786617863</v>
       </c>
-      <c r="C22" s="211">
+      <c r="C22" s="162">
         <f t="shared" si="0"/>
         <v>2.7337845495840288E-2</v>
       </c>
-      <c r="D22" s="206">
+      <c r="D22" s="157">
         <f t="shared" si="1"/>
         <v>4.865178189929123E-2</v>
       </c>
-      <c r="E22" s="211">
+      <c r="E22" s="162">
         <f t="shared" si="2"/>
         <v>2.6965711967624952</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="210">
+      <c r="A23" s="161">
         <v>17</v>
       </c>
-      <c r="B23" s="211">
+      <c r="B23" s="162">
         <f t="shared" si="3"/>
         <v>2.6965711967624952</v>
       </c>
-      <c r="C23" s="211">
+      <c r="C23" s="162">
         <f t="shared" si="0"/>
         <v>2.6853354834426513E-2</v>
       </c>
-      <c r="D23" s="206">
+      <c r="D23" s="157">
         <f t="shared" si="1"/>
         <v>4.9136272560705005E-2</v>
       </c>
-      <c r="E23" s="211">
+      <c r="E23" s="162">
         <f t="shared" si="2"/>
         <v>2.6474349242017903</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="210">
+      <c r="A24" s="161">
         <v>18</v>
       </c>
-      <c r="B24" s="211">
+      <c r="B24" s="162">
         <f t="shared" si="3"/>
         <v>2.6474349242017903</v>
       </c>
-      <c r="C24" s="211">
+      <c r="C24" s="162">
         <f t="shared" si="0"/>
         <v>2.6364039453509493E-2</v>
       </c>
-      <c r="D24" s="206">
+      <c r="D24" s="157">
         <f t="shared" si="1"/>
         <v>4.9625587941622022E-2</v>
       </c>
-      <c r="E24" s="211">
+      <c r="E24" s="162">
         <f t="shared" si="2"/>
         <v>2.5978093362601684</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="210">
+      <c r="A25" s="161">
         <v>19</v>
       </c>
-      <c r="B25" s="211">
+      <c r="B25" s="162">
         <f t="shared" si="3"/>
         <v>2.5978093362601684</v>
       </c>
-      <c r="C25" s="211">
+      <c r="C25" s="162">
         <f t="shared" si="0"/>
         <v>2.5869851306924176E-2</v>
       </c>
-      <c r="D25" s="206">
+      <c r="D25" s="157">
         <f t="shared" si="1"/>
         <v>5.0119776088207335E-2</v>
       </c>
-      <c r="E25" s="211">
+      <c r="E25" s="162">
         <f t="shared" si="2"/>
         <v>2.5476895601719609</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="210">
+      <c r="A26" s="161">
         <v>20</v>
       </c>
-      <c r="B26" s="211">
+      <c r="B26" s="162">
         <f t="shared" si="3"/>
         <v>2.5476895601719609</v>
       </c>
-      <c r="C26" s="211">
+      <c r="C26" s="162">
         <f t="shared" si="0"/>
         <v>2.5370741870045777E-2</v>
       </c>
-      <c r="D26" s="206">
+      <c r="D26" s="157">
         <f t="shared" si="1"/>
         <v>5.0618885525085741E-2</v>
       </c>
-      <c r="E26" s="211">
+      <c r="E26" s="162">
         <f t="shared" si="2"/>
         <v>2.4970706746468752</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="210">
+      <c r="A27" s="161">
         <v>21</v>
       </c>
-      <c r="B27" s="211">
+      <c r="B27" s="162">
         <f t="shared" si="3"/>
         <v>2.4970706746468752</v>
       </c>
-      <c r="C27" s="211">
+      <c r="C27" s="162">
         <f t="shared" si="0"/>
         <v>2.4866662135025131E-2</v>
       </c>
-      <c r="D27" s="206">
+      <c r="D27" s="157">
         <f t="shared" si="1"/>
         <v>5.1122965260106387E-2</v>
       </c>
-      <c r="E27" s="211">
+      <c r="E27" s="162">
         <f t="shared" si="2"/>
         <v>2.4459477093867688</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="210">
+      <c r="A28" s="161">
         <v>22</v>
       </c>
-      <c r="B28" s="211">
+      <c r="B28" s="162">
         <f t="shared" si="3"/>
         <v>2.4459477093867688</v>
       </c>
-      <c r="C28" s="211">
+      <c r="C28" s="162">
         <f t="shared" si="0"/>
         <v>2.435756260597657E-2</v>
       </c>
-      <c r="D28" s="206">
+      <c r="D28" s="157">
         <f t="shared" si="1"/>
         <v>5.1632064789154941E-2</v>
       </c>
-      <c r="E28" s="211">
+      <c r="E28" s="162">
         <f t="shared" si="2"/>
         <v>2.3943156445976137</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="210">
+      <c r="A29" s="161">
         <v>23</v>
       </c>
-      <c r="B29" s="211">
+      <c r="B29" s="162">
         <f t="shared" si="3"/>
         <v>2.3943156445976137</v>
       </c>
-      <c r="C29" s="211">
+      <c r="C29" s="162">
         <f t="shared" si="0"/>
         <v>2.3843393294117901E-2</v>
       </c>
-      <c r="D29" s="206">
+      <c r="D29" s="157">
         <f t="shared" si="1"/>
         <v>5.2146234101013614E-2</v>
       </c>
-      <c r="E29" s="211">
+      <c r="E29" s="162">
         <f t="shared" si="2"/>
         <v>2.3421694104966</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="210">
+      <c r="A30" s="161">
         <v>24</v>
       </c>
-      <c r="B30" s="211">
+      <c r="B30" s="162">
         <f t="shared" si="3"/>
         <v>2.3421694104966</v>
       </c>
-      <c r="C30" s="211">
+      <c r="C30" s="162">
         <f t="shared" si="0"/>
         <v>2.3324103712861973E-2</v>
       </c>
-      <c r="D30" s="206">
+      <c r="D30" s="157">
         <f t="shared" si="1"/>
         <v>5.2665523682269538E-2</v>
       </c>
-      <c r="E30" s="211">
+      <c r="E30" s="162">
         <f t="shared" si="2"/>
         <v>2.2895038868143303</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="210">
+      <c r="A31" s="161">
         <v>25</v>
       </c>
-      <c r="B31" s="211">
+      <c r="B31" s="162">
         <f t="shared" si="3"/>
         <v>2.2895038868143303</v>
       </c>
-      <c r="C31" s="211">
+      <c r="C31" s="162">
         <f t="shared" si="0"/>
         <v>2.279964287285937E-2</v>
       </c>
-      <c r="D31" s="206">
+      <c r="D31" s="157">
         <f t="shared" si="1"/>
         <v>5.3189984522272145E-2</v>
       </c>
-      <c r="E31" s="211">
+      <c r="E31" s="162">
         <f t="shared" si="2"/>
         <v>2.236313902292058</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="210">
+      <c r="A32" s="161">
         <v>26</v>
       </c>
-      <c r="B32" s="211">
+      <c r="B32" s="162">
         <f t="shared" si="3"/>
         <v>2.236313902292058</v>
       </c>
-      <c r="C32" s="211">
+      <c r="C32" s="162">
         <f t="shared" si="0"/>
         <v>2.2269959276991744E-2</v>
       </c>
-      <c r="D32" s="206">
+      <c r="D32" s="157">
         <f t="shared" si="1"/>
         <v>5.3719668118139774E-2</v>
       </c>
-      <c r="E32" s="211">
+      <c r="E32" s="162">
         <f t="shared" si="2"/>
         <v>2.1825942341739184</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="210">
+      <c r="A33" s="161">
         <v>27</v>
       </c>
-      <c r="B33" s="211">
+      <c r="B33" s="162">
         <f t="shared" si="3"/>
         <v>2.1825942341739184</v>
       </c>
-      <c r="C33" s="211">
+      <c r="C33" s="162">
         <f t="shared" si="0"/>
         <v>2.1735000915315269E-2</v>
       </c>
-      <c r="D33" s="206">
+      <c r="D33" s="157">
         <f t="shared" si="1"/>
         <v>5.4254626479816243E-2</v>
       </c>
-      <c r="E33" s="211">
+      <c r="E33" s="162">
         <f t="shared" si="2"/>
         <v>2.1283396076941021</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="210">
+      <c r="A34" s="161">
         <v>28</v>
       </c>
-      <c r="B34" s="211">
+      <c r="B34" s="162">
         <f t="shared" si="3"/>
         <v>2.1283396076941021</v>
       </c>
-      <c r="C34" s="211">
+      <c r="C34" s="162">
         <f t="shared" si="0"/>
         <v>2.1194715259953766E-2</v>
       </c>
-      <c r="D34" s="206">
+      <c r="D34" s="157">
         <f t="shared" si="1"/>
         <v>5.4794912135177745E-2</v>
       </c>
-      <c r="E34" s="211">
+      <c r="E34" s="162">
         <f t="shared" si="2"/>
         <v>2.0735446955589243</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="210">
+      <c r="A35" s="161">
         <v>29</v>
       </c>
-      <c r="B35" s="211">
+      <c r="B35" s="162">
         <f t="shared" si="3"/>
         <v>2.0735446955589243</v>
       </c>
-      <c r="C35" s="211">
+      <c r="C35" s="162">
         <f t="shared" si="0"/>
         <v>2.0649049259940953E-2</v>
       </c>
-      <c r="D35" s="206">
+      <c r="D35" s="157">
         <f t="shared" si="1"/>
         <v>5.5340578135190562E-2</v>
       </c>
-      <c r="E35" s="211">
+      <c r="E35" s="162">
         <f t="shared" si="2"/>
         <v>2.0182041174237337</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="210">
+      <c r="A36" s="161">
         <v>30</v>
       </c>
-      <c r="B36" s="211">
+      <c r="B36" s="162">
         <f t="shared" si="3"/>
         <v>2.0182041174237337</v>
       </c>
-      <c r="C36" s="211">
+      <c r="C36" s="162">
         <f t="shared" si="0"/>
         <v>2.0097949336011348E-2</v>
       </c>
-      <c r="D36" s="206">
+      <c r="D36" s="157">
         <f t="shared" si="1"/>
         <v>5.5891678059120167E-2</v>
       </c>
-      <c r="E36" s="211">
+      <c r="E36" s="162">
         <f t="shared" si="2"/>
         <v>1.9623124393646136</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="210">
+      <c r="A37" s="161">
         <v>31</v>
       </c>
-      <c r="B37" s="211">
+      <c r="B37" s="162">
         <f t="shared" si="3"/>
         <v>1.9623124393646136</v>
       </c>
-      <c r="C37" s="211">
+      <c r="C37" s="162">
         <f t="shared" si="0"/>
         <v>1.9541361375339277E-2</v>
       </c>
-      <c r="D37" s="206">
+      <c r="D37" s="157">
         <f t="shared" si="1"/>
         <v>5.6448266019792234E-2</v>
       </c>
-      <c r="E37" s="211">
+      <c r="E37" s="162">
         <f t="shared" si="2"/>
         <v>1.9058641733448214</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="210">
+      <c r="A38" s="161">
         <v>32</v>
       </c>
-      <c r="B38" s="211">
+      <c r="B38" s="162">
         <f t="shared" si="3"/>
         <v>1.9058641733448214</v>
       </c>
-      <c r="C38" s="211">
+      <c r="C38" s="162">
         <f t="shared" si="0"/>
         <v>1.8979230726225513E-2</v>
       </c>
-      <c r="D38" s="206">
+      <c r="D38" s="157">
         <f t="shared" si="1"/>
         <v>5.7010396668906005E-2</v>
       </c>
-      <c r="E38" s="211">
+      <c r="E38" s="162">
         <f t="shared" si="2"/>
         <v>1.8488537766759154</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="210">
+      <c r="A39" s="161">
         <v>33</v>
       </c>
-      <c r="B39" s="211">
+      <c r="B39" s="162">
         <f t="shared" si="3"/>
         <v>1.8488537766759154</v>
       </c>
-      <c r="C39" s="211">
+      <c r="C39" s="162">
         <f t="shared" si="0"/>
         <v>1.8411502192730991E-2</v>
       </c>
-      <c r="D39" s="206">
+      <c r="D39" s="157">
         <f t="shared" si="1"/>
         <v>5.7578125202400521E-2</v>
       </c>
-      <c r="E39" s="211">
+      <c r="E39" s="162">
         <f t="shared" si="2"/>
         <v>1.7912756514735149</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="210">
+      <c r="A40" s="161">
         <v>34</v>
       </c>
-      <c r="B40" s="211">
+      <c r="B40" s="162">
         <f t="shared" si="3"/>
         <v>1.7912756514735149</v>
       </c>
-      <c r="C40" s="211">
+      <c r="C40" s="162">
         <f t="shared" si="0"/>
         <v>1.7838120029257085E-2</v>
       </c>
-      <c r="D40" s="206">
+      <c r="D40" s="157">
         <f t="shared" si="1"/>
         <v>5.8151507365874433E-2</v>
       </c>
-      <c r="E40" s="211">
+      <c r="E40" s="162">
         <f t="shared" si="2"/>
         <v>1.7331241441076404</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="210">
+      <c r="A41" s="161">
         <v>35</v>
       </c>
-      <c r="B41" s="211">
+      <c r="B41" s="162">
         <f t="shared" si="3"/>
         <v>1.7331241441076404</v>
       </c>
-      <c r="C41" s="211">
+      <c r="C41" s="162">
         <f t="shared" si="0"/>
         <v>1.7259027935071919E-2</v>
       </c>
-      <c r="D41" s="206">
+      <c r="D41" s="157">
         <f t="shared" si="1"/>
         <v>5.8730599460059596E-2</v>
       </c>
-      <c r="E41" s="211">
+      <c r="E41" s="162">
         <f t="shared" si="2"/>
         <v>1.6743935446475808</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="210">
+      <c r="A42" s="161">
         <v>36</v>
       </c>
-      <c r="B42" s="211">
+      <c r="B42" s="162">
         <f t="shared" si="3"/>
         <v>1.6743935446475808</v>
       </c>
-      <c r="C42" s="211">
+      <c r="C42" s="162">
         <f t="shared" si="0"/>
         <v>1.6674169048782158E-2</v>
       </c>
-      <c r="D42" s="206">
+      <c r="D42" s="157">
         <f t="shared" si="1"/>
         <v>5.9315458346349353E-2</v>
       </c>
-      <c r="E42" s="211">
+      <c r="E42" s="162">
         <f t="shared" si="2"/>
         <v>1.6150780863012315</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="210">
+      <c r="A43" s="161">
         <v>37</v>
       </c>
-      <c r="B43" s="211">
+      <c r="B43" s="162">
         <f t="shared" si="3"/>
         <v>1.6150780863012315</v>
       </c>
-      <c r="C43" s="211">
+      <c r="C43" s="162">
         <f t="shared" si="0"/>
         <v>1.6083485942749762E-2</v>
       </c>
-      <c r="D43" s="206">
+      <c r="D43" s="157">
         <f t="shared" si="1"/>
         <v>5.9906141452381753E-2</v>
       </c>
-      <c r="E43" s="211">
+      <c r="E43" s="162">
         <f t="shared" si="2"/>
         <v>1.5551719448488497</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="210">
+      <c r="A44" s="161">
         <v>38</v>
       </c>
-      <c r="B44" s="211">
+      <c r="B44" s="162">
         <f t="shared" si="3"/>
         <v>1.5551719448488497</v>
       </c>
-      <c r="C44" s="211">
+      <c r="C44" s="162">
         <f t="shared" si="0"/>
         <v>1.5486920617453128E-2</v>
       </c>
-      <c r="D44" s="206">
+      <c r="D44" s="157">
         <f t="shared" si="1"/>
         <v>6.0502706777678383E-2</v>
       </c>
-      <c r="E44" s="211">
+      <c r="E44" s="162">
         <f t="shared" si="2"/>
         <v>1.4946692380711712</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="210">
+      <c r="A45" s="161">
         <v>39</v>
       </c>
-      <c r="B45" s="211">
+      <c r="B45" s="162">
         <f t="shared" si="3"/>
         <v>1.4946692380711712</v>
       </c>
-      <c r="C45" s="211">
+      <c r="C45" s="162">
         <f t="shared" si="0"/>
         <v>1.488441449579208E-2</v>
       </c>
-      <c r="D45" s="206">
+      <c r="D45" s="157">
         <f t="shared" si="1"/>
         <v>6.1105212899339435E-2</v>
       </c>
-      <c r="E45" s="211">
+      <c r="E45" s="162">
         <f t="shared" si="2"/>
         <v>1.4335640251718318</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="210">
+      <c r="A46" s="161">
         <v>40</v>
       </c>
-      <c r="B46" s="211">
+      <c r="B46" s="162">
         <f t="shared" si="3"/>
         <v>1.4335640251718318</v>
       </c>
-      <c r="C46" s="211">
+      <c r="C46" s="162">
         <f t="shared" si="0"/>
         <v>1.4275908417336157E-2</v>
       </c>
-      <c r="D46" s="206">
+      <c r="D46" s="157">
         <f t="shared" si="1"/>
         <v>6.1713718977795359E-2</v>
       </c>
-      <c r="E46" s="211">
+      <c r="E46" s="162">
         <f t="shared" si="2"/>
         <v>1.3718503061940364</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="210">
+      <c r="A47" s="161">
         <v>41</v>
       </c>
-      <c r="B47" s="211">
+      <c r="B47" s="162">
         <f t="shared" si="3"/>
         <v>1.3718503061940364</v>
       </c>
-      <c r="C47" s="211">
+      <c r="C47" s="162">
         <f t="shared" si="0"/>
         <v>1.3661342632515611E-2</v>
       </c>
-      <c r="D47" s="206">
+      <c r="D47" s="157">
         <f t="shared" si="1"/>
         <v>6.2328284762615906E-2</v>
       </c>
-      <c r="E47" s="211">
+      <c r="E47" s="162">
         <f t="shared" si="2"/>
         <v>1.3095220214314205</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="210">
+      <c r="A48" s="161">
         <v>42</v>
       </c>
-      <c r="B48" s="211">
+      <c r="B48" s="162">
         <f t="shared" si="3"/>
         <v>1.3095220214314205</v>
       </c>
-      <c r="C48" s="211">
+      <c r="C48" s="162">
         <f t="shared" si="0"/>
         <v>1.3040656796754561E-2</v>
       </c>
-      <c r="D48" s="206">
+      <c r="D48" s="157">
         <f t="shared" si="1"/>
         <v>6.2948970598376952E-2</v>
       </c>
-      <c r="E48" s="211">
+      <c r="E48" s="162">
         <f t="shared" si="2"/>
         <v>1.2465730508330435</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="210">
+      <c r="A49" s="161">
         <v>43</v>
       </c>
-      <c r="B49" s="211">
+      <c r="B49" s="162">
         <f t="shared" si="3"/>
         <v>1.2465730508330435</v>
       </c>
-      <c r="C49" s="211">
+      <c r="C49" s="162">
         <f t="shared" si="0"/>
         <v>1.2413789964545724E-2</v>
       </c>
-      <c r="D49" s="206">
+      <c r="D49" s="157">
         <f t="shared" si="1"/>
         <v>6.3575837430585785E-2</v>
       </c>
-      <c r="E49" s="211">
+      <c r="E49" s="162">
         <f t="shared" si="2"/>
         <v>1.1829972134024578</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="210">
+      <c r="A50" s="161">
         <v>44</v>
       </c>
-      <c r="B50" s="211">
+      <c r="B50" s="162">
         <f t="shared" si="3"/>
         <v>1.1829972134024578</v>
       </c>
-      <c r="C50" s="211">
+      <c r="C50" s="162">
         <f t="shared" si="0"/>
         <v>1.1780680583466142E-2</v>
       </c>
-      <c r="D50" s="206">
+      <c r="D50" s="157">
         <f t="shared" si="1"/>
         <v>6.4208946811665377E-2</v>
       </c>
-      <c r="E50" s="211">
+      <c r="E50" s="162">
         <f t="shared" si="2"/>
         <v>1.1187882665907924</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="210">
+      <c r="A51" s="161">
         <v>45</v>
       </c>
-      <c r="B51" s="211">
+      <c r="B51" s="162">
         <f t="shared" si="3"/>
         <v>1.1187882665907924</v>
       </c>
-      <c r="C51" s="211">
+      <c r="C51" s="162">
         <f t="shared" si="0"/>
         <v>1.1141266488133308E-2</v>
       </c>
-      <c r="D51" s="206">
+      <c r="D51" s="157">
         <f t="shared" si="1"/>
         <v>6.4848360906998206E-2</v>
       </c>
-      <c r="E51" s="211">
+      <c r="E51" s="162">
         <f t="shared" si="2"/>
         <v>1.0539399056837941</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="210">
+      <c r="A52" s="161">
         <v>46</v>
       </c>
-      <c r="B52" s="211">
+      <c r="B52" s="162">
         <f t="shared" si="3"/>
         <v>1.0539399056837941</v>
       </c>
-      <c r="C52" s="211">
+      <c r="C52" s="162">
         <f t="shared" si="0"/>
         <v>1.0495484894101115E-2</v>
       </c>
-      <c r="D52" s="206">
+      <c r="D52" s="157">
         <f t="shared" si="1"/>
         <v>6.5494142501030403E-2</v>
       </c>
-      <c r="E52" s="211">
+      <c r="E52" s="162">
         <f t="shared" si="2"/>
         <v>0.98844576318276378</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="210">
+      <c r="A53" s="161">
         <v>47</v>
       </c>
-      <c r="B53" s="211">
+      <c r="B53" s="162">
         <f t="shared" si="3"/>
         <v>0.98844576318276378</v>
       </c>
-      <c r="C53" s="211">
+      <c r="C53" s="162">
         <f t="shared" si="0"/>
         <v>9.843272391695022E-3</v>
       </c>
-      <c r="D53" s="206">
+      <c r="D53" s="157">
         <f t="shared" si="1"/>
         <v>6.6146355003436491E-2</v>
       </c>
-      <c r="E53" s="211">
+      <c r="E53" s="162">
         <f t="shared" si="2"/>
         <v>0.92229940817932732</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="210">
+      <c r="A54" s="161">
         <v>48</v>
       </c>
-      <c r="B54" s="211">
+      <c r="B54" s="162">
         <f t="shared" si="3"/>
         <v>0.92229940817932732</v>
       </c>
-      <c r="C54" s="211">
+      <c r="C54" s="162">
         <f t="shared" si="0"/>
         <v>9.1845649397858005E-3</v>
       </c>
-      <c r="D54" s="206">
+      <c r="D54" s="157">
         <f t="shared" si="1"/>
         <v>6.6805062455345718E-2</v>
       </c>
-      <c r="E54" s="211">
+      <c r="E54" s="162">
         <f t="shared" si="2"/>
         <v>0.85549434572398164</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="210">
+      <c r="A55" s="161">
         <v>49</v>
       </c>
-      <c r="B55" s="211">
+      <c r="B55" s="162">
         <f t="shared" si="3"/>
         <v>0.85549434572398164</v>
       </c>
-      <c r="C55" s="211">
+      <c r="C55" s="162">
         <f t="shared" si="0"/>
         <v>8.5192978595013177E-3</v>
       </c>
-      <c r="D55" s="206">
+      <c r="D55" s="157">
         <f t="shared" si="1"/>
         <v>6.7470329535630202E-2</v>
       </c>
-      <c r="E55" s="211">
+      <c r="E55" s="162">
         <f t="shared" si="2"/>
         <v>0.78802401618835138</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="210">
+      <c r="A56" s="161">
         <v>50</v>
       </c>
-      <c r="B56" s="211">
+      <c r="B56" s="162">
         <f t="shared" si="3"/>
         <v>0.78802401618835138</v>
       </c>
-      <c r="C56" s="211">
+      <c r="C56" s="162">
         <f t="shared" si="0"/>
         <v>7.8474058278756656E-3</v>
       </c>
-      <c r="D56" s="206">
+      <c r="D56" s="157">
         <f t="shared" si="1"/>
         <v>6.8142221567255856E-2</v>
       </c>
-      <c r="E56" s="211">
+      <c r="E56" s="162">
         <f t="shared" si="2"/>
         <v>0.71988179462109558</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="210">
+      <c r="A57" s="161">
         <v>51</v>
       </c>
-      <c r="B57" s="211">
+      <c r="B57" s="162">
         <f t="shared" si="3"/>
         <v>0.71988179462109558</v>
       </c>
-      <c r="C57" s="211">
+      <c r="C57" s="162">
         <f t="shared" si="0"/>
         <v>7.1688228714350769E-3</v>
       </c>
-      <c r="D57" s="206">
+      <c r="D57" s="157">
         <f t="shared" si="1"/>
         <v>6.8820804523696433E-2</v>
       </c>
-      <c r="E57" s="211">
+      <c r="E57" s="162">
         <f t="shared" si="2"/>
         <v>0.65106099009739915</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="210">
+      <c r="A58" s="161">
         <v>52</v>
       </c>
-      <c r="B58" s="211">
+      <c r="B58" s="162">
         <f t="shared" si="3"/>
         <v>0.65106099009739915</v>
       </c>
-      <c r="C58" s="211">
+      <c r="C58" s="162">
         <f t="shared" si="0"/>
         <v>6.4834823597199331E-3</v>
       </c>
-      <c r="D58" s="206">
+      <c r="D58" s="157">
         <f t="shared" si="1"/>
         <v>6.9506145035411582E-2</v>
       </c>
-      <c r="E58" s="211">
+      <c r="E58" s="162">
         <f t="shared" si="2"/>
         <v>0.58155484506198762</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="210">
+      <c r="A59" s="161">
         <v>53</v>
       </c>
-      <c r="B59" s="211">
+      <c r="B59" s="162">
         <f t="shared" si="3"/>
         <v>0.58155484506198762</v>
       </c>
-      <c r="C59" s="211">
+      <c r="C59" s="162">
         <f t="shared" si="0"/>
         <v>5.7913169987422932E-3</v>
       </c>
-      <c r="D59" s="206">
+      <c r="D59" s="157">
         <f t="shared" si="1"/>
         <v>7.0198310396389227E-2</v>
       </c>
-      <c r="E59" s="211">
+      <c r="E59" s="162">
         <f t="shared" si="2"/>
         <v>0.51135653466559838</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="210">
+      <c r="A60" s="161">
         <v>54</v>
       </c>
-      <c r="B60" s="211">
+      <c r="B60" s="162">
         <f t="shared" si="3"/>
         <v>0.51135653466559838</v>
       </c>
-      <c r="C60" s="211">
+      <c r="C60" s="162">
         <f t="shared" si="0"/>
         <v>5.0922588243782502E-3</v>
       </c>
-      <c r="D60" s="206">
+      <c r="D60" s="157">
         <f t="shared" si="1"/>
         <v>7.0897368570753266E-2</v>
       </c>
-      <c r="E60" s="211">
+      <c r="E60" s="162">
         <f t="shared" si="2"/>
         <v>0.44045916609484514</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="210">
+      <c r="A61" s="161">
         <v>55</v>
       </c>
-      <c r="B61" s="211">
+      <c r="B61" s="162">
         <f t="shared" si="3"/>
         <v>0.44045916609484514</v>
       </c>
-      <c r="C61" s="211">
+      <c r="C61" s="162">
         <f t="shared" si="0"/>
         <v>4.3862391956944998E-3</v>
       </c>
-      <c r="D61" s="206">
+      <c r="D61" s="157">
         <f t="shared" si="1"/>
         <v>7.1603388199437012E-2</v>
       </c>
-      <c r="E61" s="211">
+      <c r="E61" s="162">
         <f t="shared" si="2"/>
         <v>0.36885577789540813</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="210">
+      <c r="A62" s="161">
         <v>56</v>
       </c>
-      <c r="B62" s="211">
+      <c r="B62" s="162">
         <f t="shared" si="3"/>
         <v>0.36885577789540813</v>
       </c>
-      <c r="C62" s="211">
+      <c r="C62" s="162">
         <f t="shared" si="0"/>
         <v>3.673188788208439E-3</v>
       </c>
-      <c r="D62" s="206">
+      <c r="D62" s="157">
         <f t="shared" si="1"/>
         <v>7.2316438606923078E-2</v>
       </c>
-      <c r="E62" s="211">
+      <c r="E62" s="162">
         <f t="shared" si="2"/>
         <v>0.29653933928848508</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="210">
+      <c r="A63" s="161">
         <v>57</v>
       </c>
-      <c r="B63" s="211">
+      <c r="B63" s="162">
         <f t="shared" si="3"/>
         <v>0.29653933928848508</v>
       </c>
-      <c r="C63" s="211">
+      <c r="C63" s="162">
         <f t="shared" si="0"/>
         <v>2.953037587081164E-3</v>
       </c>
-      <c r="D63" s="206">
+      <c r="D63" s="157">
         <f t="shared" si="1"/>
         <v>7.3036589808050348E-2</v>
       </c>
-      <c r="E63" s="211">
+      <c r="E63" s="162">
         <f t="shared" si="2"/>
         <v>0.22350274948043475</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="210">
+      <c r="A64" s="161">
         <v>58</v>
       </c>
-      <c r="B64" s="211">
+      <c r="B64" s="162">
         <f t="shared" si="3"/>
         <v>0.22350274948043475</v>
       </c>
-      <c r="C64" s="211">
+      <c r="C64" s="162">
         <f t="shared" si="0"/>
         <v>2.2257148802426628E-3</v>
       </c>
-      <c r="D64" s="206">
+      <c r="D64" s="157">
         <f t="shared" si="1"/>
         <v>7.3763912514888855E-2</v>
       </c>
-      <c r="E64" s="211">
+      <c r="E64" s="162">
         <f t="shared" si="2"/>
         <v>0.14973883696554591</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="210">
+      <c r="A65" s="161">
         <v>59</v>
       </c>
-      <c r="B65" s="211">
+      <c r="B65" s="162">
         <f t="shared" si="3"/>
         <v>0.14973883696554591</v>
       </c>
-      <c r="C65" s="211">
+      <c r="C65" s="162">
         <f t="shared" si="0"/>
         <v>1.4911492514485612E-3</v>
       </c>
-      <c r="D65" s="206">
+      <c r="D65" s="157">
         <f t="shared" si="1"/>
         <v>7.4498478143682947E-2</v>
       </c>
-      <c r="E65" s="211">
+      <c r="E65" s="162">
         <f t="shared" si="2"/>
         <v>7.524035882186296E-2</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="210">
+      <c r="A66" s="161">
         <v>60</v>
       </c>
-      <c r="B66" s="211">
+      <c r="B66" s="162">
         <f t="shared" si="3"/>
         <v>7.524035882186296E-2</v>
       </c>
-      <c r="C66" s="211">
+      <c r="C66" s="162">
         <f t="shared" si="0"/>
         <v>7.4926857326771865E-4</v>
       </c>
-      <c r="D66" s="206">
+      <c r="D66" s="157">
         <f t="shared" si="1"/>
         <v>7.5240358821863793E-2</v>
       </c>
-      <c r="E66" s="211">
+      <c r="E66" s="162">
         <f t="shared" si="2"/>
         <v>-8.3266726846886741E-16</v>
       </c>
@@ -4670,7 +4682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:XFD84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -4685,46 +4697,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="201" t="str">
+      <c r="A1" s="210" t="str">
         <f>Exp!A1</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
     </row>
     <row r="2" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="187" t="str">
+      <c r="A2" s="196" t="str">
         <f>Exp!A2</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
     </row>
     <row r="3" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A3" s="189"/>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
+      <c r="A3" s="198"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
     </row>
     <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="164" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
     </row>
@@ -4733,23 +4745,23 @@
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
-      <c r="E6" s="190" t="s">
+      <c r="E6" s="199" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="200"/>
+      <c r="F6" s="209"/>
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="182" t="s">
+      <c r="B7" s="192" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="192"/>
       <c r="G7" s="64"/>
     </row>
     <row r="8" spans="1:8" ht="14" x14ac:dyDescent="0.3">
@@ -5588,26 +5600,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="201" t="str">
+      <c r="A1" s="210" t="str">
         <f>Pback!A1</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
     </row>
     <row r="2" spans="1:12" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="187" t="str">
+      <c r="A2" s="196" t="str">
         <f>Pback!A2</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
     </row>
     <row r="3" spans="1:12" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="45"/>
@@ -5620,14 +5632,14 @@
       <c r="H3" s="43"/>
     </row>
     <row r="5" spans="1:12" ht="14" x14ac:dyDescent="0.3">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="164" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
     </row>
@@ -5636,23 +5648,23 @@
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
-      <c r="E6" s="190" t="s">
+      <c r="E6" s="199" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="190"/>
+      <c r="F6" s="199"/>
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="182" t="s">
+      <c r="B7" s="192" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="192"/>
       <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:12" ht="14" x14ac:dyDescent="0.3">
@@ -6355,49 +6367,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="201" t="str">
+      <c r="A1" s="210" t="str">
         <f>PL!A1</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
     </row>
     <row r="2" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="187" t="str">
+      <c r="A2" s="196" t="str">
         <f>PL!A2</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
     </row>
     <row r="3" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A3" s="189"/>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
+      <c r="A3" s="198"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="198"/>
       <c r="H3" s="43"/>
     </row>
     <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="164" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="184"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
       <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:8" ht="14" x14ac:dyDescent="0.3">
@@ -6406,23 +6418,23 @@
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
-      <c r="F6" s="190" t="s">
+      <c r="F6" s="199" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="190"/>
+      <c r="G6" s="199"/>
     </row>
     <row r="7" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="202" t="s">
+      <c r="B7" s="211" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="202"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="202"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="202"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="211"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="211"/>
     </row>
     <row r="8" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
@@ -7123,43 +7135,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="185" t="str">
+      <c r="A1" s="194" t="str">
         <f>CF!A1</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
     </row>
     <row r="2" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="187" t="str">
+      <c r="A2" s="196" t="str">
         <f>CF!A2</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
     </row>
     <row r="3" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A3" s="189"/>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
+      <c r="A3" s="198"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
     </row>
     <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
@@ -7183,10 +7195,10 @@
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
-      <c r="D9" s="190" t="s">
+      <c r="D9" s="199" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="190"/>
+      <c r="E9" s="199"/>
     </row>
     <row r="10" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
@@ -7370,15 +7382,15 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A24" s="190" t="s">
+      <c r="A24" s="199" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="190"/>
-      <c r="C24" s="190" t="s">
+      <c r="B24" s="199"/>
+      <c r="C24" s="199" t="s">
         <v>260</v>
       </c>
-      <c r="D24" s="190"/>
-      <c r="E24" s="190"/>
+      <c r="D24" s="199"/>
+      <c r="E24" s="199"/>
       <c r="H24" s="94">
         <f>H23/(E17-E15)</f>
         <v>2.349915710550861</v>
@@ -7463,32 +7475,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="185" t="str">
+      <c r="A1" s="194" t="str">
         <f>BS!A1</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
     </row>
     <row r="2" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="187" t="str">
+      <c r="A2" s="196" t="str">
         <f>BS!A2</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="95"/>
@@ -7502,17 +7514,17 @@
       <c r="I3" s="95"/>
     </row>
     <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="203" t="s">
+      <c r="A4" s="212" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="203"/>
-      <c r="C4" s="203"/>
-      <c r="D4" s="203"/>
-      <c r="E4" s="203"/>
-      <c r="F4" s="203"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="203"/>
+      <c r="B4" s="212"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="212"/>
+      <c r="G4" s="212"/>
+      <c r="H4" s="212"/>
+      <c r="I4" s="212"/>
     </row>
     <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.35">
       <c r="A5" s="96"/>
@@ -8152,12 +8164,12 @@
       <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.6">
-      <c r="A6" s="162" t="s">
+      <c r="A6" s="186" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="164"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="188"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
@@ -8168,12 +8180,12 @@
       <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:9" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="165" t="s">
+      <c r="A9" s="189" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="166"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="167"/>
+      <c r="B9" s="190"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="191"/>
     </row>
     <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
@@ -8184,29 +8196,29 @@
       <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:9" ht="116.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="159" t="str">
+      <c r="A12" s="183" t="str">
         <f>'Basic Details'!C3</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B12" s="160"/>
-      <c r="C12" s="160"/>
-      <c r="D12" s="161"/>
+      <c r="B12" s="184"/>
+      <c r="C12" s="184"/>
+      <c r="D12" s="185"/>
       <c r="I12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="157"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="158"/>
+      <c r="A13" s="181"/>
+      <c r="B13" s="182"/>
+      <c r="C13" s="182"/>
       <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="155" t="s">
+      <c r="A14" s="174" t="s">
         <v>228</v>
       </c>
-      <c r="B14" s="156"/>
-      <c r="C14" s="156"/>
+      <c r="B14" s="175"/>
+      <c r="C14" s="175"/>
       <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -8214,57 +8226,57 @@
       <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="168" t="str">
+      <c r="A16" s="165" t="str">
         <f>'Basic Details'!C4</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B16" s="169"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="170"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="167"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="D17" s="18"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="155"/>
-      <c r="B18" s="156"/>
-      <c r="C18" s="156"/>
+      <c r="A18" s="174"/>
+      <c r="B18" s="175"/>
+      <c r="C18" s="175"/>
       <c r="D18" s="18"/>
     </row>
     <row r="19" spans="1:4" ht="20" x14ac:dyDescent="0.4">
-      <c r="A19" s="175" t="s">
+      <c r="A19" s="172" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="176"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="180"/>
+      <c r="B19" s="173"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="179"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="155"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
+      <c r="A20" s="174"/>
+      <c r="B20" s="175"/>
+      <c r="C20" s="175"/>
       <c r="D20" s="18"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="155"/>
-      <c r="B21" s="156"/>
-      <c r="C21" s="156"/>
+      <c r="A21" s="174"/>
+      <c r="B21" s="175"/>
+      <c r="C21" s="175"/>
       <c r="D21" s="18"/>
     </row>
     <row r="22" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A22" s="177" t="str">
+      <c r="A22" s="176" t="str">
         <f>'Basic Details'!C5</f>
         <v>LABORATORY AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B22" s="178"/>
-      <c r="C22" s="178"/>
-      <c r="D22" s="179"/>
+      <c r="B22" s="177"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="178"/>
     </row>
     <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="175"/>
-      <c r="B23" s="176"/>
-      <c r="C23" s="176"/>
+      <c r="A23" s="172"/>
+      <c r="B23" s="173"/>
+      <c r="C23" s="173"/>
       <c r="D23" s="18"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -8350,17 +8362,17 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
-      <c r="B38" s="174" t="s">
+      <c r="B38" s="171" t="s">
         <v>232</v>
       </c>
-      <c r="C38" s="174"/>
-      <c r="D38" s="174"/>
+      <c r="C38" s="171"/>
+      <c r="D38" s="171"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
-      <c r="B39" s="174"/>
-      <c r="C39" s="174"/>
-      <c r="D39" s="174"/>
+      <c r="B39" s="171"/>
+      <c r="C39" s="171"/>
+      <c r="D39" s="171"/>
     </row>
     <row r="40" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="20"/>
@@ -8375,12 +8387,12 @@
       <c r="D41" s="21"/>
     </row>
     <row r="43" spans="1:4" ht="25" x14ac:dyDescent="0.5">
-      <c r="A43" s="181" t="s">
+      <c r="A43" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="181"/>
-      <c r="C43" s="181"/>
-      <c r="D43" s="181"/>
+      <c r="B43" s="180"/>
+      <c r="C43" s="180"/>
+      <c r="D43" s="180"/>
     </row>
     <row r="46" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="22">
@@ -8827,16 +8839,16 @@
       <c r="C97" s="27"/>
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="174" t="s">
+      <c r="A98" s="171" t="s">
         <v>232</v>
       </c>
-      <c r="B98" s="174"/>
-      <c r="C98" s="174"/>
+      <c r="B98" s="171"/>
+      <c r="C98" s="171"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="174"/>
-      <c r="B99" s="174"/>
-      <c r="C99" s="174"/>
+      <c r="A99" s="171"/>
+      <c r="B99" s="171"/>
+      <c r="C99" s="171"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
@@ -8874,22 +8886,22 @@
       <c r="C106" s="10"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="172"/>
-      <c r="B107" s="172"/>
-      <c r="C107" s="172"/>
+      <c r="A107" s="169"/>
+      <c r="B107" s="169"/>
+      <c r="C107" s="169"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="173"/>
-      <c r="B108" s="173"/>
-      <c r="C108" s="173"/>
+      <c r="A108" s="170"/>
+      <c r="B108" s="170"/>
+      <c r="C108" s="170"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="8"/>
       <c r="B110" s="1"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="171"/>
-      <c r="B112" s="171"/>
+      <c r="A112" s="168"/>
+      <c r="B112" s="168"/>
       <c r="C112" s="7"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -9170,6 +9182,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A112:B112"/>
     <mergeCell ref="A107:C107"/>
@@ -9183,11 +9200,6 @@
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="B38:D39"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -9445,22 +9457,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="185" t="str">
+      <c r="A1" s="194" t="str">
         <f>Phigh!C46</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="186" t="str">
+      <c r="A2" s="195" t="str">
         <f>+Phigh!C54</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
     </row>
     <row r="3" spans="1:4" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="45"/>
@@ -9475,12 +9487,12 @@
       <c r="D4" s="51"/>
     </row>
     <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.3">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="164" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
     </row>
     <row r="6" spans="1:4" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="51"/>
@@ -9579,12 +9591,12 @@
       <c r="D17" s="51"/>
     </row>
     <row r="18" spans="1:4" ht="14" x14ac:dyDescent="0.3">
-      <c r="A18" s="184" t="s">
+      <c r="A18" s="164" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="184"/>
-      <c r="C18" s="184"/>
-      <c r="D18" s="184"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="51"/>
@@ -9711,22 +9723,22 @@
       <c r="D34" s="51"/>
     </row>
     <row r="35" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="A35" s="182"/>
-      <c r="B35" s="182"/>
-      <c r="C35" s="182"/>
-      <c r="D35" s="182"/>
+      <c r="A35" s="192"/>
+      <c r="B35" s="192"/>
+      <c r="C35" s="192"/>
+      <c r="D35" s="192"/>
     </row>
     <row r="36" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="A36" s="156"/>
-      <c r="B36" s="156"/>
-      <c r="C36" s="156"/>
-      <c r="D36" s="156"/>
+      <c r="A36" s="175"/>
+      <c r="B36" s="175"/>
+      <c r="C36" s="175"/>
+      <c r="D36" s="175"/>
     </row>
     <row r="39" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="A39" s="183"/>
-      <c r="B39" s="183"/>
-      <c r="C39" s="183"/>
-      <c r="D39" s="183"/>
+      <c r="A39" s="193"/>
+      <c r="B39" s="193"/>
+      <c r="C39" s="193"/>
+      <c r="D39" s="193"/>
     </row>
     <row r="40" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="D40" s="12"/>
@@ -9774,33 +9786,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="185" t="str">
+      <c r="A1" s="194" t="str">
         <f>Land!A1</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
     </row>
     <row r="2" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="187" t="str">
+      <c r="A2" s="196" t="str">
         <f>Land!A2</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
     </row>
     <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="164" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="184"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
     </row>
     <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="E5" s="63" t="s">
@@ -10112,24 +10124,24 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="185" t="str">
+      <c r="A26" s="194" t="str">
         <f>A1</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B26" s="185"/>
-      <c r="C26" s="185"/>
-      <c r="D26" s="185"/>
-      <c r="E26" s="185"/>
+      <c r="B26" s="194"/>
+      <c r="C26" s="194"/>
+      <c r="D26" s="194"/>
+      <c r="E26" s="194"/>
     </row>
     <row r="27" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="187" t="str">
+      <c r="A27" s="196" t="str">
         <f>A2</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B27" s="187"/>
-      <c r="C27" s="187"/>
-      <c r="D27" s="187"/>
-      <c r="E27" s="187"/>
+      <c r="B27" s="196"/>
+      <c r="C27" s="196"/>
+      <c r="D27" s="196"/>
+      <c r="E27" s="196"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G28" s="27">
@@ -10138,13 +10150,13 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A31" s="184" t="s">
+      <c r="A31" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="184"/>
-      <c r="C31" s="184"/>
-      <c r="D31" s="184"/>
-      <c r="E31" s="184"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="164"/>
     </row>
     <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="E32" s="63" t="s">
@@ -10317,24 +10329,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="185" t="str">
+      <c r="A1" s="194" t="str">
         <f>'PM-MFA'!A1:E1</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
     </row>
     <row r="2" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="187" t="str">
+      <c r="A2" s="196" t="str">
         <f>'PM-MFA'!A2:E2</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
     </row>
     <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
@@ -10344,13 +10356,13 @@
       <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="164" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="184"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
       <c r="G4" s="51" t="s">
         <v>189</v>
       </c>
@@ -10521,30 +10533,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="185" t="str">
+      <c r="A1" s="194" t="str">
         <f>Intt!A1</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
     </row>
     <row r="2" spans="1:4" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="187" t="str">
+      <c r="A2" s="196" t="str">
         <f>'Pre Operative exp'!A2:E2</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
     </row>
     <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.3">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="164" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="184"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
     </row>
     <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.3">
       <c r="D5" s="63" t="s">
@@ -10821,31 +10833,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="185" t="str">
+      <c r="A1" s="194" t="str">
         <f>'PM-MFA'!A1</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
     </row>
     <row r="2" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="186" t="str">
+      <c r="A2" s="195" t="str">
         <f>'PM-MFA'!A2</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
     </row>
     <row r="3" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A3" s="189"/>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
+      <c r="A3" s="198"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
@@ -10856,13 +10868,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="164" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
@@ -10870,11 +10882,11 @@
     <row r="6" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
-      <c r="C6" s="190" t="s">
+      <c r="C6" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="190"/>
-      <c r="E6" s="190"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="199"/>
     </row>
     <row r="8" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
@@ -10886,7 +10898,7 @@
       <c r="C8" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="D8" s="188" t="s">
+      <c r="D8" s="197" t="s">
         <v>245</v>
       </c>
       <c r="E8" s="35" t="s">
@@ -10903,7 +10915,7 @@
       <c r="C9" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="D9" s="188"/>
+      <c r="D9" s="197"/>
       <c r="E9" s="35" t="s">
         <v>190</v>
       </c>
@@ -11188,22 +11200,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="191" t="str">
+      <c r="A1" s="200" t="str">
         <f>Dep!A1</f>
         <v>M/S TRIKUTA MEDICOS AND DIAGNOSTICS CENTRE</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.3">
-      <c r="A2" s="192" t="str">
+      <c r="A2" s="201" t="str">
         <f>Dep!A2</f>
         <v>AIRPORT ROAD, GADI GARH, OPPOSITE DAYAL G MEDICOS, JAMMU</v>
       </c>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A3" s="112"/>
@@ -11212,12 +11224,12 @@
       <c r="D3" s="112"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="193" t="s">
+      <c r="A4" s="202" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="193"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
     </row>
     <row r="5" spans="1:4" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A5" s="113"/>
@@ -11229,26 +11241,26 @@
       <c r="A6" s="113"/>
       <c r="B6" s="113"/>
       <c r="C6" s="113"/>
-      <c r="D6" s="195" t="s">
+      <c r="D6" s="204" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="203" t="s">
         <v>220</v>
       </c>
-      <c r="B7" s="194" t="s">
+      <c r="B7" s="203" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="194" t="s">
+      <c r="C7" s="203" t="s">
         <v>221</v>
       </c>
-      <c r="D7" s="196"/>
+      <c r="D7" s="205"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="194"/>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
+      <c r="A8" s="203"/>
+      <c r="B8" s="203"/>
+      <c r="C8" s="203"/>
       <c r="D8" s="114" t="s">
         <v>222</v>
       </c>
